--- a/projects/kitchen-remodel/Kitchen-Remodel-Tracker.xlsx
+++ b/projects/kitchen-remodel/Kitchen-Remodel-Tracker.xlsx
@@ -9,15 +9,15 @@
     <sheet name="Tasks" sheetId="4" r:id="rId4"/>
     <sheet name="Materials" sheetId="5" r:id="rId5"/>
     <sheet name="Vendors" sheetId="6" r:id="rId6"/>
-    <sheet name="GC Action Needed" sheetId="7" r:id="rId7"/>
+    <sheet name="Open Questions" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Schedule'!A1:K73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'By Assignee'!A1:I101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'Tasks'!A1:M73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Materials'!A1:J16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Schedule'!A1:K75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'By Assignee'!A1:I103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'Tasks'!A1:M75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Materials'!A1:K16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5">'Vendors'!A1:G15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'GC Action Needed'!A1:E10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Open Questions'!A1:K24</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -213,13 +213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -830,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="str">
-        <v>⚠️  GC ACTION NEEDED  ⚠️</v>
+        <v>📋  OPEN QUESTIONS  📋</v>
       </c>
     </row>
     <row r="51">
@@ -1105,67 +1105,67 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="str">
-        <v>Contains questions and action items that need GC input.</v>
+        <v>Contains structured questions that need answers from Brandon (GC), Dave, or Tonia.</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="str">
-        <v>Please fill in the "GC Response" column for each item.</v>
+        <v>Questions have types: Assignee, Date, Date Range, Dependency, Yes/No, etc.</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="str">
-        <v/>
+        <v>Use the CLI (npm run task answer) to provide structured responses.</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="str">
-        <v>• Yellow highlighted rows need attention</v>
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="str">
-        <v>• "Related Task" links to the task in question</v>
+        <v>• Yellow rows = Open questions needing response</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="str">
-        <v>• Your responses will be incorporated into the project plan</v>
+        <v>• Orange rows = System notifications needing acknowledgment</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="str">
-        <v/>
+        <v>• Blue rows = Answered (awaiting review)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="str">
-        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
+        <v>• Green rows = Resolved</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="str">
-        <v/>
+        <v>• Filter by "Assignee" or "Type" columns to organize your view</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="str">
-        <v>TIPS</v>
+        <v>• "Related Task" links to the relevant task</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="str">
-        <v>• Use column filters (dropdown arrows in headers) to find items</v>
+        <v>• "Review Status" shows if answer was accepted or rejected</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="str">
-        <v>• Freeze panes keep headers visible when scrolling</v>
+        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="str">
-        <v>• All sheets except "GC Action Needed" are protected</v>
+        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
       </c>
     </row>
     <row r="67">
@@ -1175,20 +1175,45 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="str">
+        <v>TIPS</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="str">
+        <v>• Use column filters (dropdown arrows in headers) to find items</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="str">
+        <v>• Freeze panes keep headers visible when scrolling</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="str">
+        <v>• All sheets except "Open Questions" are protected</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="str">
         <v>Last updated: Wednesday, January 21, 2026</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A68"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A73"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1592,73 +1617,73 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="11" t="str">
+        <v>subtask</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <v>triple-window-header-trim</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <v xml:space="preserve">  Change header trim over triple window to match other window</v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <v>scheduled</v>
+      </c>
+      <c r="F12" s="11" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <v>Eliseo</v>
+      </c>
+      <c r="J12" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K12" s="11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C13" s="9" t="str">
         <v>install-doors</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D13" s="9" t="str">
         <v>Install Doors</v>
       </c>
-      <c r="E12" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F12" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G12" s="9" t="str">
-        <v/>
-      </c>
-      <c r="H12" s="9" t="str">
+      <c r="E13" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F13" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G13" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H13" s="9" t="str">
         <v>2026-01-24</v>
       </c>
-      <c r="I12" s="15" t="str">
+      <c r="I13" s="15" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="J12" s="9" t="str">
+      <c r="J13" s="9" t="str">
         <v>finish-trim</v>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K13" s="10" t="str">
         <v>No assignee; No date set but blocks other tasks</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="str">
-        <v>subtask</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <v>main-kitchen-door</v>
-      </c>
-      <c r="D13" s="12" t="str">
-        <v xml:space="preserve">  Main Kitchen Door</v>
-      </c>
-      <c r="E13" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F13" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G13" s="12" t="str">
-        <v/>
-      </c>
-      <c r="H13" s="12" t="str">
-        <v>2026-01-21</v>
-      </c>
-      <c r="I13" s="16" t="str">
-        <v>Needs Assignment</v>
-      </c>
-      <c r="J13" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K13" s="14" t="str">
-        <v>No assignee</v>
       </c>
     </row>
     <row r="14">
@@ -1669,10 +1694,10 @@
         <v>subtask</v>
       </c>
       <c r="C14" s="11" t="str">
-        <v>install-back-door</v>
+        <v>main-kitchen-door</v>
       </c>
       <c r="D14" s="11" t="str">
-        <v xml:space="preserve">  Install Back Door</v>
+        <v xml:space="preserve">  Main Kitchen Door</v>
       </c>
       <c r="E14" s="11" t="str">
         <v>needs-scheduled</v>
@@ -1686,7 +1711,7 @@
       <c r="H14" s="11" t="str">
         <v>2026-01-21</v>
       </c>
-      <c r="I14" s="17" t="str">
+      <c r="I14" s="16" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="J14" s="11" t="str">
@@ -1704,10 +1729,10 @@
         <v>subtask</v>
       </c>
       <c r="C15" s="12" t="str">
-        <v>hvac-door</v>
+        <v>install-back-door</v>
       </c>
       <c r="D15" s="12" t="str">
-        <v xml:space="preserve">  HVAC Door</v>
+        <v xml:space="preserve">  Install Back Door</v>
       </c>
       <c r="E15" s="12" t="str">
         <v>needs-scheduled</v>
@@ -1721,7 +1746,7 @@
       <c r="H15" s="12" t="str">
         <v>2026-01-21</v>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="17" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="J15" s="12" t="str">
@@ -1732,38 +1757,38 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="str">
-        <v>TASK</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <v>remove-old-porch</v>
-      </c>
-      <c r="D16" s="9" t="str">
-        <v>Remove Old Porch Steps and Posts</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F16" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G16" s="9" t="str">
-        <v/>
-      </c>
-      <c r="H16" s="9" t="str">
+      <c r="B16" s="11" t="str">
+        <v>subtask</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <v>hvac-door</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <v xml:space="preserve">  HVAC Door</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G16" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H16" s="11" t="str">
         <v>2026-01-21</v>
       </c>
-      <c r="I16" s="9" t="str">
-        <v>Danny</v>
-      </c>
-      <c r="J16" s="9" t="str">
-        <v/>
-      </c>
-      <c r="K16" s="10" t="str">
-        <v>No date set but blocks other tasks</v>
+      <c r="I16" s="16" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="J16" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K16" s="13" t="str">
+        <v>No assignee</v>
       </c>
     </row>
     <row r="17">
@@ -1774,10 +1799,10 @@
         <v>TASK</v>
       </c>
       <c r="C17" s="9" t="str">
-        <v>build-back-deck</v>
+        <v>remove-old-porch</v>
       </c>
       <c r="D17" s="9" t="str">
-        <v>Build Back Deck with Ramp</v>
+        <v>Remove Old Porch Steps and Posts</v>
       </c>
       <c r="E17" s="9" t="str">
         <v>needs-scheduled</v>
@@ -1789,16 +1814,16 @@
         <v/>
       </c>
       <c r="H17" s="9" t="str">
-        <v>2026-01-22</v>
+        <v>2026-01-21</v>
       </c>
       <c r="I17" s="9" t="str">
         <v>Danny</v>
       </c>
       <c r="J17" s="9" t="str">
-        <v>remove-old-porch</v>
-      </c>
-      <c r="K17" s="9" t="str">
-        <v/>
+        <v/>
+      </c>
+      <c r="K17" s="10" t="str">
+        <v>No date set but blocks other tasks</v>
       </c>
     </row>
     <row r="18">
@@ -1809,28 +1834,28 @@
         <v>TASK</v>
       </c>
       <c r="C18" s="9" t="str">
-        <v>finish-drywall</v>
+        <v>build-back-deck</v>
       </c>
       <c r="D18" s="9" t="str">
-        <v>Finish Drywall</v>
+        <v>Build Back Deck with Ramp</v>
       </c>
       <c r="E18" s="9" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="F18" s="9" t="str">
-        <v>2026-01-23</v>
+        <v/>
       </c>
       <c r="G18" s="9" t="str">
-        <v>2026-01-23</v>
+        <v/>
       </c>
       <c r="H18" s="9" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-22</v>
       </c>
       <c r="I18" s="9" t="str">
-        <v>Eliseo</v>
+        <v>Danny</v>
       </c>
       <c r="J18" s="9" t="str">
-        <v/>
+        <v>remove-old-porch</v>
       </c>
       <c r="K18" s="9" t="str">
         <v/>
@@ -1844,10 +1869,10 @@
         <v>TASK</v>
       </c>
       <c r="C19" s="9" t="str">
-        <v>painting</v>
+        <v>finish-drywall</v>
       </c>
       <c r="D19" s="9" t="str">
-        <v>Painting</v>
+        <v>Finish Drywall</v>
       </c>
       <c r="E19" s="9" t="str">
         <v>scheduled</v>
@@ -1859,16 +1884,16 @@
         <v>2026-01-23</v>
       </c>
       <c r="H19" s="9" t="str">
-        <v>2026-01-24</v>
+        <v>2026-01-23</v>
       </c>
       <c r="I19" s="9" t="str">
         <v>Eliseo</v>
       </c>
       <c r="J19" s="9" t="str">
-        <v>finish-trim, finish-drywall</v>
-      </c>
-      <c r="K19" s="10" t="str">
-        <v>Scheduled before finish-trim ends (2026-01-23); Scheduled before finish-drywall ends (2026-01-23)</v>
+        <v/>
+      </c>
+      <c r="K19" s="9" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -1879,31 +1904,31 @@
         <v>TASK</v>
       </c>
       <c r="C20" s="9" t="str">
-        <v>kitchen-baseboard</v>
+        <v>painting</v>
       </c>
       <c r="D20" s="9" t="str">
-        <v>Kitchen Baseboard</v>
+        <v>Painting</v>
       </c>
       <c r="E20" s="9" t="str">
         <v>scheduled</v>
       </c>
       <c r="F20" s="9" t="str">
-        <v>2026-01-26</v>
+        <v>2026-01-23</v>
       </c>
       <c r="G20" s="9" t="str">
-        <v>2026-01-26</v>
+        <v>2026-01-23</v>
       </c>
       <c r="H20" s="9" t="str">
         <v>2026-01-24</v>
       </c>
       <c r="I20" s="9" t="str">
-        <v>Jerum</v>
+        <v>Eliseo</v>
       </c>
       <c r="J20" s="9" t="str">
-        <v>finish-trim, painting</v>
-      </c>
-      <c r="K20" s="9" t="str">
-        <v/>
+        <v>finish-trim, finish-drywall</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <v>Scheduled before finish-trim ends (2026-01-23); Scheduled before finish-drywall ends (2026-01-23)</v>
       </c>
     </row>
     <row r="21">
@@ -1914,10 +1939,10 @@
         <v>TASK</v>
       </c>
       <c r="C21" s="9" t="str">
-        <v>upper-cabinet-install</v>
+        <v>kitchen-baseboard</v>
       </c>
       <c r="D21" s="9" t="str">
-        <v>Upper Cabinet Install</v>
+        <v>Kitchen Baseboard</v>
       </c>
       <c r="E21" s="9" t="str">
         <v>scheduled</v>
@@ -1931,14 +1956,14 @@
       <c r="H21" s="9" t="str">
         <v>2026-01-24</v>
       </c>
-      <c r="I21" s="15" t="str">
-        <v>Needs Assignment</v>
+      <c r="I21" s="9" t="str">
+        <v>Jerum</v>
       </c>
       <c r="J21" s="9" t="str">
-        <v>finish-trim</v>
-      </c>
-      <c r="K21" s="10" t="str">
-        <v>No assignee</v>
+        <v>finish-trim, painting</v>
+      </c>
+      <c r="K21" s="9" t="str">
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -1949,13 +1974,13 @@
         <v>TASK</v>
       </c>
       <c r="C22" s="9" t="str">
-        <v>crest-prep</v>
+        <v>upper-cabinet-install</v>
       </c>
       <c r="D22" s="9" t="str">
-        <v>Crest Prep / Cleaning</v>
+        <v>Upper Cabinet Install</v>
       </c>
       <c r="E22" s="9" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="F22" s="9" t="str">
         <v>2026-01-26</v>
@@ -1964,16 +1989,16 @@
         <v>2026-01-26</v>
       </c>
       <c r="H22" s="9" t="str">
-        <v>2026-01-27</v>
+        <v>2026-01-24</v>
       </c>
       <c r="I22" s="15" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="J22" s="9" t="str">
-        <v>kitchen-baseboard, upper-cabinet-install, finish-trim</v>
+        <v>finish-trim</v>
       </c>
       <c r="K22" s="10" t="str">
-        <v>Scheduled before kitchen-baseboard ends (2026-01-26); Scheduled before upper-cabinet-install ends (2026-01-26); No assignee</v>
+        <v>No assignee</v>
       </c>
     </row>
     <row r="23">
@@ -1984,13 +2009,13 @@
         <v>TASK</v>
       </c>
       <c r="C23" s="9" t="str">
-        <v>finish-electrical</v>
+        <v>crest-prep</v>
       </c>
       <c r="D23" s="9" t="str">
-        <v>Finish Electrical</v>
+        <v>Crest Prep / Cleaning</v>
       </c>
       <c r="E23" s="9" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="F23" s="9" t="str">
         <v>2026-01-26</v>
@@ -1999,16 +2024,16 @@
         <v>2026-01-26</v>
       </c>
       <c r="H23" s="9" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="I23" s="9" t="str">
-        <v>Craig Davenport</v>
+        <v>2026-01-27</v>
+      </c>
+      <c r="I23" s="15" t="str">
+        <v>Needs Assignment</v>
       </c>
       <c r="J23" s="9" t="str">
-        <v/>
-      </c>
-      <c r="K23" s="9" t="str">
-        <v/>
+        <v>kitchen-baseboard, upper-cabinet-install, finish-trim</v>
+      </c>
+      <c r="K23" s="10" t="str">
+        <v>Scheduled before kitchen-baseboard ends (2026-01-26); Scheduled before upper-cabinet-install ends (2026-01-26); No assignee</v>
       </c>
     </row>
     <row r="24">
@@ -2019,31 +2044,31 @@
         <v>TASK</v>
       </c>
       <c r="C24" s="9" t="str">
-        <v>propane</v>
+        <v>finish-electrical</v>
       </c>
       <c r="D24" s="9" t="str">
-        <v>Propane</v>
+        <v>Finish Electrical</v>
       </c>
       <c r="E24" s="9" t="str">
         <v>scheduled</v>
       </c>
       <c r="F24" s="9" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-26</v>
       </c>
       <c r="G24" s="9" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-26</v>
       </c>
       <c r="H24" s="9" t="str">
-        <v>2026-01-23</v>
-      </c>
-      <c r="I24" s="15" t="str">
-        <v>Needs Assignment</v>
+        <v>2026-01-26</v>
+      </c>
+      <c r="I24" s="9" t="str">
+        <v>Craig Davenport</v>
       </c>
       <c r="J24" s="9" t="str">
         <v/>
       </c>
-      <c r="K24" s="10" t="str">
-        <v>No assignee</v>
+      <c r="K24" s="9" t="str">
+        <v/>
       </c>
     </row>
     <row r="25">
@@ -2054,10 +2079,10 @@
         <v>TASK</v>
       </c>
       <c r="C25" s="9" t="str">
-        <v>install-stainless-wall</v>
+        <v>propane</v>
       </c>
       <c r="D25" s="9" t="str">
-        <v>Install Stainless Wall Covering (Right of Range)</v>
+        <v>Propane</v>
       </c>
       <c r="E25" s="9" t="str">
         <v>scheduled</v>
@@ -2069,16 +2094,16 @@
         <v>2026-01-23</v>
       </c>
       <c r="H25" s="9" t="str">
-        <v>2026-01-24</v>
-      </c>
-      <c r="I25" s="9" t="str">
-        <v>JD Fletcher</v>
+        <v>2026-01-23</v>
+      </c>
+      <c r="I25" s="15" t="str">
+        <v>Needs Assignment</v>
       </c>
       <c r="J25" s="9" t="str">
-        <v>propane</v>
+        <v/>
       </c>
       <c r="K25" s="10" t="str">
-        <v>Scheduled before propane ends (2026-01-23)</v>
+        <v>No assignee</v>
       </c>
     </row>
     <row r="26">
@@ -2089,136 +2114,136 @@
         <v>TASK</v>
       </c>
       <c r="C26" s="9" t="str">
-        <v>crest-installation</v>
+        <v>install-stainless-wall</v>
       </c>
       <c r="D26" s="9" t="str">
-        <v>Crest Installation</v>
+        <v>Install Stainless Wall Covering (Right of Range)</v>
       </c>
       <c r="E26" s="9" t="str">
         <v>scheduled</v>
       </c>
       <c r="F26" s="9" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="G26" s="9" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="H26" s="9" t="str">
+        <v>2026-01-24</v>
+      </c>
+      <c r="I26" s="9" t="str">
+        <v>JD Fletcher</v>
+      </c>
+      <c r="J26" s="9" t="str">
+        <v>propane</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <v>Scheduled before propane ends (2026-01-23)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="C27" s="9" t="str">
+        <v>crest-installation</v>
+      </c>
+      <c r="D27" s="9" t="str">
+        <v>Crest Installation</v>
+      </c>
+      <c r="E27" s="9" t="str">
+        <v>scheduled</v>
+      </c>
+      <c r="F27" s="9" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="G26" s="9" t="str">
+      <c r="G27" s="9" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="H26" s="9" t="str">
+      <c r="H27" s="9" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="I26" s="9" t="str">
+      <c r="I27" s="9" t="str">
         <v>Crest Mechanical</v>
       </c>
-      <c r="J26" s="9" t="str">
+      <c r="J27" s="9" t="str">
         <v>finish-trim, kitchen-baseboard, finish-electrical, propane, install-stainless-wall, upper-cabinet-install, crest-prep</v>
       </c>
-      <c r="K26" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="12">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="str">
+      <c r="K27" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="str">
         <v>subtask</v>
       </c>
-      <c r="C27" s="12" t="str">
+      <c r="C28" s="11" t="str">
         <v>verify-install-time</v>
       </c>
-      <c r="D27" s="12" t="str">
+      <c r="D28" s="11" t="str">
         <v xml:space="preserve">  Verify Install Time</v>
       </c>
-      <c r="E27" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F27" s="12" t="str">
+      <c r="E28" s="11" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F28" s="11" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="G27" s="12" t="str">
+      <c r="G28" s="11" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="H27" s="12" t="str">
+      <c r="H28" s="11" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="I27" s="12" t="str">
+      <c r="I28" s="11" t="str">
         <v>Brandon</v>
       </c>
-      <c r="J27" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K27" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9" t="str">
+      <c r="J28" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K28" s="11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="C28" s="9" t="str">
+      <c r="C29" s="9" t="str">
         <v>finish-plumbing</v>
       </c>
-      <c r="D28" s="9" t="str">
+      <c r="D29" s="9" t="str">
         <v>Finish Plumbing</v>
       </c>
-      <c r="E28" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F28" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G28" s="9" t="str">
-        <v/>
-      </c>
-      <c r="H28" s="9" t="str">
+      <c r="E29" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F29" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G29" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H29" s="9" t="str">
         <v>2026-01-28</v>
       </c>
-      <c r="I28" s="9" t="str">
+      <c r="I29" s="9" t="str">
         <v>Chris Bland</v>
       </c>
-      <c r="J28" s="9" t="str">
+      <c r="J29" s="9" t="str">
         <v>crest-installation</v>
       </c>
-      <c r="K28" s="10" t="str">
+      <c r="K29" s="10" t="str">
         <v>No date set but blocks other tasks</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="str">
-        <v>subtask</v>
-      </c>
-      <c r="C29" s="12" t="str">
-        <v>schedule-finish-plumbing</v>
-      </c>
-      <c r="D29" s="12" t="str">
-        <v xml:space="preserve">  Schedule Finish Plumbing</v>
-      </c>
-      <c r="E29" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F29" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G29" s="12" t="str">
-        <v/>
-      </c>
-      <c r="H29" s="12" t="str">
-        <v>2026-01-21</v>
-      </c>
-      <c r="I29" s="12" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="J29" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K29" s="12" t="str">
-        <v/>
       </c>
     </row>
     <row r="30">
@@ -2229,10 +2254,10 @@
         <v>subtask</v>
       </c>
       <c r="C30" s="11" t="str">
-        <v>finish-plumbing-work</v>
+        <v>schedule-finish-plumbing</v>
       </c>
       <c r="D30" s="11" t="str">
-        <v xml:space="preserve">  Finish Plumbing</v>
+        <v xml:space="preserve">  Schedule Finish Plumbing</v>
       </c>
       <c r="E30" s="11" t="str">
         <v>needs-scheduled</v>
@@ -2247,7 +2272,7 @@
         <v>2026-01-21</v>
       </c>
       <c r="I30" s="11" t="str">
-        <v>Chris Bland</v>
+        <v>Brandon</v>
       </c>
       <c r="J30" s="11" t="str">
         <v/>
@@ -2264,10 +2289,10 @@
         <v>subtask</v>
       </c>
       <c r="C31" s="12" t="str">
-        <v>install-handsink-laundry</v>
+        <v>finish-plumbing-work</v>
       </c>
       <c r="D31" s="12" t="str">
-        <v xml:space="preserve">  Install Existing Handsink in Laundry Room</v>
+        <v xml:space="preserve">  Finish Plumbing</v>
       </c>
       <c r="E31" s="12" t="str">
         <v>needs-scheduled</v>
@@ -2299,25 +2324,25 @@
         <v>subtask</v>
       </c>
       <c r="C32" s="11" t="str">
-        <v>schedule-baseboard-install</v>
+        <v>install-handsink-laundry</v>
       </c>
       <c r="D32" s="11" t="str">
-        <v xml:space="preserve">  Schedule Baseboard Install</v>
+        <v xml:space="preserve">  Install Existing Handsink in Laundry Room</v>
       </c>
       <c r="E32" s="11" t="str">
         <v>needs-scheduled</v>
       </c>
       <c r="F32" s="11" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="G32" s="11" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="H32" s="11" t="str">
-        <v>2026-01-26</v>
+        <v>2026-01-21</v>
       </c>
       <c r="I32" s="11" t="str">
-        <v>Brandon</v>
+        <v>Chris Bland</v>
       </c>
       <c r="J32" s="11" t="str">
         <v/>
@@ -2334,10 +2359,10 @@
         <v>subtask</v>
       </c>
       <c r="C33" s="12" t="str">
-        <v>baseboard-install</v>
+        <v>schedule-baseboard-install</v>
       </c>
       <c r="D33" s="12" t="str">
-        <v xml:space="preserve">  Baseboard Install</v>
+        <v xml:space="preserve">  Schedule Baseboard Install</v>
       </c>
       <c r="E33" s="12" t="str">
         <v>needs-scheduled</v>
@@ -2352,7 +2377,7 @@
         <v>2026-01-26</v>
       </c>
       <c r="I33" s="12" t="str">
-        <v>Jerum</v>
+        <v>Brandon</v>
       </c>
       <c r="J33" s="12" t="str">
         <v/>
@@ -2369,10 +2394,10 @@
         <v>subtask</v>
       </c>
       <c r="C34" s="11" t="str">
-        <v>move-mop-sink-receptacle</v>
+        <v>baseboard-install</v>
       </c>
       <c r="D34" s="11" t="str">
-        <v xml:space="preserve">  Move Receptacle Over Mop Sink</v>
+        <v xml:space="preserve">  Baseboard Install</v>
       </c>
       <c r="E34" s="11" t="str">
         <v>needs-scheduled</v>
@@ -2387,7 +2412,7 @@
         <v>2026-01-26</v>
       </c>
       <c r="I34" s="11" t="str">
-        <v>Dion Cahoon</v>
+        <v>Jerum</v>
       </c>
       <c r="J34" s="11" t="str">
         <v/>
@@ -2404,10 +2429,10 @@
         <v>subtask</v>
       </c>
       <c r="C35" s="12" t="str">
-        <v>install-coach-lamp</v>
+        <v>move-mop-sink-receptacle</v>
       </c>
       <c r="D35" s="12" t="str">
-        <v xml:space="preserve">  Install Coach Lamp</v>
+        <v xml:space="preserve">  Move Receptacle Over Mop Sink</v>
       </c>
       <c r="E35" s="12" t="str">
         <v>needs-scheduled</v>
@@ -2439,10 +2464,10 @@
         <v>subtask</v>
       </c>
       <c r="C36" s="11" t="str">
-        <v>install-light-string-receptacle</v>
+        <v>install-coach-lamp</v>
       </c>
       <c r="D36" s="11" t="str">
-        <v xml:space="preserve">  Install Receptacle for Light Strings</v>
+        <v xml:space="preserve">  Install Coach Lamp</v>
       </c>
       <c r="E36" s="11" t="str">
         <v>needs-scheduled</v>
@@ -2474,10 +2499,10 @@
         <v>subtask</v>
       </c>
       <c r="C37" s="12" t="str">
-        <v>add-tv-receptacle</v>
+        <v>install-light-string-receptacle</v>
       </c>
       <c r="D37" s="12" t="str">
-        <v xml:space="preserve">  Add Receptacle for TV Over Passthrough</v>
+        <v xml:space="preserve">  Install Receptacle for Light Strings</v>
       </c>
       <c r="E37" s="12" t="str">
         <v>needs-scheduled</v>
@@ -2509,10 +2534,10 @@
         <v>subtask</v>
       </c>
       <c r="C38" s="11" t="str">
-        <v>finish-lighting-install</v>
+        <v>add-tv-receptacle</v>
       </c>
       <c r="D38" s="11" t="str">
-        <v xml:space="preserve">  Finish Lighting Install</v>
+        <v xml:space="preserve">  Add Receptacle for TV Over Passthrough</v>
       </c>
       <c r="E38" s="11" t="str">
         <v>needs-scheduled</v>
@@ -2544,10 +2569,10 @@
         <v>subtask</v>
       </c>
       <c r="C39" s="12" t="str">
-        <v>schedule-electrical-signoff</v>
+        <v>finish-lighting-install</v>
       </c>
       <c r="D39" s="12" t="str">
-        <v xml:space="preserve">  Schedule Electrical Sign-off</v>
+        <v xml:space="preserve">  Finish Lighting Install</v>
       </c>
       <c r="E39" s="12" t="str">
         <v>needs-scheduled</v>
@@ -2562,7 +2587,7 @@
         <v>2026-01-26</v>
       </c>
       <c r="I39" s="12" t="str">
-        <v>Brandon</v>
+        <v>Dion Cahoon</v>
       </c>
       <c r="J39" s="12" t="str">
         <v/>
@@ -2579,10 +2604,10 @@
         <v>subtask</v>
       </c>
       <c r="C40" s="11" t="str">
-        <v>electrical-signoff</v>
+        <v>schedule-electrical-signoff</v>
       </c>
       <c r="D40" s="11" t="str">
-        <v xml:space="preserve">  Electrical Sign-off</v>
+        <v xml:space="preserve">  Schedule Electrical Sign-off</v>
       </c>
       <c r="E40" s="11" t="str">
         <v>needs-scheduled</v>
@@ -2597,7 +2622,7 @@
         <v>2026-01-26</v>
       </c>
       <c r="I40" s="11" t="str">
-        <v>Craig Davenport</v>
+        <v>Brandon</v>
       </c>
       <c r="J40" s="11" t="str">
         <v/>
@@ -2614,10 +2639,10 @@
         <v>subtask</v>
       </c>
       <c r="C41" s="12" t="str">
-        <v>connect-passthrough-heat-lamp</v>
+        <v>electrical-signoff</v>
       </c>
       <c r="D41" s="12" t="str">
-        <v xml:space="preserve">  Connect Passthrough Heat Lamp</v>
+        <v xml:space="preserve">  Electrical Sign-off</v>
       </c>
       <c r="E41" s="12" t="str">
         <v>needs-scheduled</v>
@@ -2629,16 +2654,16 @@
         <v>2026-01-26</v>
       </c>
       <c r="H41" s="12" t="str">
-        <v>2026-01-28</v>
+        <v>2026-01-26</v>
       </c>
       <c r="I41" s="12" t="str">
-        <v>Dion Cahoon</v>
+        <v>Craig Davenport</v>
       </c>
       <c r="J41" s="12" t="str">
-        <v>crest-installation</v>
-      </c>
-      <c r="K41" s="14" t="str">
-        <v>Scheduled before crest-installation ends (2026-01-27)</v>
+        <v/>
+      </c>
+      <c r="K41" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="42">
@@ -2649,31 +2674,31 @@
         <v>subtask</v>
       </c>
       <c r="C42" s="11" t="str">
-        <v>install-propane-line</v>
+        <v>connect-passthrough-heat-lamp</v>
       </c>
       <c r="D42" s="11" t="str">
-        <v xml:space="preserve">  Install Propane Line for Gas Range</v>
+        <v xml:space="preserve">  Connect Passthrough Heat Lamp</v>
       </c>
       <c r="E42" s="11" t="str">
         <v>needs-scheduled</v>
       </c>
       <c r="F42" s="11" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-26</v>
       </c>
       <c r="G42" s="11" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-26</v>
       </c>
       <c r="H42" s="11" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-28</v>
       </c>
       <c r="I42" s="11" t="str">
         <v>Dion Cahoon</v>
       </c>
       <c r="J42" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K42" s="11" t="str">
-        <v/>
+        <v>crest-installation</v>
+      </c>
+      <c r="K42" s="13" t="str">
+        <v>Scheduled before crest-installation ends (2026-01-27)</v>
       </c>
     </row>
     <row r="43">
@@ -2684,13 +2709,13 @@
         <v>subtask</v>
       </c>
       <c r="C43" s="12" t="str">
-        <v>propane-line-remediation</v>
+        <v>install-propane-line</v>
       </c>
       <c r="D43" s="12" t="str">
-        <v xml:space="preserve">  Propane Line Remediation</v>
+        <v xml:space="preserve">  Install Propane Line for Gas Range</v>
       </c>
       <c r="E43" s="12" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="F43" s="12" t="str">
         <v>2026-01-23</v>
@@ -2702,7 +2727,7 @@
         <v>2026-01-23</v>
       </c>
       <c r="I43" s="12" t="str">
-        <v>Beach Gas Appliance and Propane</v>
+        <v>Dion Cahoon</v>
       </c>
       <c r="J43" s="12" t="str">
         <v/>
@@ -2719,10 +2744,10 @@
         <v>subtask</v>
       </c>
       <c r="C44" s="11" t="str">
-        <v>paint-kitchen</v>
+        <v>propane-line-remediation</v>
       </c>
       <c r="D44" s="11" t="str">
-        <v xml:space="preserve">  Paint Kitchen</v>
+        <v xml:space="preserve">  Propane Line Remediation</v>
       </c>
       <c r="E44" s="11" t="str">
         <v>scheduled</v>
@@ -2737,7 +2762,7 @@
         <v>2026-01-23</v>
       </c>
       <c r="I44" s="11" t="str">
-        <v>Eliseo</v>
+        <v>Beach Gas Appliance and Propane</v>
       </c>
       <c r="J44" s="11" t="str">
         <v/>
@@ -2754,13 +2779,13 @@
         <v>subtask</v>
       </c>
       <c r="C45" s="12" t="str">
-        <v>paint-lobby-passthrough</v>
+        <v>paint-kitchen</v>
       </c>
       <c r="D45" s="12" t="str">
-        <v xml:space="preserve">  Paint Lobby Passthrough Wall</v>
+        <v xml:space="preserve">  Paint Kitchen</v>
       </c>
       <c r="E45" s="12" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="F45" s="12" t="str">
         <v>2026-01-23</v>
@@ -2789,10 +2814,10 @@
         <v>subtask</v>
       </c>
       <c r="C46" s="11" t="str">
-        <v>paint-doors</v>
+        <v>paint-lobby-passthrough</v>
       </c>
       <c r="D46" s="11" t="str">
-        <v xml:space="preserve">  Paint Doors (Kitchen Main, Back, HVAC)</v>
+        <v xml:space="preserve">  Paint Lobby Passthrough Wall</v>
       </c>
       <c r="E46" s="11" t="str">
         <v>needs-scheduled</v>
@@ -2804,16 +2829,16 @@
         <v>2026-01-23</v>
       </c>
       <c r="H46" s="11" t="str">
-        <v>2026-01-27</v>
+        <v>2026-01-23</v>
       </c>
       <c r="I46" s="11" t="str">
         <v>Eliseo</v>
       </c>
       <c r="J46" s="11" t="str">
-        <v>install-doors</v>
-      </c>
-      <c r="K46" s="13" t="str">
-        <v>Scheduled before install-doors ends (2026-01-24)</v>
+        <v/>
+      </c>
+      <c r="K46" s="11" t="str">
+        <v/>
       </c>
     </row>
     <row r="47">
@@ -2824,10 +2849,10 @@
         <v>subtask</v>
       </c>
       <c r="C47" s="12" t="str">
-        <v>touch-up-ceiling</v>
+        <v>paint-doors</v>
       </c>
       <c r="D47" s="12" t="str">
-        <v xml:space="preserve">  Touch Up Ceiling Damage (as needed)</v>
+        <v xml:space="preserve">  Paint Doors (Kitchen Main, Back, HVAC)</v>
       </c>
       <c r="E47" s="12" t="str">
         <v>needs-scheduled</v>
@@ -2839,16 +2864,16 @@
         <v>2026-01-23</v>
       </c>
       <c r="H47" s="12" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-27</v>
       </c>
       <c r="I47" s="12" t="str">
         <v>Eliseo</v>
       </c>
       <c r="J47" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K47" s="12" t="str">
-        <v/>
+        <v>install-doors</v>
+      </c>
+      <c r="K47" s="14" t="str">
+        <v>Scheduled before install-doors ends (2026-01-24)</v>
       </c>
     </row>
     <row r="48">
@@ -2859,10 +2884,10 @@
         <v>subtask</v>
       </c>
       <c r="C48" s="11" t="str">
-        <v>finish-drywall-kitchen</v>
+        <v>touch-up-ceiling</v>
       </c>
       <c r="D48" s="11" t="str">
-        <v xml:space="preserve">  Finish Drywall Kitchen</v>
+        <v xml:space="preserve">  Touch Up Ceiling Damage (as needed)</v>
       </c>
       <c r="E48" s="11" t="str">
         <v>needs-scheduled</v>
@@ -2887,73 +2912,73 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="str">
+      <c r="B49" s="12" t="str">
+        <v>subtask</v>
+      </c>
+      <c r="C49" s="12" t="str">
+        <v>finish-drywall-kitchen</v>
+      </c>
+      <c r="D49" s="12" t="str">
+        <v xml:space="preserve">  Finish Drywall Kitchen</v>
+      </c>
+      <c r="E49" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F49" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="G49" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="H49" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="I49" s="12" t="str">
+        <v>Eliseo</v>
+      </c>
+      <c r="J49" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K49" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="C49" s="9" t="str">
+      <c r="C50" s="9" t="str">
         <v>kitchen-put-back</v>
       </c>
-      <c r="D49" s="9" t="str">
+      <c r="D50" s="9" t="str">
         <v>Kitchen Put-Back</v>
       </c>
-      <c r="E49" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F49" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G49" s="9" t="str">
-        <v/>
-      </c>
-      <c r="H49" s="9" t="str">
+      <c r="E50" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F50" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G50" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H50" s="9" t="str">
         <v>2026-01-29</v>
       </c>
-      <c r="I49" s="15" t="str">
+      <c r="I50" s="15" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="J49" s="9" t="str">
+      <c r="J50" s="9" t="str">
         <v>crest-installation, finish-plumbing</v>
       </c>
-      <c r="K49" s="10" t="str">
+      <c r="K50" s="10" t="str">
         <v>No assignee; No date set but blocks other tasks</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11" t="str">
-        <v>subtask</v>
-      </c>
-      <c r="C50" s="11" t="str">
-        <v>install-dishwasher</v>
-      </c>
-      <c r="D50" s="11" t="str">
-        <v xml:space="preserve">  Install Dishwasher</v>
-      </c>
-      <c r="E50" s="11" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F50" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G50" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H50" s="11" t="str">
-        <v>2026-01-29</v>
-      </c>
-      <c r="I50" s="11" t="str">
-        <v>Dion Cahoon</v>
-      </c>
-      <c r="J50" s="11" t="str">
-        <v>crest-installation, finish-plumbing</v>
-      </c>
-      <c r="K50" s="11" t="str">
-        <v/>
       </c>
     </row>
     <row r="51">
@@ -2964,10 +2989,10 @@
         <v>subtask</v>
       </c>
       <c r="C51" s="12" t="str">
-        <v>install-ovens</v>
+        <v>install-dishwasher</v>
       </c>
       <c r="D51" s="12" t="str">
-        <v xml:space="preserve">  Install Ovens</v>
+        <v xml:space="preserve">  Install Dishwasher</v>
       </c>
       <c r="E51" s="12" t="str">
         <v>needs-scheduled</v>
@@ -2979,16 +3004,16 @@
         <v/>
       </c>
       <c r="H51" s="12" t="str">
-        <v>2026-01-21</v>
-      </c>
-      <c r="I51" s="16" t="str">
-        <v>Needs Assignment</v>
+        <v>2026-01-29</v>
+      </c>
+      <c r="I51" s="12" t="str">
+        <v>Dion Cahoon</v>
       </c>
       <c r="J51" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K51" s="14" t="str">
-        <v>No assignee</v>
+        <v>crest-installation, finish-plumbing</v>
+      </c>
+      <c r="K51" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="52">
@@ -2999,10 +3024,10 @@
         <v>subtask</v>
       </c>
       <c r="C52" s="11" t="str">
-        <v>move-appliances</v>
+        <v>install-ovens</v>
       </c>
       <c r="D52" s="11" t="str">
-        <v xml:space="preserve">  Move Range, Freezers and Refrigerators</v>
+        <v xml:space="preserve">  Install Ovens</v>
       </c>
       <c r="E52" s="11" t="str">
         <v>needs-scheduled</v>
@@ -3016,7 +3041,7 @@
       <c r="H52" s="11" t="str">
         <v>2026-01-21</v>
       </c>
-      <c r="I52" s="17" t="str">
+      <c r="I52" s="16" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="J52" s="11" t="str">
@@ -3027,143 +3052,143 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="str">
+      <c r="B53" s="12" t="str">
+        <v>subtask</v>
+      </c>
+      <c r="C53" s="12" t="str">
+        <v>move-appliances</v>
+      </c>
+      <c r="D53" s="12" t="str">
+        <v xml:space="preserve">  Move Range, Freezers and Refrigerators</v>
+      </c>
+      <c r="E53" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F53" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G53" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H53" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="I53" s="17" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="J53" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K53" s="14" t="str">
+        <v>No assignee</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="C53" s="9" t="str">
+      <c r="C54" s="9" t="str">
+        <v>install-dryer-vents</v>
+      </c>
+      <c r="D54" s="9" t="str">
+        <v>Install Dryer Vents</v>
+      </c>
+      <c r="E54" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F54" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G54" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H54" s="9" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="I54" s="15" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="J54" s="9" t="str">
+        <v/>
+      </c>
+      <c r="K54" s="10" t="str">
+        <v>No assignee</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="C55" s="9" t="str">
         <v>siding</v>
       </c>
-      <c r="D53" s="9" t="str">
+      <c r="D55" s="9" t="str">
         <v>Siding</v>
       </c>
-      <c r="E53" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F53" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G53" s="9" t="str">
-        <v/>
-      </c>
-      <c r="H53" s="9" t="str">
+      <c r="E55" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F55" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G55" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H55" s="9" t="str">
         <v>2026-01-24</v>
       </c>
-      <c r="I53" s="9" t="str">
+      <c r="I55" s="9" t="str">
         <v>Sergio</v>
       </c>
-      <c r="J53" s="9" t="str">
+      <c r="J55" s="9" t="str">
         <v>propane</v>
       </c>
-      <c r="K53" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11">
-        <v>53</v>
-      </c>
-      <c r="B54" s="11" t="str">
+      <c r="K55" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11" t="str">
         <v>subtask</v>
       </c>
-      <c r="C54" s="11" t="str">
+      <c r="C56" s="11" t="str">
         <v>schedule-siding</v>
       </c>
-      <c r="D54" s="11" t="str">
+      <c r="D56" s="11" t="str">
         <v xml:space="preserve">  Schedule Siding</v>
       </c>
-      <c r="E54" s="11" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F54" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G54" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H54" s="11" t="str">
+      <c r="E56" s="11" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F56" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G56" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H56" s="11" t="str">
         <v>2026-01-21</v>
       </c>
-      <c r="I54" s="11" t="str">
+      <c r="I56" s="11" t="str">
         <v>Brandon</v>
       </c>
-      <c r="J54" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K54" s="11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="12">
-        <v>54</v>
-      </c>
-      <c r="B55" s="12" t="str">
-        <v>subtask</v>
-      </c>
-      <c r="C55" s="12" t="str">
-        <v>siding-work</v>
-      </c>
-      <c r="D55" s="12" t="str">
-        <v xml:space="preserve">  Siding</v>
-      </c>
-      <c r="E55" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F55" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G55" s="12" t="str">
-        <v/>
-      </c>
-      <c r="H55" s="12" t="str">
-        <v>2026-01-21</v>
-      </c>
-      <c r="I55" s="12" t="str">
-        <v>Sergio</v>
-      </c>
-      <c r="J55" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K55" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9">
-        <v>55</v>
-      </c>
-      <c r="B56" s="9" t="str">
-        <v>TASK</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <v>inspection</v>
-      </c>
-      <c r="D56" s="9" t="str">
-        <v>Inspection</v>
-      </c>
-      <c r="E56" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F56" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G56" s="9" t="str">
-        <v/>
-      </c>
-      <c r="H56" s="9" t="str">
-        <v>2026-01-21</v>
-      </c>
-      <c r="I56" s="9" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="J56" s="9" t="str">
-        <v/>
-      </c>
-      <c r="K56" s="10" t="str">
-        <v>No date set but blocks other tasks</v>
+      <c r="J56" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K56" s="11" t="str">
+        <v/>
       </c>
     </row>
     <row r="57">
@@ -3174,10 +3199,10 @@
         <v>subtask</v>
       </c>
       <c r="C57" s="12" t="str">
-        <v>schedule-town-manteo</v>
+        <v>siding-work</v>
       </c>
       <c r="D57" s="12" t="str">
-        <v xml:space="preserve">  Schedule Town of Manteo</v>
+        <v xml:space="preserve">  Siding</v>
       </c>
       <c r="E57" s="12" t="str">
         <v>needs-scheduled</v>
@@ -3192,48 +3217,48 @@
         <v>2026-01-21</v>
       </c>
       <c r="I57" s="12" t="str">
+        <v>Sergio</v>
+      </c>
+      <c r="J57" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K57" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="C58" s="9" t="str">
+        <v>inspection</v>
+      </c>
+      <c r="D58" s="9" t="str">
+        <v>Inspection</v>
+      </c>
+      <c r="E58" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F58" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G58" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H58" s="9" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="I58" s="9" t="str">
         <v>Brandon</v>
       </c>
-      <c r="J57" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K57" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11" t="str">
-        <v>subtask</v>
-      </c>
-      <c r="C58" s="11" t="str">
-        <v>schedule-dare-county-health</v>
-      </c>
-      <c r="D58" s="11" t="str">
-        <v xml:space="preserve">  Schedule Dare County Health</v>
-      </c>
-      <c r="E58" s="11" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F58" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G58" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H58" s="11" t="str">
-        <v>2026-01-21</v>
-      </c>
-      <c r="I58" s="11" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="J58" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K58" s="11" t="str">
-        <v/>
+      <c r="J58" s="9" t="str">
+        <v/>
+      </c>
+      <c r="K58" s="10" t="str">
+        <v>No date set but blocks other tasks</v>
       </c>
     </row>
     <row r="59">
@@ -3244,10 +3269,10 @@
         <v>subtask</v>
       </c>
       <c r="C59" s="12" t="str">
-        <v>town-manteo-inspection</v>
+        <v>schedule-town-manteo</v>
       </c>
       <c r="D59" s="12" t="str">
-        <v xml:space="preserve">  Town of Manteo</v>
+        <v xml:space="preserve">  Schedule Town of Manteo</v>
       </c>
       <c r="E59" s="12" t="str">
         <v>needs-scheduled</v>
@@ -3279,10 +3304,10 @@
         <v>subtask</v>
       </c>
       <c r="C60" s="11" t="str">
-        <v>dare-county-health-inspection</v>
+        <v>schedule-dare-county-health</v>
       </c>
       <c r="D60" s="11" t="str">
-        <v xml:space="preserve">  Dare County Health</v>
+        <v xml:space="preserve">  Schedule Dare County Health</v>
       </c>
       <c r="E60" s="11" t="str">
         <v>needs-scheduled</v>
@@ -3307,38 +3332,38 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="str">
-        <v>TASK</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <v>misc-equipment-install</v>
-      </c>
-      <c r="D61" s="9" t="str">
-        <v>Misc Equipment Install</v>
-      </c>
-      <c r="E61" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F61" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G61" s="9" t="str">
-        <v/>
-      </c>
-      <c r="H61" s="9" t="str">
+      <c r="B61" s="12" t="str">
+        <v>subtask</v>
+      </c>
+      <c r="C61" s="12" t="str">
+        <v>town-manteo-inspection</v>
+      </c>
+      <c r="D61" s="12" t="str">
+        <v xml:space="preserve">  Town of Manteo</v>
+      </c>
+      <c r="E61" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H61" s="12" t="str">
         <v>2026-01-21</v>
       </c>
-      <c r="I61" s="15" t="str">
-        <v>Needs Assignment</v>
-      </c>
-      <c r="J61" s="9" t="str">
-        <v/>
-      </c>
-      <c r="K61" s="10" t="str">
-        <v>No assignee</v>
+      <c r="I61" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="J61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K61" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -3349,10 +3374,10 @@
         <v>subtask</v>
       </c>
       <c r="C62" s="11" t="str">
-        <v>install-pot-rack</v>
+        <v>dare-county-health-inspection</v>
       </c>
       <c r="D62" s="11" t="str">
-        <v xml:space="preserve">  Install Pot Rack</v>
+        <v xml:space="preserve">  Dare County Health</v>
       </c>
       <c r="E62" s="11" t="str">
         <v>needs-scheduled</v>
@@ -3366,48 +3391,48 @@
       <c r="H62" s="11" t="str">
         <v>2026-01-21</v>
       </c>
-      <c r="I62" s="17" t="str">
+      <c r="I62" s="11" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="J62" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K62" s="11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="C63" s="9" t="str">
+        <v>misc-equipment-install</v>
+      </c>
+      <c r="D63" s="9" t="str">
+        <v>Misc Equipment Install</v>
+      </c>
+      <c r="E63" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F63" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G63" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H63" s="9" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="I63" s="15" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="J62" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K62" s="13" t="str">
-        <v>No assignee</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="12">
-        <v>62</v>
-      </c>
-      <c r="B63" s="12" t="str">
-        <v>subtask</v>
-      </c>
-      <c r="C63" s="12" t="str">
-        <v>install-retractable-extension-cord</v>
-      </c>
-      <c r="D63" s="12" t="str">
-        <v xml:space="preserve">  Install Retractable Extension Cord</v>
-      </c>
-      <c r="E63" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F63" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G63" s="12" t="str">
-        <v/>
-      </c>
-      <c r="H63" s="12" t="str">
-        <v>2026-01-21</v>
-      </c>
-      <c r="I63" s="16" t="str">
-        <v>Needs Assignment</v>
-      </c>
-      <c r="J63" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K63" s="14" t="str">
+      <c r="J63" s="9" t="str">
+        <v/>
+      </c>
+      <c r="K63" s="10" t="str">
         <v>No assignee</v>
       </c>
     </row>
@@ -3419,24 +3444,24 @@
         <v>subtask</v>
       </c>
       <c r="C64" s="11" t="str">
-        <v>upper-cabinet-delivery</v>
+        <v>install-pot-rack</v>
       </c>
       <c r="D64" s="11" t="str">
-        <v xml:space="preserve">  Upper Cabinet Delivery</v>
+        <v xml:space="preserve">  Install Pot Rack</v>
       </c>
       <c r="E64" s="11" t="str">
-        <v>confirmed</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="F64" s="11" t="str">
-        <v>2026-01-22</v>
+        <v/>
       </c>
       <c r="G64" s="11" t="str">
-        <v>2026-01-22</v>
+        <v/>
       </c>
       <c r="H64" s="11" t="str">
-        <v>2026-01-22</v>
-      </c>
-      <c r="I64" s="17" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="I64" s="16" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="J64" s="11" t="str">
@@ -3454,31 +3479,31 @@
         <v>subtask</v>
       </c>
       <c r="C65" s="12" t="str">
-        <v>schedule-upper-cabinet-install</v>
+        <v>install-retractable-extension-cord</v>
       </c>
       <c r="D65" s="12" t="str">
-        <v xml:space="preserve">  Schedule Installation</v>
+        <v xml:space="preserve">  Install Retractable Extension Cord</v>
       </c>
       <c r="E65" s="12" t="str">
         <v>needs-scheduled</v>
       </c>
       <c r="F65" s="12" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="G65" s="12" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="H65" s="12" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="I65" s="12" t="str">
-        <v>Brandon</v>
+        <v>2026-01-21</v>
+      </c>
+      <c r="I65" s="17" t="str">
+        <v>Needs Assignment</v>
       </c>
       <c r="J65" s="12" t="str">
         <v/>
       </c>
-      <c r="K65" s="12" t="str">
-        <v/>
+      <c r="K65" s="14" t="str">
+        <v>No assignee</v>
       </c>
     </row>
     <row r="66">
@@ -3489,24 +3514,24 @@
         <v>subtask</v>
       </c>
       <c r="C66" s="11" t="str">
-        <v>install-upper-cabinets</v>
+        <v>upper-cabinet-delivery</v>
       </c>
       <c r="D66" s="11" t="str">
-        <v xml:space="preserve">  Install Upper Cabinets</v>
+        <v xml:space="preserve">  Upper Cabinet Delivery</v>
       </c>
       <c r="E66" s="11" t="str">
-        <v>needs-scheduled</v>
+        <v>confirmed</v>
       </c>
       <c r="F66" s="11" t="str">
-        <v>2026-01-26</v>
+        <v>2026-01-22</v>
       </c>
       <c r="G66" s="11" t="str">
-        <v>2026-01-26</v>
+        <v>2026-01-22</v>
       </c>
       <c r="H66" s="11" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="I66" s="17" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="I66" s="16" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="J66" s="11" t="str">
@@ -3517,143 +3542,143 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9">
+      <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="str">
+      <c r="B67" s="12" t="str">
+        <v>subtask</v>
+      </c>
+      <c r="C67" s="12" t="str">
+        <v>schedule-upper-cabinet-install</v>
+      </c>
+      <c r="D67" s="12" t="str">
+        <v xml:space="preserve">  Schedule Installation</v>
+      </c>
+      <c r="E67" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F67" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G67" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="H67" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="I67" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="J67" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K67" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11" t="str">
+        <v>subtask</v>
+      </c>
+      <c r="C68" s="11" t="str">
+        <v>install-upper-cabinets</v>
+      </c>
+      <c r="D68" s="11" t="str">
+        <v xml:space="preserve">  Install Upper Cabinets</v>
+      </c>
+      <c r="E68" s="11" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F68" s="11" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G68" s="11" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="H68" s="11" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="I68" s="16" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="J68" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K68" s="13" t="str">
+        <v>No assignee</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="C67" s="9" t="str">
+      <c r="C69" s="9" t="str">
         <v>close-permit</v>
       </c>
-      <c r="D67" s="9" t="str">
+      <c r="D69" s="9" t="str">
         <v>Close Building Permit</v>
       </c>
-      <c r="E67" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F67" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G67" s="9" t="str">
-        <v/>
-      </c>
-      <c r="H67" s="9" t="str">
+      <c r="E69" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F69" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G69" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H69" s="9" t="str">
         <v>2026-01-22</v>
       </c>
-      <c r="I67" s="9" t="str">
+      <c r="I69" s="9" t="str">
         <v>Brandon</v>
       </c>
-      <c r="J67" s="9" t="str">
+      <c r="J69" s="9" t="str">
         <v>inspection</v>
       </c>
-      <c r="K67" s="10" t="str">
+      <c r="K69" s="10" t="str">
         <v>No date set but blocks other tasks</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="9">
-        <v>67</v>
-      </c>
-      <c r="B68" s="9" t="str">
+    <row r="70">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="C68" s="9" t="str">
+      <c r="C70" s="9" t="str">
         <v>project-finish</v>
       </c>
-      <c r="D68" s="9" t="str">
+      <c r="D70" s="9" t="str">
         <v>Project Finish</v>
       </c>
-      <c r="E68" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F68" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G68" s="9" t="str">
-        <v/>
-      </c>
-      <c r="H68" s="9" t="str">
+      <c r="E70" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F70" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G70" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H70" s="9" t="str">
         <v>2026-01-30</v>
       </c>
-      <c r="I68" s="15" t="str">
+      <c r="I70" s="15" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="J68" s="9" t="str">
+      <c r="J70" s="9" t="str">
         <v>inspection, crest-installation, kitchen-put-back, close-permit</v>
       </c>
-      <c r="K68" s="10" t="str">
+      <c r="K70" s="10" t="str">
         <v>No assignee</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="12">
-        <v>68</v>
-      </c>
-      <c r="B69" s="12" t="str">
-        <v>subtask</v>
-      </c>
-      <c r="C69" s="12" t="str">
-        <v>schedule-final-punch</v>
-      </c>
-      <c r="D69" s="12" t="str">
-        <v xml:space="preserve">  Schedule Final Punch Walkthrough</v>
-      </c>
-      <c r="E69" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F69" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G69" s="12" t="str">
-        <v/>
-      </c>
-      <c r="H69" s="12" t="str">
-        <v>2026-01-21</v>
-      </c>
-      <c r="I69" s="12" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="J69" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K69" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11">
-        <v>69</v>
-      </c>
-      <c r="B70" s="11" t="str">
-        <v>subtask</v>
-      </c>
-      <c r="C70" s="11" t="str">
-        <v>final-punch-walkthrough</v>
-      </c>
-      <c r="D70" s="11" t="str">
-        <v xml:space="preserve">  Final Punch Walkthrough</v>
-      </c>
-      <c r="E70" s="11" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="F70" s="11" t="str">
-        <v/>
-      </c>
-      <c r="G70" s="11" t="str">
-        <v/>
-      </c>
-      <c r="H70" s="11" t="str">
-        <v>2026-01-21</v>
-      </c>
-      <c r="I70" s="11" t="str">
-        <v>Dave</v>
-      </c>
-      <c r="J70" s="11" t="str">
-        <v/>
-      </c>
-      <c r="K70" s="11" t="str">
-        <v/>
       </c>
     </row>
     <row r="71">
@@ -3664,10 +3689,10 @@
         <v>subtask</v>
       </c>
       <c r="C71" s="12" t="str">
-        <v>punch-remediation</v>
+        <v>schedule-final-punch</v>
       </c>
       <c r="D71" s="12" t="str">
-        <v xml:space="preserve">  Punch List Remediation</v>
+        <v xml:space="preserve">  Schedule Final Punch Walkthrough</v>
       </c>
       <c r="E71" s="12" t="str">
         <v>needs-scheduled</v>
@@ -3687,8 +3712,8 @@
       <c r="J71" s="12" t="str">
         <v/>
       </c>
-      <c r="K71" s="14" t="str">
-        <v>No date set but blocks other tasks</v>
+      <c r="K71" s="12" t="str">
+        <v/>
       </c>
     </row>
     <row r="72">
@@ -3699,10 +3724,10 @@
         <v>subtask</v>
       </c>
       <c r="C72" s="11" t="str">
-        <v>final-clean</v>
+        <v>final-punch-walkthrough</v>
       </c>
       <c r="D72" s="11" t="str">
-        <v xml:space="preserve">  Final Clean</v>
+        <v xml:space="preserve">  Final Punch Walkthrough</v>
       </c>
       <c r="E72" s="11" t="str">
         <v>needs-scheduled</v>
@@ -3714,13 +3739,13 @@
         <v/>
       </c>
       <c r="H72" s="11" t="str">
-        <v>2026-01-22</v>
+        <v>2026-01-21</v>
       </c>
       <c r="I72" s="11" t="str">
-        <v>Brandon</v>
+        <v>Dave</v>
       </c>
       <c r="J72" s="11" t="str">
-        <v>punch-remediation</v>
+        <v/>
       </c>
       <c r="K72" s="11" t="str">
         <v/>
@@ -3734,10 +3759,10 @@
         <v>subtask</v>
       </c>
       <c r="C73" s="12" t="str">
-        <v>final-acceptance</v>
+        <v>punch-remediation</v>
       </c>
       <c r="D73" s="12" t="str">
-        <v xml:space="preserve">  Final Acceptance</v>
+        <v xml:space="preserve">  Punch List Remediation</v>
       </c>
       <c r="E73" s="12" t="str">
         <v>needs-scheduled</v>
@@ -3752,27 +3777,97 @@
         <v>2026-01-21</v>
       </c>
       <c r="I73" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="J73" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K73" s="14" t="str">
+        <v>No date set but blocks other tasks</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="str">
+        <v>subtask</v>
+      </c>
+      <c r="C74" s="11" t="str">
+        <v>final-clean</v>
+      </c>
+      <c r="D74" s="11" t="str">
+        <v xml:space="preserve">  Final Clean</v>
+      </c>
+      <c r="E74" s="11" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F74" s="11" t="str">
+        <v/>
+      </c>
+      <c r="G74" s="11" t="str">
+        <v/>
+      </c>
+      <c r="H74" s="11" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="I74" s="11" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="J74" s="11" t="str">
+        <v>punch-remediation</v>
+      </c>
+      <c r="K74" s="11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12" t="str">
+        <v>subtask</v>
+      </c>
+      <c r="C75" s="12" t="str">
+        <v>final-acceptance</v>
+      </c>
+      <c r="D75" s="12" t="str">
+        <v xml:space="preserve">  Final Acceptance</v>
+      </c>
+      <c r="E75" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F75" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G75" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H75" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="I75" s="12" t="str">
         <v>Dave</v>
       </c>
-      <c r="J73" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K73" s="12" t="str">
+      <c r="J75" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K75" s="12" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:K73"/>
+  <autoFilter ref="A1:K75"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K73"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K75"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5269,7 +5364,7 @@
     </row>
     <row r="52">
       <c r="A52" s="18" t="str">
-        <v>▶ Eliseo (16 items)</v>
+        <v>▶ Eliseo (17 items)</v>
       </c>
       <c r="B52" s="18" t="str">
         <v/>
@@ -5513,25 +5608,25 @@
         <v/>
       </c>
       <c r="B60" s="19" t="str">
-        <v>painting</v>
+        <v>triple-window-header-trim</v>
       </c>
       <c r="C60" s="19" t="str">
-        <v>Painting</v>
+        <v xml:space="preserve">  ↳ Change header trim over triple window to match other window</v>
       </c>
       <c r="D60" s="19" t="str">
         <v>scheduled</v>
       </c>
       <c r="E60" s="19" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-21</v>
       </c>
       <c r="F60" s="19" t="str">
         <v>2026-01-23</v>
       </c>
       <c r="G60" s="19" t="str">
-        <v>finish-trim, finish-drywall</v>
+        <v/>
       </c>
       <c r="H60" s="19" t="str">
-        <v>kitchen-baseboard</v>
+        <v/>
       </c>
       <c r="I60" s="19" t="str">
         <v/>
@@ -5542,10 +5637,10 @@
         <v/>
       </c>
       <c r="B61" s="12" t="str">
-        <v>paint-kitchen</v>
+        <v>painting</v>
       </c>
       <c r="C61" s="12" t="str">
-        <v xml:space="preserve">  ↳ Paint Kitchen</v>
+        <v>Painting</v>
       </c>
       <c r="D61" s="12" t="str">
         <v>scheduled</v>
@@ -5557,13 +5652,13 @@
         <v>2026-01-23</v>
       </c>
       <c r="G61" s="12" t="str">
-        <v/>
+        <v>finish-trim, finish-drywall</v>
       </c>
       <c r="H61" s="12" t="str">
-        <v/>
+        <v>kitchen-baseboard</v>
       </c>
       <c r="I61" s="12" t="str">
-        <v>Requires finish-drywall-kitchen complete first.</v>
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -5571,10 +5666,10 @@
         <v/>
       </c>
       <c r="B62" s="19" t="str">
-        <v>paint-scupernong</v>
+        <v>paint-kitchen</v>
       </c>
       <c r="C62" s="19" t="str">
-        <v xml:space="preserve">  ↳ Paint Scupernong</v>
+        <v xml:space="preserve">  ↳ Paint Kitchen</v>
       </c>
       <c r="D62" s="19" t="str">
         <v>scheduled</v>
@@ -5589,10 +5684,10 @@
         <v/>
       </c>
       <c r="H62" s="19" t="str">
-        <v>baseboard-install-scupernong</v>
+        <v/>
       </c>
       <c r="I62" s="19" t="str">
-        <v>Requires finish-drywall-scupernong complete first.</v>
+        <v>Requires finish-drywall-kitchen complete first.</v>
       </c>
     </row>
     <row r="63">
@@ -5600,13 +5695,13 @@
         <v/>
       </c>
       <c r="B63" s="12" t="str">
-        <v>paint-lobby-passthrough</v>
+        <v>paint-scupernong</v>
       </c>
       <c r="C63" s="12" t="str">
-        <v xml:space="preserve">  ↳ Paint Lobby Passthrough Wall</v>
+        <v xml:space="preserve">  ↳ Paint Scupernong</v>
       </c>
       <c r="D63" s="12" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="E63" s="12" t="str">
         <v>2026-01-23</v>
@@ -5618,10 +5713,10 @@
         <v/>
       </c>
       <c r="H63" s="12" t="str">
-        <v/>
+        <v>baseboard-install-scupernong</v>
       </c>
       <c r="I63" s="12" t="str">
-        <v/>
+        <v>Requires finish-drywall-scupernong complete first.</v>
       </c>
     </row>
     <row r="64">
@@ -5629,10 +5724,10 @@
         <v/>
       </c>
       <c r="B64" s="19" t="str">
-        <v>paint-doors</v>
+        <v>paint-lobby-passthrough</v>
       </c>
       <c r="C64" s="19" t="str">
-        <v xml:space="preserve">  ↳ Paint Doors (Kitchen Main, Back, HVAC)</v>
+        <v xml:space="preserve">  ↳ Paint Lobby Passthrough Wall</v>
       </c>
       <c r="D64" s="19" t="str">
         <v>needs-scheduled</v>
@@ -5644,13 +5739,13 @@
         <v>2026-01-23</v>
       </c>
       <c r="G64" s="19" t="str">
-        <v>install-doors</v>
+        <v/>
       </c>
       <c r="H64" s="19" t="str">
         <v/>
       </c>
       <c r="I64" s="19" t="str">
-        <v>Paint after door installation (1/24). 3 doors total.</v>
+        <v/>
       </c>
     </row>
     <row r="65">
@@ -5658,10 +5753,10 @@
         <v/>
       </c>
       <c r="B65" s="12" t="str">
-        <v>touch-up-ceiling</v>
+        <v>paint-doors</v>
       </c>
       <c r="C65" s="12" t="str">
-        <v xml:space="preserve">  ↳ Touch Up Ceiling Damage (as needed)</v>
+        <v xml:space="preserve">  ↳ Paint Doors (Kitchen Main, Back, HVAC)</v>
       </c>
       <c r="D65" s="12" t="str">
         <v>needs-scheduled</v>
@@ -5673,13 +5768,13 @@
         <v>2026-01-23</v>
       </c>
       <c r="G65" s="12" t="str">
-        <v/>
+        <v>install-doors</v>
       </c>
       <c r="H65" s="12" t="str">
         <v/>
       </c>
       <c r="I65" s="12" t="str">
-        <v/>
+        <v>Paint after door installation (1/24). 3 doors total.</v>
       </c>
     </row>
     <row r="66">
@@ -5687,13 +5782,13 @@
         <v/>
       </c>
       <c r="B66" s="19" t="str">
-        <v>finish-drywall</v>
+        <v>touch-up-ceiling</v>
       </c>
       <c r="C66" s="19" t="str">
-        <v>Finish Drywall</v>
+        <v xml:space="preserve">  ↳ Touch Up Ceiling Damage (as needed)</v>
       </c>
       <c r="D66" s="19" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="E66" s="19" t="str">
         <v>2026-01-23</v>
@@ -5705,7 +5800,7 @@
         <v/>
       </c>
       <c r="H66" s="19" t="str">
-        <v>painting</v>
+        <v/>
       </c>
       <c r="I66" s="19" t="str">
         <v/>
@@ -5716,13 +5811,13 @@
         <v/>
       </c>
       <c r="B67" s="12" t="str">
-        <v>finish-drywall-kitchen</v>
+        <v>finish-drywall</v>
       </c>
       <c r="C67" s="12" t="str">
-        <v xml:space="preserve">  ↳ Finish Drywall Kitchen</v>
+        <v>Finish Drywall</v>
       </c>
       <c r="D67" s="12" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="E67" s="12" t="str">
         <v>2026-01-23</v>
@@ -5734,7 +5829,7 @@
         <v/>
       </c>
       <c r="H67" s="12" t="str">
-        <v/>
+        <v>painting</v>
       </c>
       <c r="I67" s="12" t="str">
         <v/>
@@ -5745,10 +5840,10 @@
         <v/>
       </c>
       <c r="B68" s="19" t="str">
-        <v>finish-drywall-scupernong</v>
+        <v>finish-drywall-kitchen</v>
       </c>
       <c r="C68" s="19" t="str">
-        <v xml:space="preserve">  ↳ Finish Drywall Scupernong</v>
+        <v xml:space="preserve">  ↳ Finish Drywall Kitchen</v>
       </c>
       <c r="D68" s="19" t="str">
         <v>needs-scheduled</v>
@@ -5763,184 +5858,184 @@
         <v/>
       </c>
       <c r="H68" s="19" t="str">
+        <v/>
+      </c>
+      <c r="I68" s="19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="str">
+        <v/>
+      </c>
+      <c r="B69" s="12" t="str">
+        <v>finish-drywall-scupernong</v>
+      </c>
+      <c r="C69" s="12" t="str">
+        <v xml:space="preserve">  ↳ Finish Drywall Scupernong</v>
+      </c>
+      <c r="D69" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E69" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="F69" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="G69" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H69" s="12" t="str">
         <v>baseboard-install-scupernong</v>
       </c>
-      <c r="I68" s="19" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B69" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C69" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D69" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E69" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F69" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G69" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H69" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I69" s="2" t="str">
+      <c r="I69" s="12" t="str">
         <v/>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="18" t="str">
+      <c r="A70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I70" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="18" t="str">
         <v>▶ JD Fletcher (1 items)</v>
       </c>
-      <c r="B70" s="18" t="str">
-        <v/>
-      </c>
-      <c r="C70" s="18" t="str">
-        <v/>
-      </c>
-      <c r="D70" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E70" s="18" t="str">
-        <v/>
-      </c>
-      <c r="F70" s="18" t="str">
-        <v/>
-      </c>
-      <c r="G70" s="18" t="str">
-        <v/>
-      </c>
-      <c r="H70" s="18" t="str">
-        <v/>
-      </c>
-      <c r="I70" s="18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="12" t="str">
-        <v/>
-      </c>
-      <c r="B71" s="12" t="str">
+      <c r="B71" s="18" t="str">
+        <v/>
+      </c>
+      <c r="C71" s="18" t="str">
+        <v/>
+      </c>
+      <c r="D71" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E71" s="18" t="str">
+        <v/>
+      </c>
+      <c r="F71" s="18" t="str">
+        <v/>
+      </c>
+      <c r="G71" s="18" t="str">
+        <v/>
+      </c>
+      <c r="H71" s="18" t="str">
+        <v/>
+      </c>
+      <c r="I71" s="18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="19" t="str">
+        <v/>
+      </c>
+      <c r="B72" s="19" t="str">
         <v>install-stainless-wall</v>
       </c>
-      <c r="C71" s="12" t="str">
+      <c r="C72" s="19" t="str">
         <v>Install Stainless Wall Covering (Right of Range)</v>
       </c>
-      <c r="D71" s="12" t="str">
+      <c r="D72" s="19" t="str">
         <v>scheduled</v>
       </c>
-      <c r="E71" s="12" t="str">
+      <c r="E72" s="19" t="str">
         <v>2026-01-23</v>
       </c>
-      <c r="F71" s="12" t="str">
+      <c r="F72" s="19" t="str">
         <v>2026-01-23</v>
       </c>
-      <c r="G71" s="12" t="str">
+      <c r="G72" s="19" t="str">
         <v>propane</v>
       </c>
-      <c r="H71" s="12" t="str">
+      <c r="H72" s="19" t="str">
         <v>crest-installation</v>
       </c>
-      <c r="I71" s="12" t="str">
+      <c r="I72" s="19" t="str">
         <v>Cannot be before Dion finishes range propane install.</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B72" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C72" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D72" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E72" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F72" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G72" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H72" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I72" s="2" t="str">
-        <v/>
-      </c>
-    </row>
     <row r="73">
-      <c r="A73" s="18" t="str">
+      <c r="A73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I73" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="18" t="str">
         <v>▶ Jerum (2 items)</v>
       </c>
-      <c r="B73" s="18" t="str">
-        <v/>
-      </c>
-      <c r="C73" s="18" t="str">
-        <v/>
-      </c>
-      <c r="D73" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E73" s="18" t="str">
-        <v/>
-      </c>
-      <c r="F73" s="18" t="str">
-        <v/>
-      </c>
-      <c r="G73" s="18" t="str">
-        <v/>
-      </c>
-      <c r="H73" s="18" t="str">
-        <v/>
-      </c>
-      <c r="I73" s="18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="19" t="str">
-        <v/>
-      </c>
-      <c r="B74" s="19" t="str">
-        <v>kitchen-baseboard</v>
-      </c>
-      <c r="C74" s="19" t="str">
-        <v>Kitchen Baseboard</v>
-      </c>
-      <c r="D74" s="19" t="str">
-        <v>scheduled</v>
-      </c>
-      <c r="E74" s="19" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="F74" s="19" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="G74" s="19" t="str">
-        <v>finish-trim, painting</v>
-      </c>
-      <c r="H74" s="19" t="str">
-        <v>crest-prep, crest-installation</v>
-      </c>
-      <c r="I74" s="19" t="str">
-        <v>Must be complete before Crest install on 1/27.</v>
+      <c r="B74" s="18" t="str">
+        <v/>
+      </c>
+      <c r="C74" s="18" t="str">
+        <v/>
+      </c>
+      <c r="D74" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E74" s="18" t="str">
+        <v/>
+      </c>
+      <c r="F74" s="18" t="str">
+        <v/>
+      </c>
+      <c r="G74" s="18" t="str">
+        <v/>
+      </c>
+      <c r="H74" s="18" t="str">
+        <v/>
+      </c>
+      <c r="I74" s="18" t="str">
+        <v/>
       </c>
     </row>
     <row r="75">
@@ -5948,13 +6043,13 @@
         <v/>
       </c>
       <c r="B75" s="12" t="str">
-        <v>baseboard-install</v>
+        <v>kitchen-baseboard</v>
       </c>
       <c r="C75" s="12" t="str">
-        <v xml:space="preserve">  ↳ Baseboard Install</v>
+        <v>Kitchen Baseboard</v>
       </c>
       <c r="D75" s="12" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="E75" s="12" t="str">
         <v>2026-01-26</v>
@@ -5963,186 +6058,186 @@
         <v>2026-01-26</v>
       </c>
       <c r="G75" s="12" t="str">
-        <v/>
+        <v>finish-trim, painting</v>
       </c>
       <c r="H75" s="12" t="str">
-        <v/>
+        <v>crest-prep, crest-installation</v>
       </c>
       <c r="I75" s="12" t="str">
-        <v/>
+        <v>Must be complete before Crest install on 1/27.</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B76" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C76" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D76" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E76" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F76" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G76" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H76" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I76" s="2" t="str">
+      <c r="A76" s="19" t="str">
+        <v/>
+      </c>
+      <c r="B76" s="19" t="str">
+        <v>baseboard-install</v>
+      </c>
+      <c r="C76" s="19" t="str">
+        <v xml:space="preserve">  ↳ Baseboard Install</v>
+      </c>
+      <c r="D76" s="19" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E76" s="19" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="F76" s="19" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G76" s="19" t="str">
+        <v/>
+      </c>
+      <c r="H76" s="19" t="str">
+        <v/>
+      </c>
+      <c r="I76" s="19" t="str">
         <v/>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="18" t="str">
+      <c r="A77" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B77" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C77" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D77" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E77" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F77" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G77" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H77" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I77" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="18" t="str">
         <v>▶ Joclar &amp; Fields (1 items)</v>
       </c>
-      <c r="B77" s="18" t="str">
-        <v/>
-      </c>
-      <c r="C77" s="18" t="str">
-        <v/>
-      </c>
-      <c r="D77" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E77" s="18" t="str">
-        <v/>
-      </c>
-      <c r="F77" s="18" t="str">
-        <v/>
-      </c>
-      <c r="G77" s="18" t="str">
-        <v/>
-      </c>
-      <c r="H77" s="18" t="str">
-        <v/>
-      </c>
-      <c r="I77" s="18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="19" t="str">
-        <v/>
-      </c>
-      <c r="B78" s="19" t="str">
+      <c r="B78" s="18" t="str">
+        <v/>
+      </c>
+      <c r="C78" s="18" t="str">
+        <v/>
+      </c>
+      <c r="D78" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E78" s="18" t="str">
+        <v/>
+      </c>
+      <c r="F78" s="18" t="str">
+        <v/>
+      </c>
+      <c r="G78" s="18" t="str">
+        <v/>
+      </c>
+      <c r="H78" s="18" t="str">
+        <v/>
+      </c>
+      <c r="I78" s="18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="12" t="str">
+        <v/>
+      </c>
+      <c r="B79" s="12" t="str">
         <v>hvac-registers</v>
       </c>
-      <c r="C78" s="19" t="str">
+      <c r="C79" s="12" t="str">
         <v>HVAC Lower Registers</v>
       </c>
-      <c r="D78" s="19" t="str">
+      <c r="D79" s="12" t="str">
         <v>scheduled</v>
       </c>
-      <c r="E78" s="19" t="str">
+      <c r="E79" s="12" t="str">
         <v>2026-01-22</v>
       </c>
-      <c r="F78" s="19" t="str">
+      <c r="F79" s="12" t="str">
         <v>2026-01-22</v>
       </c>
-      <c r="G78" s="19" t="str">
-        <v/>
-      </c>
-      <c r="H78" s="19" t="str">
+      <c r="G79" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H79" s="12" t="str">
         <v>finish-trim, kitchen-crown-molding, laundry-crown-molding</v>
       </c>
-      <c r="I78" s="19" t="str">
+      <c r="I79" s="12" t="str">
         <v>Registers in laundry and storage room may be too low for crown molding. Also available 1/23 if needed.</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B79" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C79" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D79" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E79" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F79" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G79" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H79" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I79" s="2" t="str">
-        <v/>
-      </c>
-    </row>
     <row r="80">
-      <c r="A80" s="18" t="str">
+      <c r="A80" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B80" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C80" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D80" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E80" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F80" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G80" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H80" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I80" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="18" t="str">
         <v>▶ Sergio (2 items)</v>
       </c>
-      <c r="B80" s="18" t="str">
-        <v/>
-      </c>
-      <c r="C80" s="18" t="str">
-        <v/>
-      </c>
-      <c r="D80" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E80" s="18" t="str">
-        <v/>
-      </c>
-      <c r="F80" s="18" t="str">
-        <v/>
-      </c>
-      <c r="G80" s="18" t="str">
-        <v/>
-      </c>
-      <c r="H80" s="18" t="str">
-        <v/>
-      </c>
-      <c r="I80" s="18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="12" t="str">
-        <v/>
-      </c>
-      <c r="B81" s="12" t="str">
-        <v>siding</v>
-      </c>
-      <c r="C81" s="12" t="str">
-        <v>Siding</v>
-      </c>
-      <c r="D81" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E81" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F81" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G81" s="12" t="str">
-        <v>propane</v>
-      </c>
-      <c r="H81" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I81" s="12" t="str">
+      <c r="B81" s="18" t="str">
+        <v/>
+      </c>
+      <c r="C81" s="18" t="str">
+        <v/>
+      </c>
+      <c r="D81" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E81" s="18" t="str">
+        <v/>
+      </c>
+      <c r="F81" s="18" t="str">
+        <v/>
+      </c>
+      <c r="G81" s="18" t="str">
+        <v/>
+      </c>
+      <c r="H81" s="18" t="str">
+        <v/>
+      </c>
+      <c r="I81" s="18" t="str">
         <v/>
       </c>
     </row>
@@ -6151,114 +6246,114 @@
         <v/>
       </c>
       <c r="B82" s="19" t="str">
+        <v>siding</v>
+      </c>
+      <c r="C82" s="19" t="str">
+        <v>Siding</v>
+      </c>
+      <c r="D82" s="19" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E82" s="19" t="str">
+        <v/>
+      </c>
+      <c r="F82" s="19" t="str">
+        <v/>
+      </c>
+      <c r="G82" s="19" t="str">
+        <v>propane</v>
+      </c>
+      <c r="H82" s="19" t="str">
+        <v/>
+      </c>
+      <c r="I82" s="19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12" t="str">
+        <v/>
+      </c>
+      <c r="B83" s="12" t="str">
         <v>siding-work</v>
       </c>
-      <c r="C82" s="19" t="str">
+      <c r="C83" s="12" t="str">
         <v xml:space="preserve">  ↳ Siding</v>
       </c>
-      <c r="D82" s="19" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E82" s="19" t="str">
-        <v/>
-      </c>
-      <c r="F82" s="19" t="str">
-        <v/>
-      </c>
-      <c r="G82" s="19" t="str">
-        <v/>
-      </c>
-      <c r="H82" s="19" t="str">
-        <v/>
-      </c>
-      <c r="I82" s="19" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B83" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C83" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D83" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E83" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F83" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G83" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H83" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I83" s="2" t="str">
+      <c r="D83" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E83" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F83" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G83" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H83" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I83" s="12" t="str">
         <v/>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="18" t="str">
-        <v>▶ Unassigned (16 items)</v>
-      </c>
-      <c r="B84" s="18" t="str">
-        <v/>
-      </c>
-      <c r="C84" s="18" t="str">
-        <v/>
-      </c>
-      <c r="D84" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E84" s="18" t="str">
-        <v/>
-      </c>
-      <c r="F84" s="18" t="str">
-        <v/>
-      </c>
-      <c r="G84" s="18" t="str">
-        <v/>
-      </c>
-      <c r="H84" s="18" t="str">
-        <v/>
-      </c>
-      <c r="I84" s="18" t="str">
+      <c r="A84" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B84" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C84" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D84" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E84" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F84" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G84" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H84" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I84" s="2" t="str">
         <v/>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="12" t="str">
-        <v/>
-      </c>
-      <c r="B85" s="12" t="str">
-        <v>install-doors</v>
-      </c>
-      <c r="C85" s="12" t="str">
-        <v>Install Doors</v>
-      </c>
-      <c r="D85" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E85" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F85" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G85" s="12" t="str">
-        <v>finish-trim</v>
-      </c>
-      <c r="H85" s="12" t="str">
-        <v>paint-doors</v>
-      </c>
-      <c r="I85" s="12" t="str">
+      <c r="A85" s="18" t="str">
+        <v>▶ Unassigned (17 items)</v>
+      </c>
+      <c r="B85" s="18" t="str">
+        <v/>
+      </c>
+      <c r="C85" s="18" t="str">
+        <v/>
+      </c>
+      <c r="D85" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E85" s="18" t="str">
+        <v/>
+      </c>
+      <c r="F85" s="18" t="str">
+        <v/>
+      </c>
+      <c r="G85" s="18" t="str">
+        <v/>
+      </c>
+      <c r="H85" s="18" t="str">
+        <v/>
+      </c>
+      <c r="I85" s="18" t="str">
         <v/>
       </c>
     </row>
@@ -6267,10 +6362,10 @@
         <v/>
       </c>
       <c r="B86" s="19" t="str">
-        <v>main-kitchen-door</v>
+        <v>install-doors</v>
       </c>
       <c r="C86" s="19" t="str">
-        <v xml:space="preserve">  ↳ Main Kitchen Door</v>
+        <v>Install Doors</v>
       </c>
       <c r="D86" s="19" t="str">
         <v>needs-scheduled</v>
@@ -6282,13 +6377,13 @@
         <v/>
       </c>
       <c r="G86" s="19" t="str">
-        <v/>
+        <v>finish-trim</v>
       </c>
       <c r="H86" s="19" t="str">
-        <v/>
+        <v>paint-doors</v>
       </c>
       <c r="I86" s="19" t="str">
-        <v>1. Hinges to be delivered 1/22. 2. Door is in the garage.</v>
+        <v/>
       </c>
     </row>
     <row r="87">
@@ -6296,10 +6391,10 @@
         <v/>
       </c>
       <c r="B87" s="12" t="str">
-        <v>install-back-door</v>
+        <v>main-kitchen-door</v>
       </c>
       <c r="C87" s="12" t="str">
-        <v xml:space="preserve">  ↳ Install Back Door</v>
+        <v xml:space="preserve">  ↳ Main Kitchen Door</v>
       </c>
       <c r="D87" s="12" t="str">
         <v>needs-scheduled</v>
@@ -6317,7 +6412,7 @@
         <v/>
       </c>
       <c r="I87" s="12" t="str">
-        <v>1. Door is in the garage. 2. Install with Antique Bronze hinges. 3. Install existing antique bronze electronic deadbolt and door knob provided by owner.</v>
+        <v>1. Hinges to be delivered 1/22. 2. Door is in the garage.</v>
       </c>
     </row>
     <row r="88">
@@ -6325,10 +6420,10 @@
         <v/>
       </c>
       <c r="B88" s="19" t="str">
-        <v>hvac-door</v>
+        <v>install-back-door</v>
       </c>
       <c r="C88" s="19" t="str">
-        <v xml:space="preserve">  ↳ HVAC Door</v>
+        <v xml:space="preserve">  ↳ Install Back Door</v>
       </c>
       <c r="D88" s="19" t="str">
         <v>needs-scheduled</v>
@@ -6346,7 +6441,7 @@
         <v/>
       </c>
       <c r="I88" s="19" t="str">
-        <v>1. Install existing 32" door with jamb. 2. Same casing as main kitchen door.</v>
+        <v>1. Door is in the garage. 2. Install with Antique Bronze hinges. 3. Install existing antique bronze electronic deadbolt and door knob provided by owner.</v>
       </c>
     </row>
     <row r="89">
@@ -6354,28 +6449,28 @@
         <v/>
       </c>
       <c r="B89" s="12" t="str">
-        <v>crest-prep</v>
+        <v>hvac-door</v>
       </c>
       <c r="C89" s="12" t="str">
-        <v>Crest Prep / Cleaning</v>
+        <v xml:space="preserve">  ↳ HVAC Door</v>
       </c>
       <c r="D89" s="12" t="str">
         <v>needs-scheduled</v>
       </c>
       <c r="E89" s="12" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="F89" s="12" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="G89" s="12" t="str">
-        <v>kitchen-baseboard, upper-cabinet-install, finish-trim</v>
+        <v/>
       </c>
       <c r="H89" s="12" t="str">
-        <v>crest-installation</v>
+        <v/>
       </c>
       <c r="I89" s="12" t="str">
-        <v>Clean and prep kitchen area before Crest arrives. Clear tools and materials, protect flooring.</v>
+        <v>1. Install existing 32" door with jamb. 2. Same casing as main kitchen door.</v>
       </c>
     </row>
     <row r="90">
@@ -6383,28 +6478,28 @@
         <v/>
       </c>
       <c r="B90" s="19" t="str">
-        <v>propane</v>
+        <v>crest-prep</v>
       </c>
       <c r="C90" s="19" t="str">
-        <v>Propane</v>
+        <v>Crest Prep / Cleaning</v>
       </c>
       <c r="D90" s="19" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="E90" s="19" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-26</v>
       </c>
       <c r="F90" s="19" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-26</v>
       </c>
       <c r="G90" s="19" t="str">
-        <v/>
+        <v>kitchen-baseboard, upper-cabinet-install, finish-trim</v>
       </c>
       <c r="H90" s="19" t="str">
-        <v>crest-installation, install-stainless-wall, siding</v>
+        <v>crest-installation</v>
       </c>
       <c r="I90" s="19" t="str">
-        <v>Dave coordinating and responsible. Dependency for siding install.</v>
+        <v>Clean and prep kitchen area before Crest arrives. Clear tools and materials, protect flooring.</v>
       </c>
     </row>
     <row r="91">
@@ -6412,28 +6507,28 @@
         <v/>
       </c>
       <c r="B91" s="12" t="str">
-        <v>kitchen-put-back</v>
+        <v>propane</v>
       </c>
       <c r="C91" s="12" t="str">
-        <v>Kitchen Put-Back</v>
+        <v>Propane</v>
       </c>
       <c r="D91" s="12" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="E91" s="12" t="str">
-        <v/>
+        <v>2026-01-23</v>
       </c>
       <c r="F91" s="12" t="str">
-        <v/>
+        <v>2026-01-23</v>
       </c>
       <c r="G91" s="12" t="str">
-        <v>crest-installation, finish-plumbing</v>
+        <v/>
       </c>
       <c r="H91" s="12" t="str">
-        <v>project-finish</v>
+        <v>crest-installation, install-stainless-wall, siding</v>
       </c>
       <c r="I91" s="12" t="str">
-        <v/>
+        <v>Dave coordinating and responsible. Dependency for siding install.</v>
       </c>
     </row>
     <row r="92">
@@ -6441,10 +6536,10 @@
         <v/>
       </c>
       <c r="B92" s="19" t="str">
-        <v>install-ovens</v>
+        <v>kitchen-put-back</v>
       </c>
       <c r="C92" s="19" t="str">
-        <v xml:space="preserve">  ↳ Install Ovens</v>
+        <v>Kitchen Put-Back</v>
       </c>
       <c r="D92" s="19" t="str">
         <v>needs-scheduled</v>
@@ -6456,10 +6551,10 @@
         <v/>
       </c>
       <c r="G92" s="19" t="str">
-        <v/>
+        <v>crest-installation, finish-plumbing</v>
       </c>
       <c r="H92" s="19" t="str">
-        <v/>
+        <v>project-finish</v>
       </c>
       <c r="I92" s="19" t="str">
         <v/>
@@ -6470,10 +6565,10 @@
         <v/>
       </c>
       <c r="B93" s="12" t="str">
-        <v>move-appliances</v>
+        <v>install-ovens</v>
       </c>
       <c r="C93" s="12" t="str">
-        <v xml:space="preserve">  ↳ Move Range, Freezers and Refrigerators</v>
+        <v xml:space="preserve">  ↳ Install Ovens</v>
       </c>
       <c r="D93" s="12" t="str">
         <v>needs-scheduled</v>
@@ -6499,10 +6594,10 @@
         <v/>
       </c>
       <c r="B94" s="19" t="str">
-        <v>misc-equipment-install</v>
+        <v>move-appliances</v>
       </c>
       <c r="C94" s="19" t="str">
-        <v>Misc Equipment Install</v>
+        <v xml:space="preserve">  ↳ Move Range, Freezers and Refrigerators</v>
       </c>
       <c r="D94" s="19" t="str">
         <v>needs-scheduled</v>
@@ -6528,10 +6623,10 @@
         <v/>
       </c>
       <c r="B95" s="12" t="str">
-        <v>install-pot-rack</v>
+        <v>install-dryer-vents</v>
       </c>
       <c r="C95" s="12" t="str">
-        <v xml:space="preserve">  ↳ Install Pot Rack</v>
+        <v>Install Dryer Vents</v>
       </c>
       <c r="D95" s="12" t="str">
         <v>needs-scheduled</v>
@@ -6549,7 +6644,7 @@
         <v/>
       </c>
       <c r="I95" s="12" t="str">
-        <v/>
+        <v>Cut holes from laundry room to outside for dryer vents.</v>
       </c>
     </row>
     <row r="96">
@@ -6557,10 +6652,10 @@
         <v/>
       </c>
       <c r="B96" s="19" t="str">
-        <v>install-retractable-extension-cord</v>
+        <v>misc-equipment-install</v>
       </c>
       <c r="C96" s="19" t="str">
-        <v xml:space="preserve">  ↳ Install Retractable Extension Cord</v>
+        <v>Misc Equipment Install</v>
       </c>
       <c r="D96" s="19" t="str">
         <v>needs-scheduled</v>
@@ -6586,28 +6681,28 @@
         <v/>
       </c>
       <c r="B97" s="12" t="str">
-        <v>upper-cabinet-install</v>
+        <v>install-pot-rack</v>
       </c>
       <c r="C97" s="12" t="str">
-        <v>Upper Cabinet Install</v>
+        <v xml:space="preserve">  ↳ Install Pot Rack</v>
       </c>
       <c r="D97" s="12" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="E97" s="12" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="F97" s="12" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="G97" s="12" t="str">
-        <v>finish-trim</v>
+        <v/>
       </c>
       <c r="H97" s="12" t="str">
-        <v>crest-prep, crest-installation</v>
+        <v/>
       </c>
       <c r="I97" s="12" t="str">
-        <v>Requires cabinet crown installation.</v>
+        <v/>
       </c>
     </row>
     <row r="98">
@@ -6615,19 +6710,19 @@
         <v/>
       </c>
       <c r="B98" s="19" t="str">
-        <v>upper-cabinet-delivery</v>
+        <v>install-retractable-extension-cord</v>
       </c>
       <c r="C98" s="19" t="str">
-        <v xml:space="preserve">  ↳ Upper Cabinet Delivery</v>
+        <v xml:space="preserve">  ↳ Install Retractable Extension Cord</v>
       </c>
       <c r="D98" s="19" t="str">
-        <v>confirmed</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="E98" s="19" t="str">
-        <v>2026-01-22</v>
+        <v/>
       </c>
       <c r="F98" s="19" t="str">
-        <v>2026-01-22</v>
+        <v/>
       </c>
       <c r="G98" s="19" t="str">
         <v/>
@@ -6644,13 +6739,13 @@
         <v/>
       </c>
       <c r="B99" s="12" t="str">
-        <v>install-upper-cabinets</v>
+        <v>upper-cabinet-install</v>
       </c>
       <c r="C99" s="12" t="str">
-        <v xml:space="preserve">  ↳ Install Upper Cabinets</v>
+        <v>Upper Cabinet Install</v>
       </c>
       <c r="D99" s="12" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="E99" s="12" t="str">
         <v>2026-01-26</v>
@@ -6659,13 +6754,13 @@
         <v>2026-01-26</v>
       </c>
       <c r="G99" s="12" t="str">
-        <v/>
+        <v>finish-trim</v>
       </c>
       <c r="H99" s="12" t="str">
-        <v/>
+        <v>crest-prep, crest-installation</v>
       </c>
       <c r="I99" s="12" t="str">
-        <v/>
+        <v>Requires cabinet crown installation.</v>
       </c>
     </row>
     <row r="100">
@@ -6673,71 +6768,129 @@
         <v/>
       </c>
       <c r="B100" s="19" t="str">
+        <v>upper-cabinet-delivery</v>
+      </c>
+      <c r="C100" s="19" t="str">
+        <v xml:space="preserve">  ↳ Upper Cabinet Delivery</v>
+      </c>
+      <c r="D100" s="19" t="str">
+        <v>confirmed</v>
+      </c>
+      <c r="E100" s="19" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="F100" s="19" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="G100" s="19" t="str">
+        <v/>
+      </c>
+      <c r="H100" s="19" t="str">
+        <v/>
+      </c>
+      <c r="I100" s="19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12" t="str">
+        <v/>
+      </c>
+      <c r="B101" s="12" t="str">
+        <v>install-upper-cabinets</v>
+      </c>
+      <c r="C101" s="12" t="str">
+        <v xml:space="preserve">  ↳ Install Upper Cabinets</v>
+      </c>
+      <c r="D101" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E101" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="F101" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G101" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H101" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I101" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="19" t="str">
+        <v/>
+      </c>
+      <c r="B102" s="19" t="str">
         <v>project-finish</v>
       </c>
-      <c r="C100" s="19" t="str">
+      <c r="C102" s="19" t="str">
         <v>Project Finish</v>
       </c>
-      <c r="D100" s="19" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E100" s="19" t="str">
-        <v/>
-      </c>
-      <c r="F100" s="19" t="str">
-        <v/>
-      </c>
-      <c r="G100" s="19" t="str">
+      <c r="D102" s="19" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E102" s="19" t="str">
+        <v/>
+      </c>
+      <c r="F102" s="19" t="str">
+        <v/>
+      </c>
+      <c r="G102" s="19" t="str">
         <v>inspection, crest-installation, kitchen-put-back, close-permit</v>
       </c>
-      <c r="H100" s="19" t="str">
-        <v/>
-      </c>
-      <c r="I100" s="19" t="str">
+      <c r="H102" s="19" t="str">
+        <v/>
+      </c>
+      <c r="I102" s="19" t="str">
         <v>Final punch acceptance criteria: All work complete per contract scope, all inspections passed, all equipment operational, no safety hazards, cosmetic defects documented and remediated.</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B101" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C101" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D101" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E101" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F101" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G101" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H101" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I101" s="2" t="str">
+    <row r="103">
+      <c r="A103" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B103" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C103" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D103" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E103" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F103" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G103" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H103" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I103" s="2" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:I101"/>
+  <autoFilter ref="A1:I103"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I103"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7095,84 +7248,84 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B9" s="12" t="str">
+        <v>triple-window-header-trim</v>
+      </c>
+      <c r="C9" s="12" t="str">
+        <v xml:space="preserve">    Change header trim over triple window to match other window</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <v>scheduled</v>
+      </c>
+      <c r="E9" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="G9" s="12" t="str">
+        <v>Eliseo</v>
+      </c>
+      <c r="H9" s="12" t="str">
+        <v>trim</v>
+      </c>
+      <c r="I9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M9" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B10" s="9" t="str">
         <v>install-doors</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C10" s="9" t="str">
         <v>Install Doors</v>
       </c>
-      <c r="D9" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F9" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G9" s="15" t="str">
+      <c r="D10" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F10" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G10" s="15" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="H10" s="9" t="str">
         <v>trim</v>
       </c>
-      <c r="I9" s="9" t="str">
+      <c r="I10" s="9" t="str">
         <v>finish-trim</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="J10" s="9" t="str">
         <v>paint-doors</v>
       </c>
-      <c r="K9" s="9" t="str">
+      <c r="K10" s="9" t="str">
         <v>door-main-kitchen, door-back, door-hvac, hinges-main-kitchen-door, hinges-back-door, doorknob-back-door, deadbolt-back-door, doorknob-hinges-hvac</v>
       </c>
-      <c r="L9" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M9" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B10" s="12" t="str">
-        <v>main-kitchen-door</v>
-      </c>
-      <c r="C10" s="12" t="str">
-        <v xml:space="preserve">    Main Kitchen Door</v>
-      </c>
-      <c r="D10" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E10" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F10" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G10" s="16" t="str">
-        <v>Needs Assignment</v>
-      </c>
-      <c r="H10" s="12" t="str">
-        <v>trim</v>
-      </c>
-      <c r="I10" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J10" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K10" s="12" t="str">
-        <v>door-main-kitchen, hinges-main-kitchen-door</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <v>1. Hinges to be delivered 1/22. 2. Door is in the garage.</v>
-      </c>
-      <c r="M10" s="12" t="str">
+      <c r="L10" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M10" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -7181,10 +7334,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B11" s="12" t="str">
-        <v>install-back-door</v>
+        <v>main-kitchen-door</v>
       </c>
       <c r="C11" s="12" t="str">
-        <v xml:space="preserve">    Install Back Door</v>
+        <v xml:space="preserve">    Main Kitchen Door</v>
       </c>
       <c r="D11" s="12" t="str">
         <v>needs-scheduled</v>
@@ -7195,7 +7348,7 @@
       <c r="F11" s="12" t="str">
         <v/>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="17" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="H11" s="12" t="str">
@@ -7208,10 +7361,10 @@
         <v/>
       </c>
       <c r="K11" s="12" t="str">
-        <v>door-back, hinges-back-door, doorknob-back-door, deadbolt-back-door</v>
+        <v>door-main-kitchen, hinges-main-kitchen-door</v>
       </c>
       <c r="L11" s="12" t="str">
-        <v>1. Door is in the garage. 2. Install with Antique Bronze hinges. 3. Install existing antique bronze electronic deadbolt and door knob provided by owner.</v>
+        <v>1. Hinges to be delivered 1/22. 2. Door is in the garage.</v>
       </c>
       <c r="M11" s="12" t="str">
         <v/>
@@ -7222,10 +7375,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B12" s="12" t="str">
-        <v>hvac-door</v>
+        <v>install-back-door</v>
       </c>
       <c r="C12" s="12" t="str">
-        <v xml:space="preserve">    HVAC Door</v>
+        <v xml:space="preserve">    Install Back Door</v>
       </c>
       <c r="D12" s="12" t="str">
         <v>needs-scheduled</v>
@@ -7236,7 +7389,7 @@
       <c r="F12" s="12" t="str">
         <v/>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="17" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="H12" s="12" t="str">
@@ -7249,53 +7402,53 @@
         <v/>
       </c>
       <c r="K12" s="12" t="str">
+        <v>door-back, hinges-back-door, doorknob-back-door, deadbolt-back-door</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <v>1. Door is in the garage. 2. Install with Antique Bronze hinges. 3. Install existing antique bronze electronic deadbolt and door knob provided by owner.</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B13" s="12" t="str">
+        <v>hvac-door</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <v xml:space="preserve">    HVAC Door</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E13" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F13" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G13" s="17" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="H13" s="12" t="str">
+        <v>trim</v>
+      </c>
+      <c r="I13" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J13" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K13" s="12" t="str">
         <v>door-hvac, doorknob-hinges-hvac</v>
       </c>
-      <c r="L12" s="12" t="str">
+      <c r="L13" s="12" t="str">
         <v>1. Install existing 32" door with jamb. 2. Same casing as main kitchen door.</v>
       </c>
-      <c r="M12" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="str">
-        <v>TASK</v>
-      </c>
-      <c r="B13" s="9" t="str">
-        <v>build-back-deck</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <v>Build Back Deck with Ramp</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F13" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G13" s="9" t="str">
-        <v>Danny</v>
-      </c>
-      <c r="H13" s="9" t="str">
-        <v>framing</v>
-      </c>
-      <c r="I13" s="9" t="str">
-        <v>remove-old-porch</v>
-      </c>
-      <c r="J13" s="9" t="str">
-        <v/>
-      </c>
-      <c r="K13" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L13" s="9" t="str">
-        <v>Need to sort out details for dimensions, rail system vs. no rail system, etc. REQUEST: GC meet with owner to plan.</v>
-      </c>
-      <c r="M13" s="9" t="str">
+      <c r="M13" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -7304,10 +7457,10 @@
         <v>TASK</v>
       </c>
       <c r="B14" s="9" t="str">
-        <v>remove-old-porch</v>
+        <v>build-back-deck</v>
       </c>
       <c r="C14" s="9" t="str">
-        <v>Remove Old Porch Steps and Posts</v>
+        <v>Build Back Deck with Ramp</v>
       </c>
       <c r="D14" s="9" t="str">
         <v>needs-scheduled</v>
@@ -7325,16 +7478,16 @@
         <v>framing</v>
       </c>
       <c r="I14" s="9" t="str">
-        <v/>
+        <v>remove-old-porch</v>
       </c>
       <c r="J14" s="9" t="str">
-        <v>build-back-deck</v>
+        <v/>
       </c>
       <c r="K14" s="9" t="str">
         <v/>
       </c>
       <c r="L14" s="9" t="str">
-        <v/>
+        <v>Need to sort out details for dimensions, rail system vs. no rail system, etc. REQUEST: GC meet with owner to plan.</v>
       </c>
       <c r="M14" s="9" t="str">
         <v/>
@@ -7345,37 +7498,37 @@
         <v>TASK</v>
       </c>
       <c r="B15" s="9" t="str">
-        <v>hvac-registers</v>
+        <v>remove-old-porch</v>
       </c>
       <c r="C15" s="9" t="str">
-        <v>HVAC Lower Registers</v>
+        <v>Remove Old Porch Steps and Posts</v>
       </c>
       <c r="D15" s="9" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="E15" s="9" t="str">
-        <v>2026-01-22</v>
+        <v/>
       </c>
       <c r="F15" s="9" t="str">
-        <v>2026-01-22</v>
+        <v/>
       </c>
       <c r="G15" s="9" t="str">
-        <v>Joclar &amp; Fields</v>
+        <v>Danny</v>
       </c>
       <c r="H15" s="9" t="str">
-        <v>mechanical</v>
+        <v>framing</v>
       </c>
       <c r="I15" s="9" t="str">
         <v/>
       </c>
       <c r="J15" s="9" t="str">
-        <v>finish-trim, kitchen-crown-molding, laundry-crown-molding</v>
+        <v>build-back-deck</v>
       </c>
       <c r="K15" s="9" t="str">
         <v/>
       </c>
       <c r="L15" s="9" t="str">
-        <v>Registers in laundry and storage room may be too low for crown molding. Also available 1/23 if needed.</v>
+        <v/>
       </c>
       <c r="M15" s="9" t="str">
         <v/>
@@ -7386,37 +7539,37 @@
         <v>TASK</v>
       </c>
       <c r="B16" s="9" t="str">
-        <v>crest-prep</v>
+        <v>hvac-registers</v>
       </c>
       <c r="C16" s="9" t="str">
-        <v>Crest Prep / Cleaning</v>
+        <v>HVAC Lower Registers</v>
       </c>
       <c r="D16" s="9" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="E16" s="9" t="str">
-        <v>2026-01-26</v>
+        <v>2026-01-22</v>
       </c>
       <c r="F16" s="9" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="G16" s="15" t="str">
-        <v>Needs Assignment</v>
+        <v>2026-01-22</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <v>Joclar &amp; Fields</v>
       </c>
       <c r="H16" s="9" t="str">
-        <v>clean</v>
+        <v>mechanical</v>
       </c>
       <c r="I16" s="9" t="str">
-        <v>kitchen-baseboard, upper-cabinet-install, finish-trim</v>
+        <v/>
       </c>
       <c r="J16" s="9" t="str">
-        <v>crest-installation</v>
+        <v>finish-trim, kitchen-crown-molding, laundry-crown-molding</v>
       </c>
       <c r="K16" s="9" t="str">
         <v/>
       </c>
       <c r="L16" s="9" t="str">
-        <v>Clean and prep kitchen area before Crest arrives. Clear tools and materials, protect flooring.</v>
+        <v>Registers in laundry and storage room may be too low for crown molding. Also available 1/23 if needed.</v>
       </c>
       <c r="M16" s="9" t="str">
         <v/>
@@ -7427,162 +7580,162 @@
         <v>TASK</v>
       </c>
       <c r="B17" s="9" t="str">
+        <v>crest-prep</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <v>Crest Prep / Cleaning</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="F17" s="9" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G17" s="15" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <v>clean</v>
+      </c>
+      <c r="I17" s="9" t="str">
+        <v>kitchen-baseboard, upper-cabinet-install, finish-trim</v>
+      </c>
+      <c r="J17" s="9" t="str">
         <v>crest-installation</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="K17" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L17" s="9" t="str">
+        <v>Clean and prep kitchen area before Crest arrives. Clear tools and materials, protect flooring.</v>
+      </c>
+      <c r="M17" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <v>crest-installation</v>
+      </c>
+      <c r="C18" s="9" t="str">
         <v>Crest Installation</v>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D18" s="9" t="str">
         <v>scheduled</v>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E18" s="9" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="F17" s="9" t="str">
+      <c r="F18" s="9" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="G17" s="9" t="str">
+      <c r="G18" s="9" t="str">
         <v>Crest Mechanical</v>
       </c>
-      <c r="H17" s="9" t="str">
+      <c r="H18" s="9" t="str">
         <v>mechanical</v>
       </c>
-      <c r="I17" s="9" t="str">
+      <c r="I18" s="9" t="str">
         <v>finish-trim, kitchen-baseboard, finish-electrical, propane, install-stainless-wall, upper-cabinet-install, crest-prep</v>
       </c>
-      <c r="J17" s="9" t="str">
+      <c r="J18" s="9" t="str">
         <v>finish-plumbing, connect-passthrough-heat-lamp, kitchen-put-back, install-dishwasher, project-finish</v>
       </c>
-      <c r="K17" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L17" s="9" t="str">
+      <c r="K18" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L18" s="9" t="str">
         <v>Need to confirm exact delivery time and duration for install.</v>
       </c>
-      <c r="M17" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="12" t="str">
+      <c r="M18" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="str">
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
-      <c r="B18" s="12" t="str">
+      <c r="B19" s="12" t="str">
         <v>verify-install-time</v>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C19" s="12" t="str">
         <v xml:space="preserve">    Verify Install Time</v>
       </c>
-      <c r="D18" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E18" s="12" t="str">
+      <c r="D19" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E19" s="12" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="F18" s="12" t="str">
+      <c r="F19" s="12" t="str">
         <v>2026-01-27</v>
       </c>
-      <c r="G18" s="12" t="str">
+      <c r="G19" s="12" t="str">
         <v>Brandon</v>
       </c>
-      <c r="H18" s="12" t="str">
+      <c r="H19" s="12" t="str">
         <v>mechanical</v>
       </c>
-      <c r="I18" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J18" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K18" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L18" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M18" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="str">
+      <c r="I19" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J19" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K19" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L19" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M19" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B20" s="9" t="str">
         <v>finish-plumbing</v>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C20" s="9" t="str">
         <v>Finish Plumbing</v>
       </c>
-      <c r="D19" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E19" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F19" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G19" s="9" t="str">
+      <c r="D20" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F20" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G20" s="9" t="str">
         <v>Chris Bland</v>
       </c>
-      <c r="H19" s="9" t="str">
+      <c r="H20" s="9" t="str">
         <v>plumbing</v>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="I20" s="9" t="str">
         <v>crest-installation</v>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J20" s="9" t="str">
         <v>kitchen-put-back, install-dishwasher</v>
       </c>
-      <c r="K19" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L19" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M19" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B20" s="12" t="str">
-        <v>schedule-finish-plumbing</v>
-      </c>
-      <c r="C20" s="12" t="str">
-        <v xml:space="preserve">    Schedule Finish Plumbing</v>
-      </c>
-      <c r="D20" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E20" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F20" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G20" s="12" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="H20" s="12" t="str">
-        <v>plumbing</v>
-      </c>
-      <c r="I20" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J20" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K20" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L20" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M20" s="12" t="str">
+      <c r="K20" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L20" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M20" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -7591,10 +7744,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B21" s="12" t="str">
-        <v>finish-plumbing-work</v>
+        <v>schedule-finish-plumbing</v>
       </c>
       <c r="C21" s="12" t="str">
-        <v xml:space="preserve">    Finish Plumbing</v>
+        <v xml:space="preserve">    Schedule Finish Plumbing</v>
       </c>
       <c r="D21" s="12" t="str">
         <v>needs-scheduled</v>
@@ -7606,7 +7759,7 @@
         <v/>
       </c>
       <c r="G21" s="12" t="str">
-        <v>Chris Bland</v>
+        <v>Brandon</v>
       </c>
       <c r="H21" s="12" t="str">
         <v>plumbing</v>
@@ -7632,10 +7785,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B22" s="12" t="str">
-        <v>install-handsink-laundry</v>
+        <v>finish-plumbing-work</v>
       </c>
       <c r="C22" s="12" t="str">
-        <v xml:space="preserve">    Install Existing Handsink in Laundry Room</v>
+        <v xml:space="preserve">    Finish Plumbing</v>
       </c>
       <c r="D22" s="12" t="str">
         <v>needs-scheduled</v>
@@ -7662,91 +7815,91 @@
         <v/>
       </c>
       <c r="L22" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M22" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B23" s="12" t="str">
+        <v>install-handsink-laundry</v>
+      </c>
+      <c r="C23" s="12" t="str">
+        <v xml:space="preserve">    Install Existing Handsink in Laundry Room</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E23" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F23" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G23" s="12" t="str">
+        <v>Chris Bland</v>
+      </c>
+      <c r="H23" s="12" t="str">
+        <v>plumbing</v>
+      </c>
+      <c r="I23" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J23" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K23" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L23" s="12" t="str">
         <v>Not part of Crest order.</v>
       </c>
-      <c r="M22" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="str">
+      <c r="M23" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B24" s="9" t="str">
         <v>kitchen-baseboard</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C24" s="9" t="str">
         <v>Kitchen Baseboard</v>
       </c>
-      <c r="D23" s="9" t="str">
+      <c r="D24" s="9" t="str">
         <v>scheduled</v>
       </c>
-      <c r="E23" s="9" t="str">
+      <c r="E24" s="9" t="str">
         <v>2026-01-26</v>
       </c>
-      <c r="F23" s="9" t="str">
+      <c r="F24" s="9" t="str">
         <v>2026-01-26</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G24" s="9" t="str">
         <v>Jerum</v>
       </c>
-      <c r="H23" s="9" t="str">
+      <c r="H24" s="9" t="str">
         <v>trim</v>
       </c>
-      <c r="I23" s="9" t="str">
+      <c r="I24" s="9" t="str">
         <v>finish-trim, painting</v>
       </c>
-      <c r="J23" s="9" t="str">
+      <c r="J24" s="9" t="str">
         <v>crest-prep, crest-installation</v>
       </c>
-      <c r="K23" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L23" s="9" t="str">
+      <c r="K24" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L24" s="9" t="str">
         <v>Must be complete before Crest install on 1/27.</v>
       </c>
-      <c r="M23" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B24" s="12" t="str">
-        <v>schedule-baseboard-install</v>
-      </c>
-      <c r="C24" s="12" t="str">
-        <v xml:space="preserve">    Schedule Baseboard Install</v>
-      </c>
-      <c r="D24" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E24" s="12" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="F24" s="12" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="G24" s="12" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="H24" s="12" t="str">
-        <v>trim</v>
-      </c>
-      <c r="I24" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J24" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K24" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L24" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M24" s="12" t="str">
+      <c r="M24" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -7755,10 +7908,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B25" s="12" t="str">
-        <v>baseboard-install</v>
+        <v>schedule-baseboard-install</v>
       </c>
       <c r="C25" s="12" t="str">
-        <v xml:space="preserve">    Baseboard Install</v>
+        <v xml:space="preserve">    Schedule Baseboard Install</v>
       </c>
       <c r="D25" s="12" t="str">
         <v>needs-scheduled</v>
@@ -7770,7 +7923,7 @@
         <v>2026-01-26</v>
       </c>
       <c r="G25" s="12" t="str">
-        <v>Jerum</v>
+        <v>Brandon</v>
       </c>
       <c r="H25" s="12" t="str">
         <v>trim</v>
@@ -7792,84 +7945,84 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="str">
+      <c r="A26" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <v>baseboard-install</v>
+      </c>
+      <c r="C26" s="12" t="str">
+        <v xml:space="preserve">    Baseboard Install</v>
+      </c>
+      <c r="D26" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E26" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G26" s="12" t="str">
+        <v>Jerum</v>
+      </c>
+      <c r="H26" s="12" t="str">
+        <v>trim</v>
+      </c>
+      <c r="I26" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J26" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K26" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L26" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M26" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B26" s="9" t="str">
+      <c r="B27" s="9" t="str">
         <v>finish-electrical</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C27" s="9" t="str">
         <v>Finish Electrical</v>
       </c>
-      <c r="D26" s="9" t="str">
+      <c r="D27" s="9" t="str">
         <v>scheduled</v>
       </c>
-      <c r="E26" s="9" t="str">
+      <c r="E27" s="9" t="str">
         <v>2026-01-26</v>
       </c>
-      <c r="F26" s="9" t="str">
+      <c r="F27" s="9" t="str">
         <v>2026-01-26</v>
       </c>
-      <c r="G26" s="9" t="str">
+      <c r="G27" s="9" t="str">
         <v>Craig Davenport</v>
       </c>
-      <c r="H26" s="9" t="str">
+      <c r="H27" s="9" t="str">
         <v>electrical</v>
       </c>
-      <c r="I26" s="9" t="str">
-        <v/>
-      </c>
-      <c r="J26" s="9" t="str">
+      <c r="I27" s="9" t="str">
+        <v/>
+      </c>
+      <c r="J27" s="9" t="str">
         <v>crest-installation</v>
       </c>
-      <c r="K26" s="9" t="str">
+      <c r="K27" s="9" t="str">
         <v>coach-lamp, receptacle-light-switch-covers</v>
       </c>
-      <c r="L26" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M26" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B27" s="12" t="str">
-        <v>move-mop-sink-receptacle</v>
-      </c>
-      <c r="C27" s="12" t="str">
-        <v xml:space="preserve">    Move Receptacle Over Mop Sink</v>
-      </c>
-      <c r="D27" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E27" s="12" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="F27" s="12" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="G27" s="12" t="str">
-        <v>Dion Cahoon</v>
-      </c>
-      <c r="H27" s="12" t="str">
-        <v>electrical</v>
-      </c>
-      <c r="I27" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J27" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K27" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L27" s="12" t="str">
-        <v>Move to left of hand sink.</v>
-      </c>
-      <c r="M27" s="12" t="str">
+      <c r="L27" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M27" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -7878,10 +8031,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B28" s="12" t="str">
-        <v>install-coach-lamp</v>
+        <v>move-mop-sink-receptacle</v>
       </c>
       <c r="C28" s="12" t="str">
-        <v xml:space="preserve">    Install Coach Lamp</v>
+        <v xml:space="preserve">    Move Receptacle Over Mop Sink</v>
       </c>
       <c r="D28" s="12" t="str">
         <v>needs-scheduled</v>
@@ -7905,10 +8058,10 @@
         <v/>
       </c>
       <c r="K28" s="12" t="str">
-        <v>coach-lamp</v>
+        <v/>
       </c>
       <c r="L28" s="12" t="str">
-        <v/>
+        <v>Move to left of hand sink.</v>
       </c>
       <c r="M28" s="12" t="str">
         <v/>
@@ -7919,10 +8072,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B29" s="12" t="str">
-        <v>install-light-string-receptacle</v>
+        <v>install-coach-lamp</v>
       </c>
       <c r="C29" s="12" t="str">
-        <v xml:space="preserve">    Install Receptacle for Light Strings</v>
+        <v xml:space="preserve">    Install Coach Lamp</v>
       </c>
       <c r="D29" s="12" t="str">
         <v>needs-scheduled</v>
@@ -7946,10 +8099,10 @@
         <v/>
       </c>
       <c r="K29" s="12" t="str">
-        <v/>
+        <v>coach-lamp</v>
       </c>
       <c r="L29" s="12" t="str">
-        <v>For light strings that criss-cross to firepit.</v>
+        <v/>
       </c>
       <c r="M29" s="12" t="str">
         <v/>
@@ -7960,10 +8113,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B30" s="12" t="str">
-        <v>add-tv-receptacle</v>
+        <v>install-light-string-receptacle</v>
       </c>
       <c r="C30" s="12" t="str">
-        <v xml:space="preserve">    Add Receptacle for TV Over Passthrough</v>
+        <v xml:space="preserve">    Install Receptacle for Light Strings</v>
       </c>
       <c r="D30" s="12" t="str">
         <v>needs-scheduled</v>
@@ -7990,7 +8143,7 @@
         <v/>
       </c>
       <c r="L30" s="12" t="str">
-        <v/>
+        <v>For light strings that criss-cross to firepit.</v>
       </c>
       <c r="M30" s="12" t="str">
         <v/>
@@ -8001,10 +8154,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B31" s="12" t="str">
-        <v>finish-lighting-install</v>
+        <v>add-tv-receptacle</v>
       </c>
       <c r="C31" s="12" t="str">
-        <v xml:space="preserve">    Finish Lighting Install</v>
+        <v xml:space="preserve">    Add Receptacle for TV Over Passthrough</v>
       </c>
       <c r="D31" s="12" t="str">
         <v>needs-scheduled</v>
@@ -8042,10 +8195,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B32" s="12" t="str">
-        <v>schedule-electrical-signoff</v>
+        <v>finish-lighting-install</v>
       </c>
       <c r="C32" s="12" t="str">
-        <v xml:space="preserve">    Schedule Electrical Sign-off</v>
+        <v xml:space="preserve">    Finish Lighting Install</v>
       </c>
       <c r="D32" s="12" t="str">
         <v>needs-scheduled</v>
@@ -8057,7 +8210,7 @@
         <v>2026-01-26</v>
       </c>
       <c r="G32" s="12" t="str">
-        <v>Brandon</v>
+        <v>Dion Cahoon</v>
       </c>
       <c r="H32" s="12" t="str">
         <v>electrical</v>
@@ -8083,10 +8236,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B33" s="12" t="str">
-        <v>electrical-signoff</v>
+        <v>schedule-electrical-signoff</v>
       </c>
       <c r="C33" s="12" t="str">
-        <v xml:space="preserve">    Electrical Sign-off</v>
+        <v xml:space="preserve">    Schedule Electrical Sign-off</v>
       </c>
       <c r="D33" s="12" t="str">
         <v>needs-scheduled</v>
@@ -8098,7 +8251,7 @@
         <v>2026-01-26</v>
       </c>
       <c r="G33" s="12" t="str">
-        <v>Craig Davenport</v>
+        <v>Brandon</v>
       </c>
       <c r="H33" s="12" t="str">
         <v>electrical</v>
@@ -8124,10 +8277,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B34" s="12" t="str">
-        <v>connect-passthrough-heat-lamp</v>
+        <v>electrical-signoff</v>
       </c>
       <c r="C34" s="12" t="str">
-        <v xml:space="preserve">    Connect Passthrough Heat Lamp</v>
+        <v xml:space="preserve">    Electrical Sign-off</v>
       </c>
       <c r="D34" s="12" t="str">
         <v>needs-scheduled</v>
@@ -8139,106 +8292,106 @@
         <v>2026-01-26</v>
       </c>
       <c r="G34" s="12" t="str">
-        <v>Dion Cahoon</v>
+        <v>Craig Davenport</v>
       </c>
       <c r="H34" s="12" t="str">
         <v>electrical</v>
       </c>
       <c r="I34" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J34" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K34" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L34" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M34" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B35" s="12" t="str">
+        <v>connect-passthrough-heat-lamp</v>
+      </c>
+      <c r="C35" s="12" t="str">
+        <v xml:space="preserve">    Connect Passthrough Heat Lamp</v>
+      </c>
+      <c r="D35" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E35" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="F35" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G35" s="12" t="str">
+        <v>Dion Cahoon</v>
+      </c>
+      <c r="H35" s="12" t="str">
+        <v>electrical</v>
+      </c>
+      <c r="I35" s="12" t="str">
         <v>crest-installation</v>
       </c>
-      <c r="J34" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K34" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L34" s="12" t="str">
+      <c r="J35" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K35" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L35" s="12" t="str">
         <v>Must be done after Crest installation. Heat lamp is part of passthrough equipment.</v>
       </c>
-      <c r="M34" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="str">
+      <c r="M35" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B35" s="9" t="str">
+      <c r="B36" s="9" t="str">
         <v>propane</v>
       </c>
-      <c r="C35" s="9" t="str">
+      <c r="C36" s="9" t="str">
         <v>Propane</v>
       </c>
-      <c r="D35" s="9" t="str">
+      <c r="D36" s="9" t="str">
         <v>scheduled</v>
       </c>
-      <c r="E35" s="9" t="str">
+      <c r="E36" s="9" t="str">
         <v>2026-01-23</v>
       </c>
-      <c r="F35" s="9" t="str">
+      <c r="F36" s="9" t="str">
         <v>2026-01-23</v>
       </c>
-      <c r="G35" s="15" t="str">
+      <c r="G36" s="15" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="H35" s="9" t="str">
+      <c r="H36" s="9" t="str">
         <v>plumbing</v>
       </c>
-      <c r="I35" s="9" t="str">
-        <v/>
-      </c>
-      <c r="J35" s="9" t="str">
+      <c r="I36" s="9" t="str">
+        <v/>
+      </c>
+      <c r="J36" s="9" t="str">
         <v>crest-installation, install-stainless-wall, siding</v>
       </c>
-      <c r="K35" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L35" s="9" t="str">
+      <c r="K36" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L36" s="9" t="str">
         <v>Dave coordinating and responsible. Dependency for siding install.</v>
       </c>
-      <c r="M35" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B36" s="12" t="str">
-        <v>install-propane-line</v>
-      </c>
-      <c r="C36" s="12" t="str">
-        <v xml:space="preserve">    Install Propane Line for Gas Range</v>
-      </c>
-      <c r="D36" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E36" s="12" t="str">
-        <v>2026-01-23</v>
-      </c>
-      <c r="F36" s="12" t="str">
-        <v>2026-01-23</v>
-      </c>
-      <c r="G36" s="12" t="str">
-        <v>Dion Cahoon</v>
-      </c>
-      <c r="H36" s="12" t="str">
-        <v>plumbing</v>
-      </c>
-      <c r="I36" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J36" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K36" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L36" s="12" t="str">
-        <v>1. Installed in secure box in wall to right of existing stainless steel wall covering. 2. Must be installed before remaining stainless is installed on Friday 1/23.</v>
-      </c>
-      <c r="M36" s="12" t="str">
+      <c r="M36" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -8247,13 +8400,13 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B37" s="12" t="str">
-        <v>propane-line-remediation</v>
+        <v>install-propane-line</v>
       </c>
       <c r="C37" s="12" t="str">
-        <v xml:space="preserve">    Propane Line Remediation</v>
+        <v xml:space="preserve">    Install Propane Line for Gas Range</v>
       </c>
       <c r="D37" s="12" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="E37" s="12" t="str">
         <v>2026-01-23</v>
@@ -8262,7 +8415,7 @@
         <v>2026-01-23</v>
       </c>
       <c r="G37" s="12" t="str">
-        <v>Beach Gas Appliance and Propane</v>
+        <v>Dion Cahoon</v>
       </c>
       <c r="H37" s="12" t="str">
         <v>plumbing</v>
@@ -8277,50 +8430,50 @@
         <v/>
       </c>
       <c r="L37" s="12" t="str">
+        <v>1. Installed in secure box in wall to right of existing stainless steel wall covering. 2. Must be installed before remaining stainless is installed on Friday 1/23.</v>
+      </c>
+      <c r="M37" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B38" s="12" t="str">
+        <v>propane-line-remediation</v>
+      </c>
+      <c r="C38" s="12" t="str">
+        <v xml:space="preserve">    Propane Line Remediation</v>
+      </c>
+      <c r="D38" s="12" t="str">
+        <v>scheduled</v>
+      </c>
+      <c r="E38" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="F38" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="G38" s="12" t="str">
+        <v>Beach Gas Appliance and Propane</v>
+      </c>
+      <c r="H38" s="12" t="str">
+        <v>plumbing</v>
+      </c>
+      <c r="I38" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J38" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K38" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L38" s="12" t="str">
         <v>Dave coordinating and responsible. Dependency for siding install.</v>
       </c>
-      <c r="M37" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="str">
-        <v>TASK</v>
-      </c>
-      <c r="B38" s="9" t="str">
-        <v>install-stainless-wall</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <v>Install Stainless Wall Covering (Right of Range)</v>
-      </c>
-      <c r="D38" s="9" t="str">
-        <v>scheduled</v>
-      </c>
-      <c r="E38" s="9" t="str">
-        <v>2026-01-23</v>
-      </c>
-      <c r="F38" s="9" t="str">
-        <v>2026-01-23</v>
-      </c>
-      <c r="G38" s="9" t="str">
-        <v>JD Fletcher</v>
-      </c>
-      <c r="H38" s="9" t="str">
-        <v>trim</v>
-      </c>
-      <c r="I38" s="9" t="str">
-        <v>propane</v>
-      </c>
-      <c r="J38" s="9" t="str">
-        <v>crest-installation</v>
-      </c>
-      <c r="K38" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L38" s="9" t="str">
-        <v>Cannot be before Dion finishes range propane install.</v>
-      </c>
-      <c r="M38" s="9" t="str">
+      <c r="M38" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -8329,10 +8482,10 @@
         <v>TASK</v>
       </c>
       <c r="B39" s="9" t="str">
-        <v>painting</v>
+        <v>install-stainless-wall</v>
       </c>
       <c r="C39" s="9" t="str">
-        <v>Painting</v>
+        <v>Install Stainless Wall Covering (Right of Range)</v>
       </c>
       <c r="D39" s="9" t="str">
         <v>scheduled</v>
@@ -8344,65 +8497,65 @@
         <v>2026-01-23</v>
       </c>
       <c r="G39" s="9" t="str">
+        <v>JD Fletcher</v>
+      </c>
+      <c r="H39" s="9" t="str">
+        <v>trim</v>
+      </c>
+      <c r="I39" s="9" t="str">
+        <v>propane</v>
+      </c>
+      <c r="J39" s="9" t="str">
+        <v>crest-installation</v>
+      </c>
+      <c r="K39" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L39" s="9" t="str">
+        <v>Cannot be before Dion finishes range propane install.</v>
+      </c>
+      <c r="M39" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="B40" s="9" t="str">
+        <v>painting</v>
+      </c>
+      <c r="C40" s="9" t="str">
+        <v>Painting</v>
+      </c>
+      <c r="D40" s="9" t="str">
+        <v>scheduled</v>
+      </c>
+      <c r="E40" s="9" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="F40" s="9" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="G40" s="9" t="str">
         <v>Eliseo</v>
       </c>
-      <c r="H39" s="9" t="str">
+      <c r="H40" s="9" t="str">
         <v>paint</v>
       </c>
-      <c r="I39" s="9" t="str">
+      <c r="I40" s="9" t="str">
         <v>finish-trim, finish-drywall</v>
       </c>
-      <c r="J39" s="9" t="str">
+      <c r="J40" s="9" t="str">
         <v>kitchen-baseboard</v>
       </c>
-      <c r="K39" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L39" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M39" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B40" s="12" t="str">
-        <v>paint-kitchen</v>
-      </c>
-      <c r="C40" s="12" t="str">
-        <v xml:space="preserve">    Paint Kitchen</v>
-      </c>
-      <c r="D40" s="12" t="str">
-        <v>scheduled</v>
-      </c>
-      <c r="E40" s="12" t="str">
-        <v>2026-01-23</v>
-      </c>
-      <c r="F40" s="12" t="str">
-        <v>2026-01-23</v>
-      </c>
-      <c r="G40" s="12" t="str">
-        <v>Eliseo</v>
-      </c>
-      <c r="H40" s="12" t="str">
-        <v>paint</v>
-      </c>
-      <c r="I40" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J40" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K40" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L40" s="12" t="str">
-        <v>Requires finish-drywall-kitchen complete first.</v>
-      </c>
-      <c r="M40" s="12" t="str">
+      <c r="K40" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L40" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M40" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -8411,10 +8564,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B41" s="12" t="str">
-        <v>paint-scupernong</v>
+        <v>paint-kitchen</v>
       </c>
       <c r="C41" s="12" t="str">
-        <v xml:space="preserve">    Paint Scupernong</v>
+        <v xml:space="preserve">    Paint Kitchen</v>
       </c>
       <c r="D41" s="12" t="str">
         <v>scheduled</v>
@@ -8435,13 +8588,13 @@
         <v/>
       </c>
       <c r="J41" s="12" t="str">
-        <v>baseboard-install-scupernong</v>
+        <v/>
       </c>
       <c r="K41" s="12" t="str">
         <v/>
       </c>
       <c r="L41" s="12" t="str">
-        <v>Requires finish-drywall-scupernong complete first.</v>
+        <v>Requires finish-drywall-kitchen complete first.</v>
       </c>
       <c r="M41" s="12" t="str">
         <v/>
@@ -8452,13 +8605,13 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B42" s="12" t="str">
-        <v>paint-lobby-passthrough</v>
+        <v>paint-scupernong</v>
       </c>
       <c r="C42" s="12" t="str">
-        <v xml:space="preserve">    Paint Lobby Passthrough Wall</v>
+        <v xml:space="preserve">    Paint Scupernong</v>
       </c>
       <c r="D42" s="12" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="E42" s="12" t="str">
         <v>2026-01-23</v>
@@ -8476,13 +8629,13 @@
         <v/>
       </c>
       <c r="J42" s="12" t="str">
-        <v/>
+        <v>baseboard-install-scupernong</v>
       </c>
       <c r="K42" s="12" t="str">
         <v/>
       </c>
       <c r="L42" s="12" t="str">
-        <v/>
+        <v>Requires finish-drywall-scupernong complete first.</v>
       </c>
       <c r="M42" s="12" t="str">
         <v/>
@@ -8493,10 +8646,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B43" s="12" t="str">
-        <v>paint-doors</v>
+        <v>paint-lobby-passthrough</v>
       </c>
       <c r="C43" s="12" t="str">
-        <v xml:space="preserve">    Paint Doors (Kitchen Main, Back, HVAC)</v>
+        <v xml:space="preserve">    Paint Lobby Passthrough Wall</v>
       </c>
       <c r="D43" s="12" t="str">
         <v>needs-scheduled</v>
@@ -8514,7 +8667,7 @@
         <v>paint</v>
       </c>
       <c r="I43" s="12" t="str">
-        <v>install-doors</v>
+        <v/>
       </c>
       <c r="J43" s="12" t="str">
         <v/>
@@ -8523,7 +8676,7 @@
         <v/>
       </c>
       <c r="L43" s="12" t="str">
-        <v>Paint after door installation (1/24). 3 doors total.</v>
+        <v/>
       </c>
       <c r="M43" s="12" t="str">
         <v/>
@@ -8534,10 +8687,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B44" s="12" t="str">
-        <v>touch-up-ceiling</v>
+        <v>paint-doors</v>
       </c>
       <c r="C44" s="12" t="str">
-        <v xml:space="preserve">    Touch Up Ceiling Damage (as needed)</v>
+        <v xml:space="preserve">    Paint Doors (Kitchen Main, Back, HVAC)</v>
       </c>
       <c r="D44" s="12" t="str">
         <v>needs-scheduled</v>
@@ -8555,7 +8708,7 @@
         <v>paint</v>
       </c>
       <c r="I44" s="12" t="str">
-        <v/>
+        <v>install-doors</v>
       </c>
       <c r="J44" s="12" t="str">
         <v/>
@@ -8564,91 +8717,91 @@
         <v/>
       </c>
       <c r="L44" s="12" t="str">
-        <v/>
+        <v>Paint after door installation (1/24). 3 doors total.</v>
       </c>
       <c r="M44" s="12" t="str">
         <v/>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="str">
+      <c r="A45" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B45" s="12" t="str">
+        <v>touch-up-ceiling</v>
+      </c>
+      <c r="C45" s="12" t="str">
+        <v xml:space="preserve">    Touch Up Ceiling Damage (as needed)</v>
+      </c>
+      <c r="D45" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E45" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="F45" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="G45" s="12" t="str">
+        <v>Eliseo</v>
+      </c>
+      <c r="H45" s="12" t="str">
+        <v>paint</v>
+      </c>
+      <c r="I45" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J45" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K45" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L45" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M45" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B45" s="9" t="str">
+      <c r="B46" s="9" t="str">
         <v>finish-drywall</v>
       </c>
-      <c r="C45" s="9" t="str">
+      <c r="C46" s="9" t="str">
         <v>Finish Drywall</v>
       </c>
-      <c r="D45" s="9" t="str">
+      <c r="D46" s="9" t="str">
         <v>scheduled</v>
       </c>
-      <c r="E45" s="9" t="str">
+      <c r="E46" s="9" t="str">
         <v>2026-01-23</v>
       </c>
-      <c r="F45" s="9" t="str">
+      <c r="F46" s="9" t="str">
         <v>2026-01-23</v>
       </c>
-      <c r="G45" s="9" t="str">
+      <c r="G46" s="9" t="str">
         <v>Eliseo</v>
       </c>
-      <c r="H45" s="9" t="str">
+      <c r="H46" s="9" t="str">
         <v>trim</v>
       </c>
-      <c r="I45" s="9" t="str">
-        <v/>
-      </c>
-      <c r="J45" s="9" t="str">
+      <c r="I46" s="9" t="str">
+        <v/>
+      </c>
+      <c r="J46" s="9" t="str">
         <v>painting</v>
       </c>
-      <c r="K45" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L45" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M45" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B46" s="12" t="str">
-        <v>finish-drywall-kitchen</v>
-      </c>
-      <c r="C46" s="12" t="str">
-        <v xml:space="preserve">    Finish Drywall Kitchen</v>
-      </c>
-      <c r="D46" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E46" s="12" t="str">
-        <v>2026-01-23</v>
-      </c>
-      <c r="F46" s="12" t="str">
-        <v>2026-01-23</v>
-      </c>
-      <c r="G46" s="12" t="str">
-        <v>Eliseo</v>
-      </c>
-      <c r="H46" s="12" t="str">
-        <v>trim</v>
-      </c>
-      <c r="I46" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J46" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K46" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L46" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M46" s="12" t="str">
+      <c r="K46" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L46" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M46" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -8657,10 +8810,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B47" s="12" t="str">
-        <v>finish-drywall-scupernong</v>
+        <v>finish-drywall-kitchen</v>
       </c>
       <c r="C47" s="12" t="str">
-        <v xml:space="preserve">    Finish Drywall Scupernong</v>
+        <v xml:space="preserve">    Finish Drywall Kitchen</v>
       </c>
       <c r="D47" s="12" t="str">
         <v>needs-scheduled</v>
@@ -8681,97 +8834,97 @@
         <v/>
       </c>
       <c r="J47" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K47" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L47" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M47" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B48" s="12" t="str">
+        <v>finish-drywall-scupernong</v>
+      </c>
+      <c r="C48" s="12" t="str">
+        <v xml:space="preserve">    Finish Drywall Scupernong</v>
+      </c>
+      <c r="D48" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E48" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="F48" s="12" t="str">
+        <v>2026-01-23</v>
+      </c>
+      <c r="G48" s="12" t="str">
+        <v>Eliseo</v>
+      </c>
+      <c r="H48" s="12" t="str">
+        <v>trim</v>
+      </c>
+      <c r="I48" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J48" s="12" t="str">
         <v>baseboard-install-scupernong</v>
       </c>
-      <c r="K47" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L47" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M47" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="str">
+      <c r="K48" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L48" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M48" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B48" s="9" t="str">
+      <c r="B49" s="9" t="str">
         <v>kitchen-put-back</v>
       </c>
-      <c r="C48" s="9" t="str">
+      <c r="C49" s="9" t="str">
         <v>Kitchen Put-Back</v>
       </c>
-      <c r="D48" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E48" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F48" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G48" s="15" t="str">
+      <c r="D49" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E49" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F49" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G49" s="15" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="H48" s="9" t="str">
-        <v/>
-      </c>
-      <c r="I48" s="9" t="str">
+      <c r="H49" s="9" t="str">
+        <v/>
+      </c>
+      <c r="I49" s="9" t="str">
         <v>crest-installation, finish-plumbing</v>
       </c>
-      <c r="J48" s="9" t="str">
+      <c r="J49" s="9" t="str">
         <v>project-finish</v>
       </c>
-      <c r="K48" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L48" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M48" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B49" s="12" t="str">
-        <v>install-dishwasher</v>
-      </c>
-      <c r="C49" s="12" t="str">
-        <v xml:space="preserve">    Install Dishwasher</v>
-      </c>
-      <c r="D49" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E49" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F49" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G49" s="12" t="str">
-        <v>Dion Cahoon</v>
-      </c>
-      <c r="H49" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I49" s="12" t="str">
-        <v>crest-installation, finish-plumbing</v>
-      </c>
-      <c r="J49" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K49" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L49" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M49" s="12" t="str">
+      <c r="K49" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L49" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M49" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -8780,10 +8933,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B50" s="12" t="str">
-        <v>install-ovens</v>
+        <v>install-dishwasher</v>
       </c>
       <c r="C50" s="12" t="str">
-        <v xml:space="preserve">    Install Ovens</v>
+        <v xml:space="preserve">    Install Dishwasher</v>
       </c>
       <c r="D50" s="12" t="str">
         <v>needs-scheduled</v>
@@ -8794,14 +8947,14 @@
       <c r="F50" s="12" t="str">
         <v/>
       </c>
-      <c r="G50" s="16" t="str">
-        <v>Needs Assignment</v>
+      <c r="G50" s="12" t="str">
+        <v>Dion Cahoon</v>
       </c>
       <c r="H50" s="12" t="str">
         <v/>
       </c>
       <c r="I50" s="12" t="str">
-        <v/>
+        <v>crest-installation, finish-plumbing</v>
       </c>
       <c r="J50" s="12" t="str">
         <v/>
@@ -8821,203 +8974,203 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B51" s="12" t="str">
+        <v>install-ovens</v>
+      </c>
+      <c r="C51" s="12" t="str">
+        <v xml:space="preserve">    Install Ovens</v>
+      </c>
+      <c r="D51" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E51" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F51" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G51" s="17" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="H51" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I51" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J51" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K51" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L51" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M51" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B52" s="12" t="str">
         <v>move-appliances</v>
       </c>
-      <c r="C51" s="12" t="str">
+      <c r="C52" s="12" t="str">
         <v xml:space="preserve">    Move Range, Freezers and Refrigerators</v>
       </c>
-      <c r="D51" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E51" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F51" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G51" s="16" t="str">
+      <c r="D52" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E52" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F52" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G52" s="17" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="H51" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I51" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J51" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K51" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L51" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M51" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="str">
+      <c r="H52" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I52" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J52" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K52" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L52" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M52" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B52" s="9" t="str">
+      <c r="B53" s="9" t="str">
+        <v>install-dryer-vents</v>
+      </c>
+      <c r="C53" s="9" t="str">
+        <v>Install Dryer Vents</v>
+      </c>
+      <c r="D53" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E53" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F53" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G53" s="15" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="H53" s="9" t="str">
+        <v>mechanical</v>
+      </c>
+      <c r="I53" s="9" t="str">
+        <v/>
+      </c>
+      <c r="J53" s="9" t="str">
+        <v/>
+      </c>
+      <c r="K53" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L53" s="9" t="str">
+        <v>Cut holes from laundry room to outside for dryer vents.</v>
+      </c>
+      <c r="M53" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="B54" s="9" t="str">
         <v>siding</v>
       </c>
-      <c r="C52" s="9" t="str">
+      <c r="C54" s="9" t="str">
         <v>Siding</v>
       </c>
-      <c r="D52" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E52" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F52" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G52" s="9" t="str">
+      <c r="D54" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E54" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G54" s="9" t="str">
         <v>Sergio</v>
       </c>
-      <c r="H52" s="9" t="str">
+      <c r="H54" s="9" t="str">
         <v>framing</v>
       </c>
-      <c r="I52" s="9" t="str">
+      <c r="I54" s="9" t="str">
         <v>propane</v>
       </c>
-      <c r="J52" s="9" t="str">
-        <v/>
-      </c>
-      <c r="K52" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L52" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M52" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="str">
+      <c r="J54" s="9" t="str">
+        <v/>
+      </c>
+      <c r="K54" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L54" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M54" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="str">
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
-      <c r="B53" s="12" t="str">
+      <c r="B55" s="12" t="str">
         <v>schedule-siding</v>
       </c>
-      <c r="C53" s="12" t="str">
+      <c r="C55" s="12" t="str">
         <v xml:space="preserve">    Schedule Siding</v>
       </c>
-      <c r="D53" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E53" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F53" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G53" s="12" t="str">
+      <c r="D55" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E55" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G55" s="12" t="str">
         <v>Brandon</v>
       </c>
-      <c r="H53" s="12" t="str">
+      <c r="H55" s="12" t="str">
         <v>framing</v>
       </c>
-      <c r="I53" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J53" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K53" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L53" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M53" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B54" s="12" t="str">
-        <v>siding-work</v>
-      </c>
-      <c r="C54" s="12" t="str">
-        <v xml:space="preserve">    Siding</v>
-      </c>
-      <c r="D54" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E54" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F54" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G54" s="12" t="str">
-        <v>Sergio</v>
-      </c>
-      <c r="H54" s="12" t="str">
-        <v>framing</v>
-      </c>
-      <c r="I54" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J54" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K54" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L54" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M54" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="str">
-        <v>TASK</v>
-      </c>
-      <c r="B55" s="9" t="str">
-        <v>inspection</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <v>Inspection</v>
-      </c>
-      <c r="D55" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E55" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F55" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G55" s="9" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="H55" s="9" t="str">
-        <v/>
-      </c>
-      <c r="I55" s="9" t="str">
-        <v/>
-      </c>
-      <c r="J55" s="9" t="str">
-        <v>close-permit, project-finish</v>
-      </c>
-      <c r="K55" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L55" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M55" s="9" t="str">
+      <c r="I55" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J55" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K55" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L55" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M55" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -9026,10 +9179,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B56" s="12" t="str">
-        <v>schedule-town-manteo</v>
+        <v>siding-work</v>
       </c>
       <c r="C56" s="12" t="str">
-        <v xml:space="preserve">    Schedule Town of Manteo</v>
+        <v xml:space="preserve">    Siding</v>
       </c>
       <c r="D56" s="12" t="str">
         <v>needs-scheduled</v>
@@ -9041,65 +9194,65 @@
         <v/>
       </c>
       <c r="G56" s="12" t="str">
+        <v>Sergio</v>
+      </c>
+      <c r="H56" s="12" t="str">
+        <v>framing</v>
+      </c>
+      <c r="I56" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J56" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K56" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L56" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M56" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="B57" s="9" t="str">
+        <v>inspection</v>
+      </c>
+      <c r="C57" s="9" t="str">
+        <v>Inspection</v>
+      </c>
+      <c r="D57" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E57" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F57" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G57" s="9" t="str">
         <v>Brandon</v>
       </c>
-      <c r="H56" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I56" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J56" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K56" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L56" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M56" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B57" s="12" t="str">
-        <v>schedule-dare-county-health</v>
-      </c>
-      <c r="C57" s="12" t="str">
-        <v xml:space="preserve">    Schedule Dare County Health</v>
-      </c>
-      <c r="D57" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E57" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F57" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G57" s="12" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="H57" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I57" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J57" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K57" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L57" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M57" s="12" t="str">
+      <c r="H57" s="9" t="str">
+        <v/>
+      </c>
+      <c r="I57" s="9" t="str">
+        <v/>
+      </c>
+      <c r="J57" s="9" t="str">
+        <v>close-permit, project-finish</v>
+      </c>
+      <c r="K57" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L57" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M57" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -9108,10 +9261,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B58" s="12" t="str">
-        <v>town-manteo-inspection</v>
+        <v>schedule-town-manteo</v>
       </c>
       <c r="C58" s="12" t="str">
-        <v xml:space="preserve">    Town of Manteo</v>
+        <v xml:space="preserve">    Schedule Town of Manteo</v>
       </c>
       <c r="D58" s="12" t="str">
         <v>needs-scheduled</v>
@@ -9149,10 +9302,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B59" s="12" t="str">
-        <v>dare-county-health-inspection</v>
+        <v>schedule-dare-county-health</v>
       </c>
       <c r="C59" s="12" t="str">
-        <v xml:space="preserve">    Dare County Health</v>
+        <v xml:space="preserve">    Schedule Dare County Health</v>
       </c>
       <c r="D59" s="12" t="str">
         <v>needs-scheduled</v>
@@ -9186,43 +9339,43 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="str">
-        <v>TASK</v>
-      </c>
-      <c r="B60" s="9" t="str">
-        <v>misc-equipment-install</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <v>Misc Equipment Install</v>
-      </c>
-      <c r="D60" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E60" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F60" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G60" s="15" t="str">
-        <v>Needs Assignment</v>
-      </c>
-      <c r="H60" s="9" t="str">
-        <v/>
-      </c>
-      <c r="I60" s="9" t="str">
-        <v/>
-      </c>
-      <c r="J60" s="9" t="str">
-        <v/>
-      </c>
-      <c r="K60" s="9" t="str">
-        <v>pot-rack, retractable-extension-cord</v>
-      </c>
-      <c r="L60" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M60" s="9" t="str">
+      <c r="A60" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B60" s="12" t="str">
+        <v>town-manteo-inspection</v>
+      </c>
+      <c r="C60" s="12" t="str">
+        <v xml:space="preserve">    Town of Manteo</v>
+      </c>
+      <c r="D60" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E60" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F60" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G60" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="H60" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I60" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J60" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K60" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L60" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M60" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -9231,121 +9384,121 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B61" s="12" t="str">
+        <v>dare-county-health-inspection</v>
+      </c>
+      <c r="C61" s="12" t="str">
+        <v xml:space="preserve">    Dare County Health</v>
+      </c>
+      <c r="D61" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G61" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="H61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L61" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M61" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="B62" s="9" t="str">
+        <v>misc-equipment-install</v>
+      </c>
+      <c r="C62" s="9" t="str">
+        <v>Misc Equipment Install</v>
+      </c>
+      <c r="D62" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E62" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F62" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G62" s="15" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="H62" s="9" t="str">
+        <v/>
+      </c>
+      <c r="I62" s="9" t="str">
+        <v/>
+      </c>
+      <c r="J62" s="9" t="str">
+        <v/>
+      </c>
+      <c r="K62" s="9" t="str">
+        <v>pot-rack, retractable-extension-cord</v>
+      </c>
+      <c r="L62" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M62" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B63" s="12" t="str">
         <v>install-pot-rack</v>
       </c>
-      <c r="C61" s="12" t="str">
+      <c r="C63" s="12" t="str">
         <v xml:space="preserve">    Install Pot Rack</v>
       </c>
-      <c r="D61" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E61" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F61" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G61" s="16" t="str">
+      <c r="D63" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E63" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F63" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G63" s="17" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="H61" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I61" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J61" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K61" s="12" t="str">
+      <c r="H63" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I63" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J63" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K63" s="12" t="str">
         <v>pot-rack</v>
       </c>
-      <c r="L61" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M61" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B62" s="12" t="str">
-        <v>install-retractable-extension-cord</v>
-      </c>
-      <c r="C62" s="12" t="str">
-        <v xml:space="preserve">    Install Retractable Extension Cord</v>
-      </c>
-      <c r="D62" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E62" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F62" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G62" s="16" t="str">
-        <v>Needs Assignment</v>
-      </c>
-      <c r="H62" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I62" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J62" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K62" s="12" t="str">
-        <v>retractable-extension-cord</v>
-      </c>
-      <c r="L62" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M62" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="9" t="str">
-        <v>TASK</v>
-      </c>
-      <c r="B63" s="9" t="str">
-        <v>upper-cabinet-install</v>
-      </c>
-      <c r="C63" s="9" t="str">
-        <v>Upper Cabinet Install</v>
-      </c>
-      <c r="D63" s="9" t="str">
-        <v>scheduled</v>
-      </c>
-      <c r="E63" s="9" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="F63" s="9" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="G63" s="15" t="str">
-        <v>Needs Assignment</v>
-      </c>
-      <c r="H63" s="9" t="str">
-        <v>fixtures</v>
-      </c>
-      <c r="I63" s="9" t="str">
-        <v>finish-trim</v>
-      </c>
-      <c r="J63" s="9" t="str">
-        <v>crest-prep, crest-installation</v>
-      </c>
-      <c r="K63" s="9" t="str">
-        <v>upper-cabinets, upper-cabinet-handles</v>
-      </c>
-      <c r="L63" s="9" t="str">
-        <v>Requires cabinet crown installation.</v>
-      </c>
-      <c r="M63" s="9" t="str">
+      <c r="L63" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M63" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -9354,80 +9507,80 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B64" s="12" t="str">
-        <v>upper-cabinet-delivery</v>
+        <v>install-retractable-extension-cord</v>
       </c>
       <c r="C64" s="12" t="str">
-        <v xml:space="preserve">    Upper Cabinet Delivery</v>
+        <v xml:space="preserve">    Install Retractable Extension Cord</v>
       </c>
       <c r="D64" s="12" t="str">
-        <v>confirmed</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="E64" s="12" t="str">
-        <v>2026-01-22</v>
+        <v/>
       </c>
       <c r="F64" s="12" t="str">
-        <v>2026-01-22</v>
-      </c>
-      <c r="G64" s="16" t="str">
+        <v/>
+      </c>
+      <c r="G64" s="17" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="H64" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I64" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J64" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K64" s="12" t="str">
+        <v>retractable-extension-cord</v>
+      </c>
+      <c r="L64" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M64" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="B65" s="9" t="str">
+        <v>upper-cabinet-install</v>
+      </c>
+      <c r="C65" s="9" t="str">
+        <v>Upper Cabinet Install</v>
+      </c>
+      <c r="D65" s="9" t="str">
+        <v>scheduled</v>
+      </c>
+      <c r="E65" s="9" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="F65" s="9" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G65" s="15" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="H65" s="9" t="str">
         <v>fixtures</v>
       </c>
-      <c r="I64" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J64" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K64" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L64" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M64" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B65" s="12" t="str">
-        <v>schedule-upper-cabinet-install</v>
-      </c>
-      <c r="C65" s="12" t="str">
-        <v xml:space="preserve">    Schedule Installation</v>
-      </c>
-      <c r="D65" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E65" s="12" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="F65" s="12" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="G65" s="12" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="H65" s="12" t="str">
-        <v>fixtures</v>
-      </c>
-      <c r="I65" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J65" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K65" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L65" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M65" s="12" t="str">
+      <c r="I65" s="9" t="str">
+        <v>finish-trim</v>
+      </c>
+      <c r="J65" s="9" t="str">
+        <v>crest-prep, crest-installation</v>
+      </c>
+      <c r="K65" s="9" t="str">
+        <v>upper-cabinets, upper-cabinet-handles</v>
+      </c>
+      <c r="L65" s="9" t="str">
+        <v>Requires cabinet crown installation.</v>
+      </c>
+      <c r="M65" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -9436,21 +9589,21 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B66" s="12" t="str">
-        <v>install-upper-cabinets</v>
+        <v>upper-cabinet-delivery</v>
       </c>
       <c r="C66" s="12" t="str">
-        <v xml:space="preserve">    Install Upper Cabinets</v>
+        <v xml:space="preserve">    Upper Cabinet Delivery</v>
       </c>
       <c r="D66" s="12" t="str">
-        <v>needs-scheduled</v>
+        <v>confirmed</v>
       </c>
       <c r="E66" s="12" t="str">
-        <v>2026-01-26</v>
+        <v>2026-01-22</v>
       </c>
       <c r="F66" s="12" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="G66" s="16" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="G66" s="17" t="str">
         <v>Needs Assignment</v>
       </c>
       <c r="H66" s="12" t="str">
@@ -9463,176 +9616,176 @@
         <v/>
       </c>
       <c r="K66" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L66" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M66" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B67" s="12" t="str">
+        <v>schedule-upper-cabinet-install</v>
+      </c>
+      <c r="C67" s="12" t="str">
+        <v xml:space="preserve">    Schedule Installation</v>
+      </c>
+      <c r="D67" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E67" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="F67" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G67" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="H67" s="12" t="str">
+        <v>fixtures</v>
+      </c>
+      <c r="I67" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J67" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K67" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L67" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M67" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B68" s="12" t="str">
+        <v>install-upper-cabinets</v>
+      </c>
+      <c r="C68" s="12" t="str">
+        <v xml:space="preserve">    Install Upper Cabinets</v>
+      </c>
+      <c r="D68" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E68" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="F68" s="12" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="G68" s="17" t="str">
+        <v>Needs Assignment</v>
+      </c>
+      <c r="H68" s="12" t="str">
+        <v>fixtures</v>
+      </c>
+      <c r="I68" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J68" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K68" s="12" t="str">
         <v>upper-cabinets, upper-cabinet-handles</v>
       </c>
-      <c r="L66" s="12" t="str">
-        <v/>
-      </c>
-      <c r="M66" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="str">
+      <c r="L68" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M68" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B67" s="9" t="str">
+      <c r="B69" s="9" t="str">
         <v>close-permit</v>
       </c>
-      <c r="C67" s="9" t="str">
+      <c r="C69" s="9" t="str">
         <v>Close Building Permit</v>
       </c>
-      <c r="D67" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E67" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F67" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G67" s="9" t="str">
+      <c r="D69" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E69" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F69" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G69" s="9" t="str">
         <v>Brandon</v>
       </c>
-      <c r="H67" s="9" t="str">
-        <v/>
-      </c>
-      <c r="I67" s="9" t="str">
+      <c r="H69" s="9" t="str">
+        <v/>
+      </c>
+      <c r="I69" s="9" t="str">
         <v>inspection</v>
       </c>
-      <c r="J67" s="9" t="str">
+      <c r="J69" s="9" t="str">
         <v>project-finish</v>
       </c>
-      <c r="K67" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L67" s="9" t="str">
-        <v/>
-      </c>
-      <c r="M67" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="9" t="str">
+      <c r="K69" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L69" s="9" t="str">
+        <v/>
+      </c>
+      <c r="M69" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="str">
         <v>TASK</v>
       </c>
-      <c r="B68" s="9" t="str">
+      <c r="B70" s="9" t="str">
         <v>project-finish</v>
       </c>
-      <c r="C68" s="9" t="str">
+      <c r="C70" s="9" t="str">
         <v>Project Finish</v>
       </c>
-      <c r="D68" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E68" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F68" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G68" s="15" t="str">
+      <c r="D70" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E70" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F70" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G70" s="15" t="str">
         <v>Needs Assignment</v>
       </c>
-      <c r="H68" s="9" t="str">
-        <v/>
-      </c>
-      <c r="I68" s="9" t="str">
+      <c r="H70" s="9" t="str">
+        <v/>
+      </c>
+      <c r="I70" s="9" t="str">
         <v>inspection, crest-installation, kitchen-put-back, close-permit</v>
       </c>
-      <c r="J68" s="9" t="str">
-        <v/>
-      </c>
-      <c r="K68" s="9" t="str">
-        <v/>
-      </c>
-      <c r="L68" s="9" t="str">
+      <c r="J70" s="9" t="str">
+        <v/>
+      </c>
+      <c r="K70" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L70" s="9" t="str">
         <v>Final punch acceptance criteria: All work complete per contract scope, all inspections passed, all equipment operational, no safety hazards, cosmetic defects documented and remediated.</v>
       </c>
-      <c r="M68" s="9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B69" s="12" t="str">
-        <v>schedule-final-punch</v>
-      </c>
-      <c r="C69" s="12" t="str">
-        <v xml:space="preserve">    Schedule Final Punch Walkthrough</v>
-      </c>
-      <c r="D69" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E69" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F69" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G69" s="12" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="H69" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I69" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J69" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K69" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L69" s="12" t="str">
-        <v>Coordinate with owner for walkthrough date/time.</v>
-      </c>
-      <c r="M69" s="12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="str">
-        <v xml:space="preserve">  ↳ subtask</v>
-      </c>
-      <c r="B70" s="12" t="str">
-        <v>final-punch-walkthrough</v>
-      </c>
-      <c r="C70" s="12" t="str">
-        <v xml:space="preserve">    Final Punch Walkthrough</v>
-      </c>
-      <c r="D70" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E70" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F70" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G70" s="12" t="str">
-        <v>Dave</v>
-      </c>
-      <c r="H70" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I70" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J70" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K70" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L70" s="12" t="str">
-        <v>Owner walks job with GC to identify any remaining items. Document all punch items.</v>
-      </c>
-      <c r="M70" s="12" t="str">
+      <c r="M70" s="9" t="str">
         <v/>
       </c>
     </row>
@@ -9641,10 +9794,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B71" s="12" t="str">
-        <v>punch-remediation</v>
+        <v>schedule-final-punch</v>
       </c>
       <c r="C71" s="12" t="str">
-        <v xml:space="preserve">    Punch List Remediation</v>
+        <v xml:space="preserve">    Schedule Final Punch Walkthrough</v>
       </c>
       <c r="D71" s="12" t="str">
         <v>needs-scheduled</v>
@@ -9665,13 +9818,13 @@
         <v/>
       </c>
       <c r="J71" s="12" t="str">
-        <v>final-clean</v>
+        <v/>
       </c>
       <c r="K71" s="12" t="str">
         <v/>
       </c>
       <c r="L71" s="12" t="str">
-        <v>GC addresses all documented punch items.</v>
+        <v>Coordinate with owner for walkthrough date/time.</v>
       </c>
       <c r="M71" s="12" t="str">
         <v/>
@@ -9682,10 +9835,10 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B72" s="12" t="str">
-        <v>final-clean</v>
+        <v>final-punch-walkthrough</v>
       </c>
       <c r="C72" s="12" t="str">
-        <v xml:space="preserve">    Final Clean</v>
+        <v xml:space="preserve">    Final Punch Walkthrough</v>
       </c>
       <c r="D72" s="12" t="str">
         <v>needs-scheduled</v>
@@ -9697,13 +9850,13 @@
         <v/>
       </c>
       <c r="G72" s="12" t="str">
-        <v>Brandon</v>
+        <v>Dave</v>
       </c>
       <c r="H72" s="12" t="str">
         <v/>
       </c>
       <c r="I72" s="12" t="str">
-        <v>punch-remediation</v>
+        <v/>
       </c>
       <c r="J72" s="12" t="str">
         <v/>
@@ -9712,7 +9865,7 @@
         <v/>
       </c>
       <c r="L72" s="12" t="str">
-        <v/>
+        <v>Owner walks job with GC to identify any remaining items. Document all punch items.</v>
       </c>
       <c r="M72" s="12" t="str">
         <v/>
@@ -9723,54 +9876,136 @@
         <v xml:space="preserve">  ↳ subtask</v>
       </c>
       <c r="B73" s="12" t="str">
+        <v>punch-remediation</v>
+      </c>
+      <c r="C73" s="12" t="str">
+        <v xml:space="preserve">    Punch List Remediation</v>
+      </c>
+      <c r="D73" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E73" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F73" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G73" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="H73" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I73" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J73" s="12" t="str">
+        <v>final-clean</v>
+      </c>
+      <c r="K73" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L73" s="12" t="str">
+        <v>GC addresses all documented punch items.</v>
+      </c>
+      <c r="M73" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B74" s="12" t="str">
+        <v>final-clean</v>
+      </c>
+      <c r="C74" s="12" t="str">
+        <v xml:space="preserve">    Final Clean</v>
+      </c>
+      <c r="D74" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E74" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F74" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G74" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="H74" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I74" s="12" t="str">
+        <v>punch-remediation</v>
+      </c>
+      <c r="J74" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K74" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L74" s="12" t="str">
+        <v/>
+      </c>
+      <c r="M74" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12" t="str">
+        <v xml:space="preserve">  ↳ subtask</v>
+      </c>
+      <c r="B75" s="12" t="str">
         <v>final-acceptance</v>
       </c>
-      <c r="C73" s="12" t="str">
+      <c r="C75" s="12" t="str">
         <v xml:space="preserve">    Final Acceptance</v>
       </c>
-      <c r="D73" s="12" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E73" s="12" t="str">
-        <v/>
-      </c>
-      <c r="F73" s="12" t="str">
-        <v/>
-      </c>
-      <c r="G73" s="12" t="str">
+      <c r="D75" s="12" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E75" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F75" s="12" t="str">
+        <v/>
+      </c>
+      <c r="G75" s="12" t="str">
         <v>Dave</v>
       </c>
-      <c r="H73" s="12" t="str">
-        <v/>
-      </c>
-      <c r="I73" s="12" t="str">
-        <v/>
-      </c>
-      <c r="J73" s="12" t="str">
-        <v/>
-      </c>
-      <c r="K73" s="12" t="str">
-        <v/>
-      </c>
-      <c r="L73" s="12" t="str">
+      <c r="H75" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I75" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J75" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K75" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L75" s="12" t="str">
         <v>Owner confirms all punch items resolved. Project complete.</v>
       </c>
-      <c r="M73" s="12" t="str">
+      <c r="M75" s="12" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:M73"/>
+  <autoFilter ref="A1:M75"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M73"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M75"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9778,13 +10013,14 @@
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" customWidth="1"/>
-    <col min="9" max="9" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
     <col min="10" max="10" width="40.83203125" customWidth="1"/>
+    <col min="11" max="11" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -9798,24 +10034,27 @@
         <v>Status</v>
       </c>
       <c r="D1" s="8" t="str">
+        <v>Completeness</v>
+      </c>
+      <c r="E1" s="8" t="str">
         <v>For Task</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="F1" s="8" t="str">
         <v>Depends On</v>
       </c>
-      <c r="F1" s="8" t="str">
+      <c r="G1" s="8" t="str">
         <v>Quantity</v>
       </c>
-      <c r="G1" s="8" t="str">
+      <c r="H1" s="8" t="str">
         <v>Expected Date</v>
       </c>
-      <c r="H1" s="8" t="str">
+      <c r="I1" s="8" t="str">
         <v>Detail</v>
       </c>
-      <c r="I1" s="8" t="str">
+      <c r="J1" s="8" t="str">
         <v>Notes</v>
       </c>
-      <c r="J1" s="8" t="str">
+      <c r="K1" s="8" t="str">
         <v>Comments</v>
       </c>
     </row>
@@ -9830,14 +10069,14 @@
         <v>on-hand</v>
       </c>
       <c r="D2" s="19" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E2" s="19" t="str">
         <v>finish-trim</v>
       </c>
-      <c r="E2" s="19" t="str">
+      <c r="F2" s="19" t="str">
         <v>kitchen-crown-molding, laundry-crown-molding</v>
       </c>
-      <c r="F2" s="19" t="str">
-        <v/>
-      </c>
       <c r="G2" s="19" t="str">
         <v/>
       </c>
@@ -9848,6 +10087,9 @@
         <v/>
       </c>
       <c r="J2" s="19" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -9862,24 +10104,27 @@
         <v>on-hand</v>
       </c>
       <c r="D3" s="12" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E3" s="12" t="str">
         <v>install-doors</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="F3" s="12" t="str">
         <v>main-kitchen-door</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="str">
-        <v/>
-      </c>
       <c r="H3" s="12" t="str">
         <v/>
       </c>
       <c r="I3" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J3" s="12" t="str">
         <v>In garage.</v>
       </c>
-      <c r="J3" s="12" t="str">
+      <c r="K3" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -9894,24 +10139,27 @@
         <v>on-hand</v>
       </c>
       <c r="D4" s="19" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E4" s="19" t="str">
         <v>install-doors</v>
       </c>
-      <c r="E4" s="19" t="str">
+      <c r="F4" s="19" t="str">
         <v>install-back-door</v>
       </c>
-      <c r="F4" s="19">
+      <c r="G4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="19" t="str">
-        <v/>
-      </c>
       <c r="H4" s="19" t="str">
         <v/>
       </c>
       <c r="I4" s="19" t="str">
+        <v/>
+      </c>
+      <c r="J4" s="19" t="str">
         <v>In garage.</v>
       </c>
-      <c r="J4" s="19" t="str">
+      <c r="K4" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -9926,24 +10174,27 @@
         <v>on-hand</v>
       </c>
       <c r="D5" s="12" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E5" s="12" t="str">
         <v>install-doors</v>
       </c>
-      <c r="E5" s="12" t="str">
+      <c r="F5" s="12" t="str">
         <v>hvac-door</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="str">
-        <v/>
-      </c>
       <c r="H5" s="12" t="str">
         <v/>
       </c>
       <c r="I5" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J5" s="12" t="str">
         <v>Existing 32" door.</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="K5" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -9958,24 +10209,27 @@
         <v>ordered</v>
       </c>
       <c r="D6" s="19" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E6" s="19" t="str">
         <v>install-doors</v>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="F6" s="19" t="str">
         <v>main-kitchen-door</v>
       </c>
-      <c r="F6" s="19">
+      <c r="G6" s="19">
         <v>4</v>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="H6" s="19" t="str">
         <v>2026-01-22</v>
       </c>
-      <c r="H6" s="19" t="str">
-        <v/>
-      </c>
       <c r="I6" s="19" t="str">
         <v/>
       </c>
       <c r="J6" s="19" t="str">
+        <v/>
+      </c>
+      <c r="K6" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -9990,24 +10244,27 @@
         <v>ordered</v>
       </c>
       <c r="D7" s="12" t="str">
+        <v>⚠️ Missing: expectedDate</v>
+      </c>
+      <c r="E7" s="12" t="str">
         <v>install-doors</v>
       </c>
-      <c r="E7" s="12" t="str">
+      <c r="F7" s="12" t="str">
         <v>install-back-door</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="12">
         <v>3</v>
       </c>
-      <c r="G7" s="12" t="str">
-        <v/>
-      </c>
       <c r="H7" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I7" s="12" t="str">
         <v>4" Antique Bronze</v>
       </c>
-      <c r="I7" s="12" t="str">
-        <v/>
-      </c>
       <c r="J7" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K7" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10022,24 +10279,27 @@
         <v>ordered</v>
       </c>
       <c r="D8" s="19" t="str">
+        <v>⚠️ Missing: expectedDate</v>
+      </c>
+      <c r="E8" s="19" t="str">
         <v>install-doors</v>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="F8" s="19" t="str">
         <v>install-back-door</v>
       </c>
-      <c r="F8" s="19">
+      <c r="G8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="19" t="str">
-        <v/>
-      </c>
       <c r="H8" s="19" t="str">
+        <v/>
+      </c>
+      <c r="I8" s="19" t="str">
         <v>Antique Bronze</v>
       </c>
-      <c r="I8" s="19" t="str">
-        <v/>
-      </c>
       <c r="J8" s="19" t="str">
+        <v/>
+      </c>
+      <c r="K8" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10054,24 +10314,27 @@
         <v>on-hand</v>
       </c>
       <c r="D9" s="12" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E9" s="12" t="str">
         <v>install-doors</v>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="F9" s="12" t="str">
         <v>install-back-door</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="12" t="str">
-        <v/>
-      </c>
       <c r="H9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I9" s="12" t="str">
         <v>Antique Bronze</v>
       </c>
-      <c r="I9" s="12" t="str">
-        <v/>
-      </c>
       <c r="J9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K9" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10086,24 +10349,27 @@
         <v>ordered</v>
       </c>
       <c r="D10" s="19" t="str">
+        <v>⚠️ Missing: expectedDate</v>
+      </c>
+      <c r="E10" s="19" t="str">
         <v>install-doors</v>
       </c>
-      <c r="E10" s="19" t="str">
+      <c r="F10" s="19" t="str">
         <v>hvac-door</v>
       </c>
-      <c r="F10" s="19">
+      <c r="G10" s="19">
         <v>2</v>
       </c>
-      <c r="G10" s="19" t="str">
-        <v/>
-      </c>
       <c r="H10" s="19" t="str">
+        <v/>
+      </c>
+      <c r="I10" s="19" t="str">
         <v>Antique Bronze</v>
       </c>
-      <c r="I10" s="19" t="str">
-        <v/>
-      </c>
       <c r="J10" s="19" t="str">
+        <v/>
+      </c>
+      <c r="K10" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10118,17 +10384,17 @@
         <v>on-hand</v>
       </c>
       <c r="D11" s="12" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E11" s="12" t="str">
         <v>finish-electrical</v>
       </c>
-      <c r="E11" s="12" t="str">
+      <c r="F11" s="12" t="str">
         <v>install-coach-lamp</v>
       </c>
-      <c r="F11" s="12">
+      <c r="G11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="str">
-        <v/>
-      </c>
       <c r="H11" s="12" t="str">
         <v/>
       </c>
@@ -10136,6 +10402,9 @@
         <v/>
       </c>
       <c r="J11" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K11" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10150,11 +10419,11 @@
         <v>need-to-order</v>
       </c>
       <c r="D12" s="19" t="str">
+        <v>⚠️ Missing: quantity, specs</v>
+      </c>
+      <c r="E12" s="19" t="str">
         <v>finish-electrical</v>
       </c>
-      <c r="E12" s="19" t="str">
-        <v/>
-      </c>
       <c r="F12" s="19" t="str">
         <v/>
       </c>
@@ -10165,9 +10434,12 @@
         <v/>
       </c>
       <c r="I12" s="19" t="str">
+        <v/>
+      </c>
+      <c r="J12" s="19" t="str">
         <v>Get count.</v>
       </c>
-      <c r="J12" s="19" t="str">
+      <c r="K12" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10182,17 +10454,17 @@
         <v>on-hand</v>
       </c>
       <c r="D13" s="12" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E13" s="12" t="str">
         <v>misc-equipment-install</v>
       </c>
-      <c r="E13" s="12" t="str">
+      <c r="F13" s="12" t="str">
         <v>install-pot-rack</v>
       </c>
-      <c r="F13" s="12">
+      <c r="G13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="12" t="str">
-        <v/>
-      </c>
       <c r="H13" s="12" t="str">
         <v/>
       </c>
@@ -10200,6 +10472,9 @@
         <v/>
       </c>
       <c r="J13" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K13" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10214,24 +10489,27 @@
         <v>ordered</v>
       </c>
       <c r="D14" s="19" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E14" s="19" t="str">
         <v>misc-equipment-install</v>
       </c>
-      <c r="E14" s="19" t="str">
+      <c r="F14" s="19" t="str">
         <v>install-retractable-extension-cord</v>
       </c>
-      <c r="F14" s="19">
+      <c r="G14" s="19">
         <v>1</v>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="H14" s="19" t="str">
         <v>2026-01-26</v>
       </c>
-      <c r="H14" s="19" t="str">
-        <v/>
-      </c>
       <c r="I14" s="19" t="str">
         <v/>
       </c>
       <c r="J14" s="19" t="str">
+        <v/>
+      </c>
+      <c r="K14" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10246,24 +10524,27 @@
         <v>ordered</v>
       </c>
       <c r="D15" s="12" t="str">
+        <v>✅ Complete</v>
+      </c>
+      <c r="E15" s="12" t="str">
         <v>upper-cabinet-install</v>
       </c>
-      <c r="E15" s="12" t="str">
+      <c r="F15" s="12" t="str">
         <v>install-upper-cabinets</v>
       </c>
-      <c r="F15" s="12">
+      <c r="G15" s="12">
         <v>4</v>
       </c>
-      <c r="G15" s="12" t="str">
+      <c r="H15" s="12" t="str">
         <v>2026-01-22</v>
       </c>
-      <c r="H15" s="12" t="str">
-        <v/>
-      </c>
       <c r="I15" s="12" t="str">
         <v/>
       </c>
       <c r="J15" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K15" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10278,14 +10559,14 @@
         <v>ordered</v>
       </c>
       <c r="D16" s="19" t="str">
+        <v>⚠️ Missing: expectedDate</v>
+      </c>
+      <c r="E16" s="19" t="str">
         <v>upper-cabinet-install</v>
       </c>
-      <c r="E16" s="19" t="str">
+      <c r="F16" s="19" t="str">
         <v>install-upper-cabinets</v>
       </c>
-      <c r="F16" s="19" t="str">
-        <v/>
-      </c>
       <c r="G16" s="19" t="str">
         <v/>
       </c>
@@ -10296,14 +10577,17 @@
         <v/>
       </c>
       <c r="J16" s="19" t="str">
+        <v/>
+      </c>
+      <c r="K16" s="19" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:J16"/>
+  <autoFilter ref="A1:K16"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K16"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10680,192 +10964,868 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="70.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="8" t="str">
-        <v>Note ID</v>
+        <v>Question ID</v>
       </c>
       <c r="B1" s="8" t="str">
+        <v>Type</v>
+      </c>
+      <c r="C1" s="8" t="str">
         <v>Created</v>
       </c>
-      <c r="C1" s="8" t="str">
-        <v>Action Needed</v>
-      </c>
       <c r="D1" s="8" t="str">
+        <v>Question</v>
+      </c>
+      <c r="E1" s="8" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="F1" s="8" t="str">
         <v>Related Task</v>
       </c>
-      <c r="E1" s="8" t="str">
-        <v>GC Response</v>
+      <c r="G1" s="8" t="str">
+        <v>Related Material</v>
+      </c>
+      <c r="H1" s="8" t="str">
+        <v>Response</v>
+      </c>
+      <c r="I1" s="8" t="str">
+        <v>Notes</v>
+      </c>
+      <c r="J1" s="8" t="str">
+        <v>Status</v>
+      </c>
+      <c r="K1" s="8" t="str">
+        <v>Review Status</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="str">
-        <v>gc-note-1</v>
+        <v>sq-assignee-install-doors</v>
       </c>
       <c r="B2" s="20" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="C2" s="20" t="str">
         <v>2026-01-20</v>
       </c>
-      <c r="C2" s="20" t="str">
-        <v>Who installs the doors? Need assignee for Install Doors task.</v>
-      </c>
       <c r="D2" s="20" t="str">
+        <v>Who should install the doors?</v>
+      </c>
+      <c r="E2" s="20" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F2" s="20" t="str">
         <v>install-doors</v>
       </c>
-      <c r="E2" s="20" t="str">
+      <c r="G2" s="20" t="str">
+        <v/>
+      </c>
+      <c r="H2" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I2" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J2" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K2" s="20" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="str">
-        <v>gc-note-2</v>
+        <v>sq-dependency-inspection</v>
       </c>
       <c r="B3" s="12" t="str">
+        <v>Dependency</v>
+      </c>
+      <c r="C3" s="12" t="str">
         <v>2026-01-20</v>
       </c>
-      <c r="C3" s="12" t="str">
-        <v>What are the dependencies for Inspection? What needs to be complete before inspections can be scheduled?</v>
-      </c>
       <c r="D3" s="12" t="str">
+        <v>What tasks must complete before inspections can be scheduled?</v>
+      </c>
+      <c r="E3" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F3" s="12" t="str">
         <v>inspection</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="G3" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H3" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I3" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J3" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K3" s="12" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="str">
-        <v>gc-note-3</v>
+        <v>sq-daterange-back-deck</v>
       </c>
       <c r="B4" s="20" t="str">
+        <v>Date Range</v>
+      </c>
+      <c r="C4" s="20" t="str">
         <v>2026-01-20</v>
       </c>
-      <c r="C4" s="20" t="str">
-        <v>Request schedule for back deck work. Also need meeting with owner to plan - need dimensions, rail system decision, materials.</v>
-      </c>
       <c r="D4" s="20" t="str">
+        <v>What are the start and end dates for back deck construction?</v>
+      </c>
+      <c r="E4" s="20" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F4" s="20" t="str">
         <v>build-back-deck</v>
       </c>
-      <c r="E4" s="20" t="str">
+      <c r="G4" s="20" t="str">
+        <v/>
+      </c>
+      <c r="H4" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I4" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J4" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K4" s="20" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="str">
-        <v>gc-note-5</v>
+        <v>sq-assignee-move-appliances</v>
       </c>
       <c r="B5" s="12" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="C5" s="12" t="str">
         <v>2026-01-20</v>
       </c>
-      <c r="C5" s="12" t="str">
+      <c r="D5" s="12" t="str">
         <v>Who moves range, freezers and refrigerators for Kitchen Put-Back?</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="E5" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F5" s="12" t="str">
         <v>kitchen-put-back</v>
       </c>
-      <c r="E5" s="12" t="str">
+      <c r="G5" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H5" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I5" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J5" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K5" s="12" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="str">
-        <v>gc-note-6</v>
+        <v>sq-assignee-install-ovens</v>
       </c>
       <c r="B6" s="20" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="C6" s="20" t="str">
         <v>2026-01-20</v>
       </c>
-      <c r="C6" s="20" t="str">
-        <v>Who installs ovens?</v>
-      </c>
       <c r="D6" s="20" t="str">
+        <v>Who should install the ovens?</v>
+      </c>
+      <c r="E6" s="20" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F6" s="20" t="str">
         <v>kitchen-put-back</v>
       </c>
-      <c r="E6" s="20" t="str">
+      <c r="G6" s="20" t="str">
+        <v/>
+      </c>
+      <c r="H6" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I6" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J6" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K6" s="20" t="str">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="str">
-        <v>gc-note-7</v>
+        <v>sq-assignee-pot-rack</v>
       </c>
       <c r="B7" s="12" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="C7" s="12" t="str">
         <v>2026-01-20</v>
       </c>
-      <c r="C7" s="12" t="str">
-        <v>Who installs pot rack?</v>
-      </c>
       <c r="D7" s="12" t="str">
+        <v>Who should install the pot rack?</v>
+      </c>
+      <c r="E7" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F7" s="12" t="str">
         <v>misc-equipment-install</v>
       </c>
-      <c r="E7" s="12" t="str">
+      <c r="G7" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H7" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I7" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J7" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K7" s="12" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="str">
-        <v>gc-note-8</v>
+        <v>sq-assignee-upper-cabinets</v>
       </c>
       <c r="B8" s="20" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="C8" s="20" t="str">
         <v>2026-01-20</v>
       </c>
-      <c r="C8" s="20" t="str">
-        <v>Who installs upper cabinets? Need assignee for Upper Cabinet Install task.</v>
-      </c>
       <c r="D8" s="20" t="str">
+        <v>Who should install the upper cabinets?</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F8" s="20" t="str">
         <v>upper-cabinet-install</v>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="G8" s="20" t="str">
+        <v/>
+      </c>
+      <c r="H8" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I8" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J8" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K8" s="20" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="str">
-        <v>gc-note-9</v>
+        <v>sq-assignee-crest-prep</v>
       </c>
       <c r="B9" s="12" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="C9" s="12" t="str">
         <v>2026-01-20</v>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="D9" s="12" t="str">
         <v>Who is responsible for cleaning/prep before Crest arrives on 1/27?</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="E9" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F9" s="12" t="str">
         <v>crest-prep</v>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="G9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J9" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K9" s="12" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="str">
-        <v>gc-note-10</v>
+        <v>sq-yesno-mep-meeting</v>
       </c>
       <c r="B10" s="20" t="str">
+        <v>Yes/No</v>
+      </c>
+      <c r="C10" s="20" t="str">
         <v>2026-01-20</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="D10" s="20" t="str">
         <v>Should we schedule an MEP coordination meeting before Crest install on 1/27?</v>
       </c>
-      <c r="D10" s="20" t="str">
+      <c r="E10" s="20" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F10" s="20" t="str">
         <v>crest-installation</v>
       </c>
-      <c r="E10" s="20" t="str">
+      <c r="G10" s="20" t="str">
+        <v/>
+      </c>
+      <c r="H10" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I10" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J10" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K10" s="20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="str">
+        <v>sq-assignee-dryer-vents</v>
+      </c>
+      <c r="B11" s="12" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="C11" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <v>Who should be assigned to install dryer vents?</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <v>install-dryer-vents</v>
+      </c>
+      <c r="G11" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H11" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I11" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J11" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="str">
+        <v>sq-yesno-dryer-vents-dependency</v>
+      </c>
+      <c r="B12" s="20" t="str">
+        <v>Yes/No</v>
+      </c>
+      <c r="C12" s="20" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D12" s="20" t="str">
+        <v>Does siding need to wait for dryer vents to be complete?</v>
+      </c>
+      <c r="E12" s="20" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F12" s="20" t="str">
+        <v>siding</v>
+      </c>
+      <c r="G12" s="20" t="str">
+        <v/>
+      </c>
+      <c r="H12" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I12" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J12" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K12" s="20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="str">
+        <v>sq-daterange-remove-old-porch</v>
+      </c>
+      <c r="B13" s="12" t="str">
+        <v>Date Range</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <v>When should the old porch steps and posts be removed? (prerequisite for back deck)</v>
+      </c>
+      <c r="E13" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <v>remove-old-porch</v>
+      </c>
+      <c r="G13" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H13" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I13" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J13" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="str">
+        <v>sq-daterange-finish-plumbing</v>
+      </c>
+      <c r="B14" s="20" t="str">
+        <v>Date Range</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <v>When should finish plumbing be scheduled? (after Crest installation 1/27)</v>
+      </c>
+      <c r="E14" s="20" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F14" s="20" t="str">
+        <v>finish-plumbing</v>
+      </c>
+      <c r="G14" s="20" t="str">
+        <v/>
+      </c>
+      <c r="H14" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I14" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J14" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K14" s="20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="str">
+        <v>sq-assignee-extension-cord</v>
+      </c>
+      <c r="B15" s="12" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="C15" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <v>Who should install the retractable extension cord?</v>
+      </c>
+      <c r="E15" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <v>install-retractable-extension-cord</v>
+      </c>
+      <c r="G15" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H15" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I15" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J15" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="str">
+        <v>sq-yesno-order-receptacle-covers</v>
+      </c>
+      <c r="B16" s="20" t="str">
+        <v>Yes/No</v>
+      </c>
+      <c r="C16" s="20" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D16" s="20" t="str">
+        <v>Should Dave/Tonia order the receptacle and light switch covers, or will GC handle?</v>
+      </c>
+      <c r="E16" s="20" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F16" s="20" t="str">
+        <v>finish-electrical</v>
+      </c>
+      <c r="G16" s="20" t="str">
+        <v>receptacle-light-switch-covers</v>
+      </c>
+      <c r="H16" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I16" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J16" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K16" s="20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12" t="str">
+        <v>sq-daterange-close-permit</v>
+      </c>
+      <c r="B17" s="12" t="str">
+        <v>Date Range</v>
+      </c>
+      <c r="C17" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D17" s="12" t="str">
+        <v>When should the building permit be closed? (after all inspections pass)</v>
+      </c>
+      <c r="E17" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F17" s="12" t="str">
+        <v>close-permit</v>
+      </c>
+      <c r="G17" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H17" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I17" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J17" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K17" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="str">
+        <v>sq-assignee-propane-coordinator</v>
+      </c>
+      <c r="B18" s="20" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D18" s="20" t="str">
+        <v>Who is overall coordinator for propane work? (Dion does line install, Beach Gas does remediation)</v>
+      </c>
+      <c r="E18" s="20" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F18" s="20" t="str">
+        <v>propane</v>
+      </c>
+      <c r="G18" s="20" t="str">
+        <v/>
+      </c>
+      <c r="H18" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I18" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J18" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K18" s="20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="str">
+        <v>sq-date-project-finish-target</v>
+      </c>
+      <c r="B19" s="12" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C19" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <v>What is the target date for project completion?</v>
+      </c>
+      <c r="E19" s="12" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="F19" s="12" t="str">
+        <v>project-finish</v>
+      </c>
+      <c r="G19" s="12" t="str">
+        <v/>
+      </c>
+      <c r="H19" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I19" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J19" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K19" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="str">
+        <v>sq-date-hinges-back-door-expectedDate</v>
+      </c>
+      <c r="B20" s="20" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D20" s="20" t="str">
+        <v>When is "Hinges (Back Door)" expected to arrive?</v>
+      </c>
+      <c r="E20" s="20" t="str">
+        <v>Tonia</v>
+      </c>
+      <c r="F20" s="20" t="str">
+        <v>install-doors</v>
+      </c>
+      <c r="G20" s="20" t="str">
+        <v>hinges-back-door</v>
+      </c>
+      <c r="H20" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I20" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J20" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K20" s="20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="str">
+        <v>sq-date-doorknob-back-door-expectedDate</v>
+      </c>
+      <c r="B21" s="12" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D21" s="12" t="str">
+        <v>When is "Doorknob (Back Door)" expected to arrive?</v>
+      </c>
+      <c r="E21" s="12" t="str">
+        <v>Tonia</v>
+      </c>
+      <c r="F21" s="12" t="str">
+        <v>install-doors</v>
+      </c>
+      <c r="G21" s="12" t="str">
+        <v>doorknob-back-door</v>
+      </c>
+      <c r="H21" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I21" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J21" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K21" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="str">
+        <v>sq-date-doorknob-hinges-hvac-expectedDate</v>
+      </c>
+      <c r="B22" s="20" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C22" s="20" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D22" s="20" t="str">
+        <v>When is "Doorknob &amp; Hinges (HVAC)" expected to arrive?</v>
+      </c>
+      <c r="E22" s="20" t="str">
+        <v>Tonia</v>
+      </c>
+      <c r="F22" s="20" t="str">
+        <v>install-doors</v>
+      </c>
+      <c r="G22" s="20" t="str">
+        <v>doorknob-hinges-hvac</v>
+      </c>
+      <c r="H22" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I22" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J22" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K22" s="20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="str">
+        <v>sq-free-text-receptacle-light-switch-covers-quantity-detail</v>
+      </c>
+      <c r="B23" s="12" t="str">
+        <v>Free Text</v>
+      </c>
+      <c r="C23" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <v>How many "Receptacle and Light Switch Covers" are needed, and what are the specifications? (Answer 'N/A' for specs if not applicable)</v>
+      </c>
+      <c r="E23" s="12" t="str">
+        <v>Tonia</v>
+      </c>
+      <c r="F23" s="12" t="str">
+        <v>finish-electrical</v>
+      </c>
+      <c r="G23" s="12" t="str">
+        <v>receptacle-light-switch-covers</v>
+      </c>
+      <c r="H23" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I23" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J23" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K23" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="str">
+        <v>sq-date-upper-cabinet-handles-expectedDate</v>
+      </c>
+      <c r="B24" s="20" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D24" s="20" t="str">
+        <v>When is "Upper Cabinet Handles" expected to arrive?</v>
+      </c>
+      <c r="E24" s="20" t="str">
+        <v>Tonia</v>
+      </c>
+      <c r="F24" s="20" t="str">
+        <v>upper-cabinet-install</v>
+      </c>
+      <c r="G24" s="20" t="str">
+        <v>upper-cabinet-handles</v>
+      </c>
+      <c r="H24" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I24" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J24" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K24" s="20" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E10"/>
+  <autoFilter ref="A1:K24"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/projects/kitchen-remodel/Kitchen-Remodel-Tracker.xlsx
+++ b/projects/kitchen-remodel/Kitchen-Remodel-Tracker.xlsx
@@ -15,9 +15,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Schedule'!A1:K75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">'By Assignee'!A1:I103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">'Tasks'!A1:M75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Materials'!A1:K16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Materials'!A1:L16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5">'Vendors'!A1:G15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Open Questions'!A1:K24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Open Questions'!A1:K27</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -10005,7 +10005,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10013,14 +10013,15 @@
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="35.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="40.83203125" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
     <col min="11" max="11" width="40.83203125" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -10049,12 +10050,15 @@
         <v>Expected Date</v>
       </c>
       <c r="I1" s="8" t="str">
+        <v>Order Link</v>
+      </c>
+      <c r="J1" s="8" t="str">
         <v>Detail</v>
       </c>
-      <c r="J1" s="8" t="str">
+      <c r="K1" s="8" t="str">
         <v>Notes</v>
       </c>
-      <c r="K1" s="8" t="str">
+      <c r="L1" s="8" t="str">
         <v>Comments</v>
       </c>
     </row>
@@ -10092,6 +10096,9 @@
       <c r="K2" s="19" t="str">
         <v/>
       </c>
+      <c r="L2" s="19" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="str">
@@ -10122,9 +10129,12 @@
         <v/>
       </c>
       <c r="J3" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K3" s="12" t="str">
         <v>In garage.</v>
       </c>
-      <c r="K3" s="12" t="str">
+      <c r="L3" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10157,9 +10167,12 @@
         <v/>
       </c>
       <c r="J4" s="19" t="str">
+        <v/>
+      </c>
+      <c r="K4" s="19" t="str">
         <v>In garage.</v>
       </c>
-      <c r="K4" s="19" t="str">
+      <c r="L4" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10192,9 +10205,12 @@
         <v/>
       </c>
       <c r="J5" s="12" t="str">
+        <v/>
+      </c>
+      <c r="K5" s="12" t="str">
         <v>Existing 32" door.</v>
       </c>
-      <c r="K5" s="12" t="str">
+      <c r="L5" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10209,7 +10225,7 @@
         <v>ordered</v>
       </c>
       <c r="D6" s="19" t="str">
-        <v>✅ Complete</v>
+        <v>⚠️ Missing: orderLink</v>
       </c>
       <c r="E6" s="19" t="str">
         <v>install-doors</v>
@@ -10230,6 +10246,9 @@
         <v/>
       </c>
       <c r="K6" s="19" t="str">
+        <v/>
+      </c>
+      <c r="L6" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10244,7 +10263,7 @@
         <v>ordered</v>
       </c>
       <c r="D7" s="12" t="str">
-        <v>⚠️ Missing: expectedDate</v>
+        <v>⚠️ Missing: expectedDate, orderLink</v>
       </c>
       <c r="E7" s="12" t="str">
         <v>install-doors</v>
@@ -10259,12 +10278,15 @@
         <v/>
       </c>
       <c r="I7" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J7" s="12" t="str">
         <v>4" Antique Bronze</v>
       </c>
-      <c r="J7" s="12" t="str">
-        <v/>
-      </c>
       <c r="K7" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L7" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10279,7 +10301,7 @@
         <v>ordered</v>
       </c>
       <c r="D8" s="19" t="str">
-        <v>⚠️ Missing: expectedDate</v>
+        <v>⚠️ Missing: expectedDate, orderLink</v>
       </c>
       <c r="E8" s="19" t="str">
         <v>install-doors</v>
@@ -10294,12 +10316,15 @@
         <v/>
       </c>
       <c r="I8" s="19" t="str">
+        <v/>
+      </c>
+      <c r="J8" s="19" t="str">
         <v>Antique Bronze</v>
       </c>
-      <c r="J8" s="19" t="str">
-        <v/>
-      </c>
       <c r="K8" s="19" t="str">
+        <v/>
+      </c>
+      <c r="L8" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10329,12 +10354,15 @@
         <v/>
       </c>
       <c r="I9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J9" s="12" t="str">
         <v>Antique Bronze</v>
       </c>
-      <c r="J9" s="12" t="str">
-        <v/>
-      </c>
       <c r="K9" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L9" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10349,7 +10377,7 @@
         <v>ordered</v>
       </c>
       <c r="D10" s="19" t="str">
-        <v>⚠️ Missing: expectedDate</v>
+        <v>⚠️ Missing: expectedDate, orderLink</v>
       </c>
       <c r="E10" s="19" t="str">
         <v>install-doors</v>
@@ -10364,12 +10392,15 @@
         <v/>
       </c>
       <c r="I10" s="19" t="str">
+        <v/>
+      </c>
+      <c r="J10" s="19" t="str">
         <v>Antique Bronze</v>
       </c>
-      <c r="J10" s="19" t="str">
-        <v/>
-      </c>
       <c r="K10" s="19" t="str">
+        <v/>
+      </c>
+      <c r="L10" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10407,6 +10438,9 @@
       <c r="K11" s="12" t="str">
         <v/>
       </c>
+      <c r="L11" s="12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="str">
@@ -10437,9 +10471,12 @@
         <v/>
       </c>
       <c r="J12" s="19" t="str">
+        <v/>
+      </c>
+      <c r="K12" s="19" t="str">
         <v>Get count.</v>
       </c>
-      <c r="K12" s="19" t="str">
+      <c r="L12" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10477,6 +10514,9 @@
       <c r="K13" s="12" t="str">
         <v/>
       </c>
+      <c r="L13" s="12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="str">
@@ -10489,7 +10529,7 @@
         <v>ordered</v>
       </c>
       <c r="D14" s="19" t="str">
-        <v>✅ Complete</v>
+        <v>⚠️ Missing: orderLink</v>
       </c>
       <c r="E14" s="19" t="str">
         <v>misc-equipment-install</v>
@@ -10510,6 +10550,9 @@
         <v/>
       </c>
       <c r="K14" s="19" t="str">
+        <v/>
+      </c>
+      <c r="L14" s="19" t="str">
         <v/>
       </c>
     </row>
@@ -10524,7 +10567,7 @@
         <v>ordered</v>
       </c>
       <c r="D15" s="12" t="str">
-        <v>✅ Complete</v>
+        <v>⚠️ Missing: orderLink</v>
       </c>
       <c r="E15" s="12" t="str">
         <v>upper-cabinet-install</v>
@@ -10545,6 +10588,9 @@
         <v/>
       </c>
       <c r="K15" s="12" t="str">
+        <v/>
+      </c>
+      <c r="L15" s="12" t="str">
         <v/>
       </c>
     </row>
@@ -10559,7 +10605,7 @@
         <v>ordered</v>
       </c>
       <c r="D16" s="19" t="str">
-        <v>⚠️ Missing: expectedDate</v>
+        <v>⚠️ Missing: expectedDate, orderLink</v>
       </c>
       <c r="E16" s="19" t="str">
         <v>upper-cabinet-install</v>
@@ -10582,12 +10628,15 @@
       <c r="K16" s="19" t="str">
         <v/>
       </c>
+      <c r="L16" s="19" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:K16"/>
+  <autoFilter ref="A1:L16"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L16"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10964,7 +11013,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11822,10 +11871,115 @@
         <v/>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="12" t="str">
+        <v>sq-free-text-hinges-main-kitchen-door-orderLink</v>
+      </c>
+      <c r="B25" s="12" t="str">
+        <v>Free Text</v>
+      </c>
+      <c r="C25" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D25" s="12" t="str">
+        <v>What is the order link for "Hinges (Main Kitchen Door)"? (e.g., Amazon order URL, or 'N/A' if not applicable)</v>
+      </c>
+      <c r="E25" s="12" t="str">
+        <v>Tonia</v>
+      </c>
+      <c r="F25" s="12" t="str">
+        <v>install-doors</v>
+      </c>
+      <c r="G25" s="12" t="str">
+        <v>hinges-main-kitchen-door</v>
+      </c>
+      <c r="H25" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I25" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J25" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K25" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="str">
+        <v>sq-free-text-retractable-extension-cord-orderLink</v>
+      </c>
+      <c r="B26" s="20" t="str">
+        <v>Free Text</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D26" s="20" t="str">
+        <v>What is the order link for "Retractable Extension Cord"? (e.g., Amazon order URL, or 'N/A' if not applicable)</v>
+      </c>
+      <c r="E26" s="20" t="str">
+        <v>Tonia</v>
+      </c>
+      <c r="F26" s="20" t="str">
+        <v>misc-equipment-install</v>
+      </c>
+      <c r="G26" s="20" t="str">
+        <v>retractable-extension-cord</v>
+      </c>
+      <c r="H26" s="20" t="str">
+        <v/>
+      </c>
+      <c r="I26" s="20" t="str">
+        <v/>
+      </c>
+      <c r="J26" s="20" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K26" s="20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="str">
+        <v>sq-free-text-upper-cabinets-orderLink</v>
+      </c>
+      <c r="B27" s="12" t="str">
+        <v>Free Text</v>
+      </c>
+      <c r="C27" s="12" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="D27" s="12" t="str">
+        <v>What is the order link for "Upper Cabinets"? (e.g., Amazon order URL, or 'N/A' if not applicable)</v>
+      </c>
+      <c r="E27" s="12" t="str">
+        <v>Tonia</v>
+      </c>
+      <c r="F27" s="12" t="str">
+        <v>upper-cabinet-install</v>
+      </c>
+      <c r="G27" s="12" t="str">
+        <v>upper-cabinets</v>
+      </c>
+      <c r="H27" s="12" t="str">
+        <v/>
+      </c>
+      <c r="I27" s="12" t="str">
+        <v/>
+      </c>
+      <c r="J27" s="12" t="str">
+        <v>Open</v>
+      </c>
+      <c r="K27" s="12" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K24"/>
+  <autoFilter ref="A1:K27"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/projects/kitchen-remodel/Kitchen-Remodel-Tracker.xlsx
+++ b/projects/kitchen-remodel/Kitchen-Remodel-Tracker.xlsx
@@ -11698,25 +11698,25 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="str">
-        <v>sq-date-hinges-back-door-expectedDate</v>
+        <v>sq-free-text-receptacle-light-switch-covers-quantity-detail</v>
       </c>
       <c r="B20" s="20" t="str">
-        <v>Date</v>
+        <v>Free Text</v>
       </c>
       <c r="C20" s="20" t="str">
         <v>2026-01-21</v>
       </c>
       <c r="D20" s="20" t="str">
-        <v>When is "Hinges (Back Door)" expected to arrive?</v>
+        <v>How many "Receptacle and Light Switch Covers" are needed, and what are the specifications? (Answer 'N/A' for specs if not applicable)</v>
       </c>
       <c r="E20" s="20" t="str">
         <v>Tonia</v>
       </c>
       <c r="F20" s="20" t="str">
-        <v>install-doors</v>
+        <v>finish-electrical</v>
       </c>
       <c r="G20" s="20" t="str">
-        <v>hinges-back-door</v>
+        <v>receptacle-light-switch-covers</v>
       </c>
       <c r="H20" s="20" t="str">
         <v/>
@@ -11733,16 +11733,16 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="str">
-        <v>sq-date-doorknob-back-door-expectedDate</v>
+        <v>sq-free-text-hinges-main-kitchen-door-orderLink</v>
       </c>
       <c r="B21" s="12" t="str">
-        <v>Date</v>
+        <v>Free Text</v>
       </c>
       <c r="C21" s="12" t="str">
         <v>2026-01-21</v>
       </c>
       <c r="D21" s="12" t="str">
-        <v>When is "Doorknob (Back Door)" expected to arrive?</v>
+        <v>What is the order link for "Hinges (Main Kitchen Door)"? (e.g., Amazon order URL, or 'N/A' if not applicable)</v>
       </c>
       <c r="E21" s="12" t="str">
         <v>Tonia</v>
@@ -11751,7 +11751,7 @@
         <v>install-doors</v>
       </c>
       <c r="G21" s="12" t="str">
-        <v>doorknob-back-door</v>
+        <v>hinges-main-kitchen-door</v>
       </c>
       <c r="H21" s="12" t="str">
         <v/>
@@ -11768,25 +11768,25 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="str">
-        <v>sq-date-doorknob-hinges-hvac-expectedDate</v>
+        <v>sq-free-text-retractable-extension-cord-orderLink</v>
       </c>
       <c r="B22" s="20" t="str">
-        <v>Date</v>
+        <v>Free Text</v>
       </c>
       <c r="C22" s="20" t="str">
         <v>2026-01-21</v>
       </c>
       <c r="D22" s="20" t="str">
-        <v>When is "Doorknob &amp; Hinges (HVAC)" expected to arrive?</v>
+        <v>What is the order link for "Retractable Extension Cord"? (e.g., Amazon order URL, or 'N/A' if not applicable)</v>
       </c>
       <c r="E22" s="20" t="str">
         <v>Tonia</v>
       </c>
       <c r="F22" s="20" t="str">
-        <v>install-doors</v>
+        <v>misc-equipment-install</v>
       </c>
       <c r="G22" s="20" t="str">
-        <v>doorknob-hinges-hvac</v>
+        <v>retractable-extension-cord</v>
       </c>
       <c r="H22" s="20" t="str">
         <v/>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="str">
-        <v>sq-free-text-receptacle-light-switch-covers-quantity-detail</v>
+        <v>sq-free-text-upper-cabinets-orderLink</v>
       </c>
       <c r="B23" s="12" t="str">
         <v>Free Text</v>
@@ -11812,16 +11812,16 @@
         <v>2026-01-21</v>
       </c>
       <c r="D23" s="12" t="str">
-        <v>How many "Receptacle and Light Switch Covers" are needed, and what are the specifications? (Answer 'N/A' for specs if not applicable)</v>
+        <v>What is the order link for "Upper Cabinets"? (e.g., Amazon order URL, or 'N/A' if not applicable)</v>
       </c>
       <c r="E23" s="12" t="str">
         <v>Tonia</v>
       </c>
       <c r="F23" s="12" t="str">
-        <v>finish-electrical</v>
+        <v>upper-cabinet-install</v>
       </c>
       <c r="G23" s="12" t="str">
-        <v>receptacle-light-switch-covers</v>
+        <v>upper-cabinets</v>
       </c>
       <c r="H23" s="12" t="str">
         <v/>
@@ -11838,25 +11838,25 @@
     </row>
     <row r="24">
       <c r="A24" s="20" t="str">
-        <v>sq-date-upper-cabinet-handles-expectedDate</v>
+        <v>sq-free-text-hinges-back-door-expectedDate-orderLink</v>
       </c>
       <c r="B24" s="20" t="str">
-        <v>Date</v>
+        <v>Free Text</v>
       </c>
       <c r="C24" s="20" t="str">
         <v>2026-01-21</v>
       </c>
       <c r="D24" s="20" t="str">
-        <v>When is "Upper Cabinet Handles" expected to arrive?</v>
+        <v>For "Hinges (Back Door)": What is the expected delivery date and order link? (e.g., "2026-01-25, https://amazon.com/..." or "2026-01-25, N/A")</v>
       </c>
       <c r="E24" s="20" t="str">
         <v>Tonia</v>
       </c>
       <c r="F24" s="20" t="str">
-        <v>upper-cabinet-install</v>
+        <v>install-doors</v>
       </c>
       <c r="G24" s="20" t="str">
-        <v>upper-cabinet-handles</v>
+        <v>hinges-back-door</v>
       </c>
       <c r="H24" s="20" t="str">
         <v/>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="str">
-        <v>sq-free-text-hinges-main-kitchen-door-orderLink</v>
+        <v>sq-free-text-doorknob-back-door-expectedDate-orderLink</v>
       </c>
       <c r="B25" s="12" t="str">
         <v>Free Text</v>
@@ -11882,7 +11882,7 @@
         <v>2026-01-21</v>
       </c>
       <c r="D25" s="12" t="str">
-        <v>What is the order link for "Hinges (Main Kitchen Door)"? (e.g., Amazon order URL, or 'N/A' if not applicable)</v>
+        <v>For "Doorknob (Back Door)": What is the expected delivery date and order link? (e.g., "2026-01-25, https://amazon.com/..." or "2026-01-25, N/A")</v>
       </c>
       <c r="E25" s="12" t="str">
         <v>Tonia</v>
@@ -11891,7 +11891,7 @@
         <v>install-doors</v>
       </c>
       <c r="G25" s="12" t="str">
-        <v>hinges-main-kitchen-door</v>
+        <v>doorknob-back-door</v>
       </c>
       <c r="H25" s="12" t="str">
         <v/>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="str">
-        <v>sq-free-text-retractable-extension-cord-orderLink</v>
+        <v>sq-free-text-doorknob-hinges-hvac-expectedDate-orderLink</v>
       </c>
       <c r="B26" s="20" t="str">
         <v>Free Text</v>
@@ -11917,16 +11917,16 @@
         <v>2026-01-21</v>
       </c>
       <c r="D26" s="20" t="str">
-        <v>What is the order link for "Retractable Extension Cord"? (e.g., Amazon order URL, or 'N/A' if not applicable)</v>
+        <v>For "Doorknob &amp; Hinges (HVAC)": What is the expected delivery date and order link? (e.g., "2026-01-25, https://amazon.com/..." or "2026-01-25, N/A")</v>
       </c>
       <c r="E26" s="20" t="str">
         <v>Tonia</v>
       </c>
       <c r="F26" s="20" t="str">
-        <v>misc-equipment-install</v>
+        <v>install-doors</v>
       </c>
       <c r="G26" s="20" t="str">
-        <v>retractable-extension-cord</v>
+        <v>doorknob-hinges-hvac</v>
       </c>
       <c r="H26" s="20" t="str">
         <v/>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="str">
-        <v>sq-free-text-upper-cabinets-orderLink</v>
+        <v>sq-free-text-upper-cabinet-handles-expectedDate-orderLink</v>
       </c>
       <c r="B27" s="12" t="str">
         <v>Free Text</v>
@@ -11952,7 +11952,7 @@
         <v>2026-01-21</v>
       </c>
       <c r="D27" s="12" t="str">
-        <v>What is the order link for "Upper Cabinets"? (e.g., Amazon order URL, or 'N/A' if not applicable)</v>
+        <v>For "Upper Cabinet Handles": What is the expected delivery date and order link? (e.g., "2026-01-25, https://amazon.com/..." or "2026-01-25, N/A")</v>
       </c>
       <c r="E27" s="12" t="str">
         <v>Tonia</v>
@@ -11961,7 +11961,7 @@
         <v>upper-cabinet-install</v>
       </c>
       <c r="G27" s="12" t="str">
-        <v>upper-cabinets</v>
+        <v>upper-cabinet-handles</v>
       </c>
       <c r="H27" s="12" t="str">
         <v/>

--- a/projects/kitchen-remodel/Kitchen-Remodel-Tracker.xlsx
+++ b/projects/kitchen-remodel/Kitchen-Remodel-Tracker.xlsx
@@ -9,15 +9,15 @@
     <sheet name="Tasks" sheetId="4" r:id="rId4"/>
     <sheet name="Materials" sheetId="5" r:id="rId5"/>
     <sheet name="Vendors" sheetId="6" r:id="rId6"/>
-    <sheet name="Open Questions" sheetId="7" r:id="rId7"/>
+    <sheet name="Issues" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Schedule'!A1:K79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'By Assignee'!A1:I109</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'Tasks'!A1:M81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Materials'!A1:L16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Schedule'!A1:K80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'By Assignee'!A1:I110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'Tasks'!A1:M82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Materials'!A1:L18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5">'Vendors'!A1:G15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Open Questions'!A1:L83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6">'Issues'!A1:L83</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -942,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -987,7 +987,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>📋 OPEN QUESTIONS</v>
+        <v>📋 ISSUES</v>
       </c>
     </row>
     <row r="9">
@@ -997,7 +997,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="str">
-        <v>Questions that need your input. Find your name in the Assignee column</v>
+        <v>Issues that need your input. Find your name in the Assignee column</v>
       </c>
     </row>
     <row r="11">
@@ -1017,7 +1017,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="str">
-        <v>question disappears from this list.</v>
+        <v>issue disappears from this list.</v>
       </c>
     </row>
     <row r="15">
@@ -1027,57 +1027,57 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="str">
-        <v xml:space="preserve">  • Yellow rows = Waiting for your answer</v>
+        <v>Row colors indicate action needed:</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="str">
-        <v/>
+        <v xml:space="preserve">  • Blue = Assign (Who should do this?)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="str">
-        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
+        <v xml:space="preserve">  • Orange = Schedule (When should this happen?)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="str">
-        <v/>
+        <v xml:space="preserve">  • Green = Order (Ready to purchase?)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>📅 SCHEDULE</v>
+        <v xml:space="preserve">  • Yellow = Specify (Need specs/quantity)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="str">
-        <v/>
+        <v xml:space="preserve">  • Purple = Track (Need delivery info)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="str">
-        <v>Shows tasks in the order they can be done - what needs to finish</v>
+        <v xml:space="preserve">  • White = Decide (Decision needed)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="str">
-        <v>before something else can start.</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="str">
-        <v/>
+        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="str">
-        <v>Use this to see what's next and what's blocking progress.</v>
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="str">
-        <v>Check the Issues column (in red) for problems that need attention.</v>
+        <v>📅 SCHEDULE</v>
       </c>
     </row>
     <row r="27">
@@ -1087,250 +1087,280 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="str">
-        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
+        <v>Shows tasks in the order they can be done - what needs to finish</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="str">
-        <v/>
+        <v>before something else can start.</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>👤 BY ASSIGNEE</v>
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="str">
-        <v/>
+        <v>Use this to see what's next and what's blocking progress.</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="str">
-        <v>Tasks grouped by who's responsible.</v>
+        <v>Check the Issues column (in red) for problems that need attention.</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="str">
-        <v>See your workload at a glance, or check what others are working on.</v>
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="str">
-        <v/>
+        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="str">
-        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="str">
-        <v/>
+        <v>👤 BY ASSIGNEE</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="str">
-        <v>📝 TASKS</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="str">
-        <v/>
+        <v>Tasks grouped by who's responsible.</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="str">
-        <v>The master list of all tasks with full details - dates, dependencies,</v>
+        <v>See your workload at a glance, or check what others are working on.</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="str">
-        <v>notes, and materials needed.</v>
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="str">
-        <v/>
+        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="str">
-        <v>Look here when you need the complete picture on any task.</v>
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="str">
-        <v/>
+        <v>📝 TASKS</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="str">
-        <v>Ready column shows if we have all needed info:</v>
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="str">
-        <v xml:space="preserve">  • ✅ Yes = Has dates and assignee</v>
+        <v>The master list of all tasks with full details - dates, dependencies,</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="str">
-        <v xml:space="preserve">  • ⚠️ Missing: dates = Needs start/end dates</v>
+        <v>notes, and materials needed.</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="str">
-        <v xml:space="preserve">  • ⚠️ Missing: assignee = Needs someone assigned</v>
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="str">
-        <v/>
+        <v>Look here when you need the complete picture on any task.</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="str">
-        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v/>
+        <v>Ready column shows if we have all needed info:</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="str">
-        <v>📦 MATERIALS</v>
+        <v xml:space="preserve">  • ✅ Yes = Has dates and assignee</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="str">
-        <v/>
+        <v xml:space="preserve">  • ⚠️ Missing: dates = Needs start/end dates</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="str">
-        <v>All materials needed for the project - what's on-hand, what's ordered,</v>
+        <v xml:space="preserve">  • ⚠️ Missing: assignee = Needs someone assigned</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="str">
-        <v>what still needs to be purchased.</v>
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="str">
-        <v/>
+        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="str">
-        <v>Check expected delivery dates and order links here.</v>
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="str">
-        <v/>
+        <v>📦 MATERIALS</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="str">
-        <v>Ready column shows if we have all needed info for that status:</v>
+        <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="str">
-        <v xml:space="preserve">  • ✅ Yes = Has everything needed</v>
+        <v>All materials needed for the project - what's on-hand, what's ordered,</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="str">
-        <v xml:space="preserve">  • ⚠️ Missing: specs = Needs specs/details</v>
+        <v>what still needs to be purchased.</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="str">
-        <v xml:space="preserve">  • ⚠️ Missing: quantity = Needs quantity</v>
+        <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="str">
-        <v xml:space="preserve">  • ⚠️ Missing: expectedDate = Needs delivery date</v>
+        <v>Check expected delivery dates and order links here.</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="str">
-        <v xml:space="preserve">  • ⚠️ Missing: orderLink = Needs order link</v>
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="str">
-        <v/>
+        <v>Ready column shows if we have all needed info for that status:</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="str">
-        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
+        <v xml:space="preserve">  • ✅ Yes = Has everything needed</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v/>
+        <v xml:space="preserve">  • ⚠️ Missing: specs = Needs specs/details</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="str">
-        <v>NOTES</v>
+        <v xml:space="preserve">  • ⚠️ Missing: quantity = Needs quantity</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="str">
-        <v/>
+        <v xml:space="preserve">  • ⚠️ Missing: expectedDate = Needs delivery date</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="str">
-        <v>• You can't break anything - other tabs are protected</v>
+        <v xml:space="preserve">  • ⚠️ Missing: orderLink = Needs order link</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="str">
-        <v>• After you answer, changes appear in the next update</v>
+        <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="str">
-        <v>• View this on a computer - it's too complex for mobile</v>
+        <v>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="str">
-        <v>• Questions? Contact Dave</v>
+        <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="str">
-        <v/>
+        <v>NOTES</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="str">
+        <v>• You can't break anything - other tabs are protected</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="str">
+        <v>• After you answer, changes appear in the next update</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="str">
+        <v>• View this on a computer - it's too complex for mobile</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="str">
+        <v>• Questions? Contact Dave</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="str">
         <v>Last updated: Thursday, January 22, 2026</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A80"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4113,18 +4143,53 @@
         <v>No assignee</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="C80" s="7" t="str">
+        <v>hvac-finish</v>
+      </c>
+      <c r="D80" s="7" t="str">
+        <v>Schedule HVAC Finish</v>
+      </c>
+      <c r="E80" s="7" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="F80" s="7" t="str">
+        <v/>
+      </c>
+      <c r="G80" s="7" t="str">
+        <v/>
+      </c>
+      <c r="H80" s="7" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="I80" s="7" t="str">
+        <v>Joclar &amp; Fields</v>
+      </c>
+      <c r="J80" s="7" t="str">
+        <v/>
+      </c>
+      <c r="K80" s="7" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:K79"/>
+  <autoFilter ref="A1:K80"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K79"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K80"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6645,7 +6710,7 @@
     </row>
     <row r="87">
       <c r="A87" s="16" t="str">
-        <v>▶ Joclar &amp; Fields (1 items)</v>
+        <v>▶ Joclar &amp; Fields (2 items)</v>
       </c>
       <c r="B87" s="16" t="str">
         <v/>
@@ -6702,89 +6767,89 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B89" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C89" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D89" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E89" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F89" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G89" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H89" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I89" s="2" t="str">
+      <c r="A89" s="9" t="str">
+        <v/>
+      </c>
+      <c r="B89" s="9" t="str">
+        <v>hvac-finish</v>
+      </c>
+      <c r="C89" s="9" t="str">
+        <v>Schedule HVAC Finish</v>
+      </c>
+      <c r="D89" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E89" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F89" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G89" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H89" s="9" t="str">
+        <v/>
+      </c>
+      <c r="I89" s="9" t="str">
         <v/>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="16" t="str">
+      <c r="A90" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B90" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C90" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D90" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E90" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F90" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G90" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H90" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I90" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="16" t="str">
         <v>▶ Sergio (2 items)</v>
       </c>
-      <c r="B90" s="16" t="str">
-        <v/>
-      </c>
-      <c r="C90" s="16" t="str">
-        <v/>
-      </c>
-      <c r="D90" s="16" t="str">
-        <v/>
-      </c>
-      <c r="E90" s="16" t="str">
-        <v/>
-      </c>
-      <c r="F90" s="16" t="str">
-        <v/>
-      </c>
-      <c r="G90" s="16" t="str">
-        <v/>
-      </c>
-      <c r="H90" s="16" t="str">
-        <v/>
-      </c>
-      <c r="I90" s="16" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="9" t="str">
-        <v/>
-      </c>
-      <c r="B91" s="9" t="str">
-        <v>siding</v>
-      </c>
-      <c r="C91" s="9" t="str">
-        <v>Siding</v>
-      </c>
-      <c r="D91" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E91" s="9" t="str">
-        <v/>
-      </c>
-      <c r="F91" s="9" t="str">
-        <v/>
-      </c>
-      <c r="G91" s="9" t="str">
-        <v>propane</v>
-      </c>
-      <c r="H91" s="9" t="str">
-        <v/>
-      </c>
-      <c r="I91" s="9" t="str">
+      <c r="B91" s="16" t="str">
+        <v/>
+      </c>
+      <c r="C91" s="16" t="str">
+        <v/>
+      </c>
+      <c r="D91" s="16" t="str">
+        <v/>
+      </c>
+      <c r="E91" s="16" t="str">
+        <v/>
+      </c>
+      <c r="F91" s="16" t="str">
+        <v/>
+      </c>
+      <c r="G91" s="16" t="str">
+        <v/>
+      </c>
+      <c r="H91" s="16" t="str">
+        <v/>
+      </c>
+      <c r="I91" s="16" t="str">
         <v/>
       </c>
     </row>
@@ -6793,115 +6858,115 @@
         <v/>
       </c>
       <c r="B92" s="17" t="str">
+        <v>siding</v>
+      </c>
+      <c r="C92" s="17" t="str">
+        <v>Siding</v>
+      </c>
+      <c r="D92" s="17" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E92" s="17" t="str">
+        <v/>
+      </c>
+      <c r="F92" s="17" t="str">
+        <v/>
+      </c>
+      <c r="G92" s="17" t="str">
+        <v>propane</v>
+      </c>
+      <c r="H92" s="17" t="str">
+        <v/>
+      </c>
+      <c r="I92" s="17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="str">
+        <v/>
+      </c>
+      <c r="B93" s="9" t="str">
         <v>siding-2</v>
       </c>
-      <c r="C92" s="17" t="str">
+      <c r="C93" s="9" t="str">
         <v xml:space="preserve">  ↳ Siding</v>
       </c>
-      <c r="D92" s="17" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E92" s="17" t="str">
-        <v/>
-      </c>
-      <c r="F92" s="17" t="str">
-        <v/>
-      </c>
-      <c r="G92" s="17" t="str">
-        <v/>
-      </c>
-      <c r="H92" s="17" t="str">
-        <v/>
-      </c>
-      <c r="I92" s="17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B93" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C93" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D93" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E93" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F93" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G93" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H93" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I93" s="2" t="str">
+      <c r="D93" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E93" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F93" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G93" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H93" s="9" t="str">
+        <v/>
+      </c>
+      <c r="I93" s="9" t="str">
         <v/>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="16" t="str">
+      <c r="A94" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B94" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C94" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D94" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E94" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F94" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G94" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H94" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I94" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="16" t="str">
         <v>▶ Unassigned (14 items)</v>
       </c>
-      <c r="B94" s="16" t="str">
-        <v/>
-      </c>
-      <c r="C94" s="16" t="str">
-        <v/>
-      </c>
-      <c r="D94" s="16" t="str">
-        <v/>
-      </c>
-      <c r="E94" s="16" t="str">
-        <v/>
-      </c>
-      <c r="F94" s="16" t="str">
-        <v/>
-      </c>
-      <c r="G94" s="16" t="str">
-        <v/>
-      </c>
-      <c r="H94" s="16" t="str">
-        <v/>
-      </c>
-      <c r="I94" s="16" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="9" t="str">
-        <v/>
-      </c>
-      <c r="B95" s="9" t="str">
-        <v>crest-prep</v>
-      </c>
-      <c r="C95" s="9" t="str">
-        <v>Crest Prep / Cleaning</v>
-      </c>
-      <c r="D95" s="9" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E95" s="9" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="F95" s="9" t="str">
-        <v>2026-01-26</v>
-      </c>
-      <c r="G95" s="9" t="str">
-        <v>kitchen-baseboard, upper-cabinet-install, finish-trim</v>
-      </c>
-      <c r="H95" s="9" t="str">
-        <v>crest-installation</v>
-      </c>
-      <c r="I95" s="9" t="str">
-        <v>Clean and prep kitchen area before Crest arrives. Clear tools and materials, protect flooring.</v>
+      <c r="B95" s="16" t="str">
+        <v/>
+      </c>
+      <c r="C95" s="16" t="str">
+        <v/>
+      </c>
+      <c r="D95" s="16" t="str">
+        <v/>
+      </c>
+      <c r="E95" s="16" t="str">
+        <v/>
+      </c>
+      <c r="F95" s="16" t="str">
+        <v/>
+      </c>
+      <c r="G95" s="16" t="str">
+        <v/>
+      </c>
+      <c r="H95" s="16" t="str">
+        <v/>
+      </c>
+      <c r="I95" s="16" t="str">
+        <v/>
       </c>
     </row>
     <row r="96">
@@ -6909,28 +6974,28 @@
         <v/>
       </c>
       <c r="B96" s="17" t="str">
-        <v>propane</v>
+        <v>crest-prep</v>
       </c>
       <c r="C96" s="17" t="str">
-        <v>Propane</v>
+        <v>Crest Prep / Cleaning</v>
       </c>
       <c r="D96" s="17" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="E96" s="17" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-26</v>
       </c>
       <c r="F96" s="17" t="str">
-        <v>2026-01-23</v>
+        <v>2026-01-26</v>
       </c>
       <c r="G96" s="17" t="str">
-        <v/>
+        <v>kitchen-baseboard, upper-cabinet-install, finish-trim</v>
       </c>
       <c r="H96" s="17" t="str">
-        <v>crest-installation, install-stainless-wall, siding</v>
+        <v>crest-installation</v>
       </c>
       <c r="I96" s="17" t="str">
-        <v>Dave coordinating and responsible. Dependency for siding install.</v>
+        <v>Clean and prep kitchen area before Crest arrives. Clear tools and materials, protect flooring.</v>
       </c>
     </row>
     <row r="97">
@@ -6938,28 +7003,28 @@
         <v/>
       </c>
       <c r="B97" s="9" t="str">
-        <v>kitchen-put-back</v>
+        <v>propane</v>
       </c>
       <c r="C97" s="9" t="str">
-        <v>Kitchen Put-Back</v>
+        <v>Propane</v>
       </c>
       <c r="D97" s="9" t="str">
-        <v>needs-scheduled</v>
+        <v>scheduled</v>
       </c>
       <c r="E97" s="9" t="str">
-        <v/>
+        <v>2026-01-23</v>
       </c>
       <c r="F97" s="9" t="str">
-        <v/>
+        <v>2026-01-23</v>
       </c>
       <c r="G97" s="9" t="str">
-        <v>crest-installation, finish-plumbing</v>
+        <v/>
       </c>
       <c r="H97" s="9" t="str">
-        <v>project-finish</v>
+        <v>crest-installation, install-stainless-wall, siding</v>
       </c>
       <c r="I97" s="9" t="str">
-        <v/>
+        <v>Dave coordinating and responsible. Dependency for siding install.</v>
       </c>
     </row>
     <row r="98">
@@ -6967,10 +7032,10 @@
         <v/>
       </c>
       <c r="B98" s="17" t="str">
-        <v>kitchen-put-back-2</v>
+        <v>kitchen-put-back</v>
       </c>
       <c r="C98" s="17" t="str">
-        <v xml:space="preserve">  ↳ Install Ovens</v>
+        <v>Kitchen Put-Back</v>
       </c>
       <c r="D98" s="17" t="str">
         <v>needs-scheduled</v>
@@ -6982,10 +7047,10 @@
         <v/>
       </c>
       <c r="G98" s="17" t="str">
-        <v/>
+        <v>crest-installation, finish-plumbing</v>
       </c>
       <c r="H98" s="17" t="str">
-        <v/>
+        <v>project-finish</v>
       </c>
       <c r="I98" s="17" t="str">
         <v/>
@@ -6996,10 +7061,10 @@
         <v/>
       </c>
       <c r="B99" s="9" t="str">
-        <v>kitchen-put-back-3</v>
+        <v>kitchen-put-back-2</v>
       </c>
       <c r="C99" s="9" t="str">
-        <v xml:space="preserve">  ↳ Move Range, Freezers and Refrigerators</v>
+        <v xml:space="preserve">  ↳ Install Ovens</v>
       </c>
       <c r="D99" s="9" t="str">
         <v>needs-scheduled</v>
@@ -7025,10 +7090,10 @@
         <v/>
       </c>
       <c r="B100" s="17" t="str">
-        <v>install-dryer-vents</v>
+        <v>kitchen-put-back-3</v>
       </c>
       <c r="C100" s="17" t="str">
-        <v>Install Dryer Vents</v>
+        <v xml:space="preserve">  ↳ Move Range, Freezers and Refrigerators</v>
       </c>
       <c r="D100" s="17" t="str">
         <v>needs-scheduled</v>
@@ -7046,7 +7111,7 @@
         <v/>
       </c>
       <c r="I100" s="17" t="str">
-        <v>Cut holes from laundry room to outside for dryer vents.</v>
+        <v/>
       </c>
     </row>
     <row r="101">
@@ -7054,10 +7119,10 @@
         <v/>
       </c>
       <c r="B101" s="9" t="str">
-        <v>misc-equipment-install</v>
+        <v>install-dryer-vents</v>
       </c>
       <c r="C101" s="9" t="str">
-        <v>Misc Equipment Install</v>
+        <v>Install Dryer Vents</v>
       </c>
       <c r="D101" s="9" t="str">
         <v>needs-scheduled</v>
@@ -7075,7 +7140,7 @@
         <v/>
       </c>
       <c r="I101" s="9" t="str">
-        <v/>
+        <v>Cut holes from laundry room to outside for dryer vents.</v>
       </c>
     </row>
     <row r="102">
@@ -7083,10 +7148,10 @@
         <v/>
       </c>
       <c r="B102" s="17" t="str">
-        <v>misc-equipment-install-1</v>
+        <v>misc-equipment-install</v>
       </c>
       <c r="C102" s="17" t="str">
-        <v xml:space="preserve">  ↳ Install Pot Rack</v>
+        <v>Misc Equipment Install</v>
       </c>
       <c r="D102" s="17" t="str">
         <v>needs-scheduled</v>
@@ -7112,10 +7177,10 @@
         <v/>
       </c>
       <c r="B103" s="9" t="str">
-        <v>misc-equipment-install-2</v>
+        <v>misc-equipment-install-1</v>
       </c>
       <c r="C103" s="9" t="str">
-        <v xml:space="preserve">  ↳ Install Retractable Extension Cord</v>
+        <v xml:space="preserve">  ↳ Install Pot Rack</v>
       </c>
       <c r="D103" s="9" t="str">
         <v>needs-scheduled</v>
@@ -7141,28 +7206,28 @@
         <v/>
       </c>
       <c r="B104" s="17" t="str">
-        <v>upper-cabinet-install</v>
+        <v>misc-equipment-install-2</v>
       </c>
       <c r="C104" s="17" t="str">
-        <v>Upper Cabinet Install</v>
+        <v xml:space="preserve">  ↳ Install Retractable Extension Cord</v>
       </c>
       <c r="D104" s="17" t="str">
-        <v>scheduled</v>
+        <v>needs-scheduled</v>
       </c>
       <c r="E104" s="17" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="F104" s="17" t="str">
-        <v>2026-01-26</v>
+        <v/>
       </c>
       <c r="G104" s="17" t="str">
-        <v>finish-trim</v>
+        <v/>
       </c>
       <c r="H104" s="17" t="str">
-        <v>crest-prep, crest-installation</v>
+        <v/>
       </c>
       <c r="I104" s="17" t="str">
-        <v>Requires cabinet crown installation.</v>
+        <v/>
       </c>
     </row>
     <row r="105">
@@ -7170,28 +7235,28 @@
         <v/>
       </c>
       <c r="B105" s="9" t="str">
-        <v>upper-cabinet-install-1</v>
+        <v>upper-cabinet-install</v>
       </c>
       <c r="C105" s="9" t="str">
-        <v xml:space="preserve">  ↳ Upper Cabinet Delivery</v>
+        <v>Upper Cabinet Install</v>
       </c>
       <c r="D105" s="9" t="str">
-        <v>confirmed</v>
+        <v>scheduled</v>
       </c>
       <c r="E105" s="9" t="str">
-        <v>2026-01-22</v>
+        <v>2026-01-26</v>
       </c>
       <c r="F105" s="9" t="str">
-        <v>2026-01-22</v>
+        <v>2026-01-26</v>
       </c>
       <c r="G105" s="9" t="str">
-        <v/>
+        <v>finish-trim</v>
       </c>
       <c r="H105" s="9" t="str">
-        <v/>
+        <v>crest-prep, crest-installation</v>
       </c>
       <c r="I105" s="9" t="str">
-        <v/>
+        <v>Requires cabinet crown installation.</v>
       </c>
     </row>
     <row r="106">
@@ -7199,19 +7264,19 @@
         <v/>
       </c>
       <c r="B106" s="17" t="str">
-        <v>upper-cabinet-install-3</v>
+        <v>upper-cabinet-install-1</v>
       </c>
       <c r="C106" s="17" t="str">
-        <v xml:space="preserve">  ↳ Install Upper Cabinets</v>
+        <v xml:space="preserve">  ↳ Upper Cabinet Delivery</v>
       </c>
       <c r="D106" s="17" t="str">
-        <v>needs-scheduled</v>
+        <v>confirmed</v>
       </c>
       <c r="E106" s="17" t="str">
-        <v>2026-01-26</v>
+        <v>2026-01-22</v>
       </c>
       <c r="F106" s="17" t="str">
-        <v>2026-01-26</v>
+        <v>2026-01-22</v>
       </c>
       <c r="G106" s="17" t="str">
         <v/>
@@ -7228,28 +7293,28 @@
         <v/>
       </c>
       <c r="B107" s="9" t="str">
-        <v>project-finish</v>
+        <v>upper-cabinet-install-3</v>
       </c>
       <c r="C107" s="9" t="str">
-        <v>Project Finish</v>
+        <v xml:space="preserve">  ↳ Install Upper Cabinets</v>
       </c>
       <c r="D107" s="9" t="str">
         <v>needs-scheduled</v>
       </c>
       <c r="E107" s="9" t="str">
-        <v/>
+        <v>2026-01-26</v>
       </c>
       <c r="F107" s="9" t="str">
-        <v/>
+        <v>2026-01-26</v>
       </c>
       <c r="G107" s="9" t="str">
-        <v>inspection, crest-installation, kitchen-put-back, close-permit</v>
+        <v/>
       </c>
       <c r="H107" s="9" t="str">
         <v/>
       </c>
       <c r="I107" s="9" t="str">
-        <v>Final punch acceptance criteria: All work complete per contract scope, all inspections passed, all equipment operational, no safety hazards, cosmetic defects documented and remediated.</v>
+        <v/>
       </c>
     </row>
     <row r="108">
@@ -7257,71 +7322,100 @@
         <v/>
       </c>
       <c r="B108" s="17" t="str">
+        <v>project-finish</v>
+      </c>
+      <c r="C108" s="17" t="str">
+        <v>Project Finish</v>
+      </c>
+      <c r="D108" s="17" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E108" s="17" t="str">
+        <v/>
+      </c>
+      <c r="F108" s="17" t="str">
+        <v/>
+      </c>
+      <c r="G108" s="17" t="str">
+        <v>inspection, crest-installation, kitchen-put-back, close-permit</v>
+      </c>
+      <c r="H108" s="17" t="str">
+        <v/>
+      </c>
+      <c r="I108" s="17" t="str">
+        <v>Final punch acceptance criteria: All work complete per contract scope, all inspections passed, all equipment operational, no safety hazards, cosmetic defects documented and remediated.</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="str">
+        <v/>
+      </c>
+      <c r="B109" s="9" t="str">
         <v>install-hvac-registers</v>
       </c>
-      <c r="C108" s="17" t="str">
+      <c r="C109" s="9" t="str">
         <v>Install HVAC Registers</v>
       </c>
-      <c r="D108" s="17" t="str">
-        <v>needs-scheduled</v>
-      </c>
-      <c r="E108" s="17" t="str">
-        <v/>
-      </c>
-      <c r="F108" s="17" t="str">
-        <v/>
-      </c>
-      <c r="G108" s="17" t="str">
-        <v/>
-      </c>
-      <c r="H108" s="17" t="str">
-        <v/>
-      </c>
-      <c r="I108" s="17" t="str">
+      <c r="D109" s="9" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E109" s="9" t="str">
+        <v/>
+      </c>
+      <c r="F109" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G109" s="9" t="str">
+        <v/>
+      </c>
+      <c r="H109" s="9" t="str">
+        <v/>
+      </c>
+      <c r="I109" s="9" t="str">
         <v>Need to check with Chad if he's providing and installing these</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B109" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C109" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D109" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E109" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F109" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G109" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H109" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I109" s="2" t="str">
+    <row r="110">
+      <c r="A110" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B110" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C110" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D110" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E110" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F110" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G110" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H110" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I110" s="2" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:I109"/>
+  <autoFilter ref="A1:I110"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I109"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I110"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10914,18 +11008,62 @@
         <v/>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="7" t="str">
+        <v>TASK</v>
+      </c>
+      <c r="B82" s="7" t="str">
+        <v>hvac-finish</v>
+      </c>
+      <c r="C82" s="7" t="str">
+        <v>Schedule HVAC Finish</v>
+      </c>
+      <c r="D82" s="7" t="str">
+        <v>needs-scheduled</v>
+      </c>
+      <c r="E82" s="7" t="str">
+        <v>⚠️ Missing: dates</v>
+      </c>
+      <c r="F82" s="7" t="str">
+        <v/>
+      </c>
+      <c r="G82" s="7" t="str">
+        <v/>
+      </c>
+      <c r="H82" s="7" t="str">
+        <v>Joclar &amp; Fields</v>
+      </c>
+      <c r="I82" s="7" t="str">
+        <v>mechanical</v>
+      </c>
+      <c r="J82" s="7" t="str">
+        <v/>
+      </c>
+      <c r="K82" s="7" t="str">
+        <v/>
+      </c>
+      <c r="L82" s="7" t="str">
+        <v>hvac-registers, hvac-cold-air-return</v>
+      </c>
+      <c r="M82" s="7" t="str">
+        <v/>
+      </c>
+      <c r="N82" s="2" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:M81"/>
+  <autoFilter ref="A1:M82"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N82"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11552,11 +11690,87 @@
         <v/>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="9" t="str">
+        <v>hvac-registers</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <v>HVAC Registers</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <v>vendor-provided</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <v>✅ Yes</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <v>hvac-finish</v>
+      </c>
+      <c r="F17" s="9" t="str">
+        <v/>
+      </c>
+      <c r="G17" s="9">
+        <v>8</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <v/>
+      </c>
+      <c r="I17" s="9" t="str">
+        <v/>
+      </c>
+      <c r="J17" s="9" t="str">
+        <v>White</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <v/>
+      </c>
+      <c r="L17" s="9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="17" t="str">
+        <v>hvac-cold-air-return</v>
+      </c>
+      <c r="B18" s="17" t="str">
+        <v>HVAC Cold Air Return Cover</v>
+      </c>
+      <c r="C18" s="17" t="str">
+        <v>vendor-provided</v>
+      </c>
+      <c r="D18" s="17" t="str">
+        <v>✅ Yes</v>
+      </c>
+      <c r="E18" s="17" t="str">
+        <v>hvac-finish</v>
+      </c>
+      <c r="F18" s="17" t="str">
+        <v/>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17" t="str">
+        <v/>
+      </c>
+      <c r="I18" s="17" t="str">
+        <v/>
+      </c>
+      <c r="J18" s="17" t="str">
+        <v>White</v>
+      </c>
+      <c r="K18" s="17" t="str">
+        <v/>
+      </c>
+      <c r="L18" s="17" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:L16"/>
+  <autoFilter ref="A1:L18"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
   </ignoredErrors>
 </worksheet>
 </file>
